--- a/暑假计划.xlsx
+++ b/暑假计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9128" tabRatio="736" firstSheet="2" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9128" tabRatio="736" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="贝妞愿望" sheetId="5" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <definedName name="时间表">假期大时间表!$A$2:$P$57</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="382">
   <si>
     <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1544,6 +1545,36 @@
   </si>
   <si>
     <t>初二上数学预习，自考95分以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强健的体魄可以带来良好的精神面貌；培养体能和耐力有助于提升注意力。
+籍此机会，早上早起，养成健康良好的暑期生活习惯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 每天早上六点起床早锻炼；
+2. 能够坚持跑完5KM，或者骑行15KM；
+3. 学会自由泳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 每天上午六点按时起床；
+2. 如果天气好，在小区附近活动，晨跑或者骑行；如果天气不佳改为当日游泳（可能需要占用下午时间）
+3. 早上运动以后出汗，回来洗澡，限定10分种以内，同时自己清洗运动衣裤；
+4. 每天运动，可以得到额外2分。计划好运动，因为没有起床或者偷懒，不能的此2分加分，并且在每日的自我管理分数中扣除2分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上十点以前准备上床睡觉，十点半以后熄灯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/7/12制表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3231,7 +3262,7 @@
   <dimension ref="B1:H45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3243,6 +3274,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>381</v>
+      </c>
       <c r="D1" s="67" t="s">
         <v>291</v>
       </c>
@@ -3797,7 +3831,7 @@
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection activeCell="D15" sqref="D15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4724,7 +4758,7 @@
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4806,7 +4840,9 @@
       <c r="B5" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="119"/>
+      <c r="C5" s="119" t="s">
+        <v>376</v>
+      </c>
       <c r="D5" s="119"/>
       <c r="E5" s="119"/>
       <c r="F5" s="119"/>
@@ -4817,7 +4853,9 @@
       <c r="B6" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="119"/>
+      <c r="C6" s="119" t="s">
+        <v>377</v>
+      </c>
       <c r="D6" s="119"/>
       <c r="E6" s="119"/>
       <c r="F6" s="119"/>
@@ -4828,7 +4866,9 @@
       <c r="B7" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="119"/>
+      <c r="C7" s="119" t="s">
+        <v>378</v>
+      </c>
       <c r="D7" s="124"/>
       <c r="E7" s="124"/>
       <c r="F7" s="124"/>
@@ -4839,7 +4879,7 @@
       <c r="B8" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="89" t="s">
         <v>278</v>
       </c>
       <c r="D8" s="29"/>
@@ -4850,8 +4890,8 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="81"/>
-      <c r="C9" s="27" t="s">
-        <v>302</v>
+      <c r="C9" s="90" t="s">
+        <v>379</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -4861,9 +4901,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="42"/>
-      <c r="C10" s="31" t="s">
-        <v>277</v>
-      </c>
+      <c r="C10" s="91"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
@@ -4930,7 +4968,7 @@
         <v>305</v>
       </c>
       <c r="D15" t="s">
-        <v>306</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -5342,7 +5380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -5558,7 +5596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -7152,42 +7190,42 @@
         <v>48</v>
       </c>
       <c r="B1">
-        <f t="shared" ref="B1" si="0">COUNTIF(时间表,A1)</f>
+        <f>COUNTIF(时间表,A1)</f>
         <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1" si="1">COUNTIF(时间表,C1)</f>
+        <f>COUNTIF(时间表,C1)</f>
         <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>52</v>
       </c>
       <c r="F1">
-        <f t="shared" ref="F1" si="2">COUNTIF(时间表,E1)</f>
+        <f>COUNTIF(时间表,E1)</f>
         <v>27</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1">
-        <f t="shared" ref="H1" si="3">COUNTIF(时间表,G1)</f>
+        <f>COUNTIF(时间表,G1)</f>
         <v>21</v>
       </c>
       <c r="I1" t="s">
         <v>55</v>
       </c>
       <c r="J1">
-        <f t="shared" ref="J1" si="4">COUNTIF(时间表,I1)</f>
+        <f>COUNTIF(时间表,I1)</f>
         <v>37</v>
       </c>
       <c r="K1" t="s">
         <v>54</v>
       </c>
       <c r="L1">
-        <f t="shared" ref="L1" si="5">COUNTIF(时间表,K1)</f>
+        <f>COUNTIF(时间表,K1)</f>
         <v>42</v>
       </c>
     </row>
@@ -7246,62 +7284,62 @@
         <v>46</v>
       </c>
       <c r="B3" s="19">
-        <f t="shared" ref="B3:F3" si="6">WEEKDAY(B2,2)</f>
+        <f>WEEKDAY(B2,2)</f>
         <v>1</v>
       </c>
       <c r="C3" s="19">
-        <f t="shared" si="6"/>
+        <f>WEEKDAY(C2,2)</f>
         <v>2</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" si="6"/>
+        <f>WEEKDAY(D2,2)</f>
         <v>3</v>
       </c>
       <c r="E3" s="19">
-        <f t="shared" si="6"/>
+        <f>WEEKDAY(E2,2)</f>
         <v>4</v>
       </c>
       <c r="F3" s="19">
-        <f t="shared" si="6"/>
+        <f>WEEKDAY(F2,2)</f>
         <v>5</v>
       </c>
       <c r="G3" s="19">
-        <f t="shared" ref="G3:P3" si="7">WEEKDAY(G2,2)</f>
+        <f t="shared" ref="G3:P3" si="0">WEEKDAY(G2,2)</f>
         <v>6</v>
       </c>
       <c r="H3" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I3" s="19" t="s">
         <v>46</v>
       </c>
       <c r="J3" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K3" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L3" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="M3" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N3" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O3" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="P3" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -7716,62 +7754,62 @@
         <v>46</v>
       </c>
       <c r="B17" s="19">
-        <f t="shared" ref="B17:K17" si="8">WEEKDAY(B16,2)</f>
+        <f t="shared" ref="B17:K17" si="1">WEEKDAY(B16,2)</f>
         <v>1</v>
       </c>
       <c r="C17" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D17" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E17" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F17" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G17" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H17" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>46</v>
       </c>
       <c r="J17" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K17" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L17" s="19">
-        <f t="shared" ref="L17:P17" si="9">WEEKDAY(L16,2)</f>
+        <f>WEEKDAY(L16,2)</f>
         <v>3</v>
       </c>
       <c r="M17" s="19">
-        <f t="shared" si="9"/>
+        <f>WEEKDAY(M16,2)</f>
         <v>4</v>
       </c>
       <c r="N17" s="19">
-        <f t="shared" si="9"/>
+        <f>WEEKDAY(N16,2)</f>
         <v>5</v>
       </c>
       <c r="O17" s="19">
-        <f t="shared" si="9"/>
+        <f>WEEKDAY(O16,2)</f>
         <v>6</v>
       </c>
       <c r="P17" s="19">
-        <f t="shared" si="9"/>
+        <f>WEEKDAY(P16,2)</f>
         <v>7</v>
       </c>
     </row>
@@ -8194,58 +8232,58 @@
         <v>1</v>
       </c>
       <c r="C31" s="19">
-        <f t="shared" ref="C31:P31" si="10">WEEKDAY(C30,2)</f>
+        <f t="shared" ref="C31:P31" si="2">WEEKDAY(C30,2)</f>
         <v>2</v>
       </c>
       <c r="D31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>46</v>
       </c>
       <c r="J31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="M31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="N31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="P31" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
@@ -8734,56 +8772,56 @@
         <v>1</v>
       </c>
       <c r="C45" s="19">
-        <f t="shared" ref="C45:P45" si="11">WEEKDAY(C44,2)</f>
+        <f t="shared" ref="C45:P45" si="3">WEEKDAY(C44,2)</f>
         <v>2</v>
       </c>
       <c r="D45" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E45" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F45" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G45" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H45" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K45" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="L45" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="M45" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="N45" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="O45" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="P45" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>

--- a/暑假计划.xlsx
+++ b/暑假计划.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework\github-ExcelProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-Sync\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="贝妞愿望" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'项目-自我管理'!$A$1:$I$31</definedName>
     <definedName name="时间表">假期大时间表!$A$2:$P$57</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="450">
   <si>
     <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1383,13 +1383,6 @@
   </si>
   <si>
     <t>2018/7/12制表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 每天上午六点按时起床；
-2. 如果天气好，在小区附近活动，晨跑或者骑行；如果天气不佳改为当日游泳（可能需要占用下午时间）
-3. 早上运动以后出汗，回来洗澡，限定10分种以内，同时自己清洗运动衣裤；
-4. 每天运动，可以得到额外1分。计划好运动，因为没有起床或者偷懒，不能的此2分加分，并且在每日的自我管理分数中扣除1分。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1815,15 +1808,30 @@
     <t>是。书写规范清晰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. 每天上午六点按时起床；
+2. 如果天气好，在小区附近活动，晨跑或者骑行；如果天气不佳改为当日游泳（可能需要占用下午时间）
+3. 早上运动以后出汗，回来洗澡，限定10分种以内，同时自己清洗运动衣裤；
+4. 每天运动，可以得到额外2分。计划好运动，因为没有起床或者偷懒，不能得到此2分加分，并且在每日的自我管理分数中扣除1分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝妞WishList-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看《厉害了我的国》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3124,9 +3132,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3148,12 +3222,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3163,39 +3270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3228,72 +3302,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3592,12 +3600,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3605,7 +3613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3613,7 +3621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3621,7 +3629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3629,7 +3637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -3637,7 +3645,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -3645,7 +3653,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -3661,13 +3669,14 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -3680,25 +3689,25 @@
     <col min="9" max="9" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="118" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
+      <c r="B1" s="135" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="123"/>
+      <c r="D2" s="142"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -3712,14 +3721,14 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8">
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="143" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="116"/>
+      <c r="D3" s="133"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>278</v>
@@ -3729,267 +3738,267 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
-    </row>
-    <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="134"/>
+    </row>
+    <row r="5" spans="2:8" ht="69" customHeight="1">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="139" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="121"/>
-    </row>
-    <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
+    </row>
+    <row r="6" spans="2:8" ht="45" customHeight="1">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="139" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="140"/>
+    </row>
+    <row r="7" spans="2:8" ht="220.5" customHeight="1">
+      <c r="B7" s="146" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="139" t="s">
         <v>342</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
-    </row>
-    <row r="7" spans="2:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="113" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="120" t="s">
-        <v>343</v>
-      </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="126"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="114"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="147"/>
       <c r="C8" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="112"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="114"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="138"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="147"/>
       <c r="C9" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="137" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="112"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="114"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="138"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="147"/>
       <c r="C10" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="137" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="112"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="114"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="138"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="147"/>
       <c r="C11" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="137" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="112"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="114"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="138"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="147"/>
       <c r="C12" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="137" t="s">
         <v>281</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="112"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="114"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="138"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="147"/>
       <c r="C13" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="137" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112"/>
-    </row>
-    <row r="14" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="114"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="138"/>
+    </row>
+    <row r="14" spans="2:8" ht="27.4" customHeight="1">
+      <c r="B14" s="147"/>
       <c r="C14" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="112"/>
-    </row>
-    <row r="15" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="114"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="138"/>
+    </row>
+    <row r="15" spans="2:8" ht="27.75" customHeight="1">
+      <c r="B15" s="147"/>
       <c r="C15" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="112"/>
-    </row>
-    <row r="16" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="114"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="138"/>
+    </row>
+    <row r="16" spans="2:8" ht="27.4" customHeight="1">
+      <c r="B16" s="147"/>
       <c r="C16" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="112"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="114"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="147"/>
       <c r="C17" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="137" t="s">
         <v>218</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="112"/>
-    </row>
-    <row r="18" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="114"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+    </row>
+    <row r="18" spans="2:8" ht="27.4" customHeight="1">
+      <c r="B18" s="147"/>
       <c r="C18" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="112"/>
-    </row>
-    <row r="19" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="114"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="138"/>
+    </row>
+    <row r="19" spans="2:8" ht="27.75" customHeight="1">
+      <c r="B19" s="147"/>
       <c r="C19" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="112"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="114"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="138"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="147"/>
       <c r="C20" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="137" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="112"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="114"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="138"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="147"/>
       <c r="C21" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="111" t="s">
+      <c r="D21" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="112"/>
-    </row>
-    <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="114"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="138"/>
+    </row>
+    <row r="22" spans="2:8" ht="27.75" customHeight="1">
+      <c r="B22" s="147"/>
       <c r="C22" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="137" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="115"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="138"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="148"/>
       <c r="C23" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="111" t="s">
-        <v>344</v>
-      </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="112"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D23" s="137" t="s">
+        <v>343</v>
+      </c>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="138"/>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="39" t="s">
         <v>160</v>
       </c>
@@ -4002,7 +4011,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="40"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="80"/>
       <c r="C25" s="26" t="s">
         <v>272</v>
@@ -4013,7 +4022,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="51"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="41"/>
       <c r="C26" s="30" t="s">
         <v>248</v>
@@ -4024,7 +4033,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="39" t="s">
         <v>199</v>
       </c>
@@ -4039,7 +4048,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="41"/>
       <c r="C28" s="30" t="s">
         <v>251</v>
@@ -4050,7 +4059,7 @@
       <c r="G28" s="32"/>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="39" t="s">
         <v>254</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="14.25" thickBot="1">
       <c r="B30" s="45"/>
       <c r="C30" s="46" t="s">
         <v>253</v>
@@ -4076,7 +4085,7 @@
       <c r="G30" s="48"/>
       <c r="H30" s="49"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" t="s">
         <v>273</v>
       </c>
@@ -4089,16 +4098,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C7:H7"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D22:H22"/>
@@ -4113,6 +4112,16 @@
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D13:H13"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4122,13 +4131,14 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -4141,25 +4151,25 @@
     <col min="9" max="9" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="118" t="s">
-        <v>347</v>
-      </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
+      <c r="B1" s="135" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="141" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="123"/>
+      <c r="D2" s="142"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4173,14 +4183,14 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8">
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="143" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="116"/>
+      <c r="D3" s="133"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>278</v>
@@ -4190,59 +4200,59 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
-    </row>
-    <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="134"/>
+    </row>
+    <row r="5" spans="2:8" ht="69" customHeight="1">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="139" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="121"/>
-    </row>
-    <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
+    </row>
+    <row r="6" spans="2:8" ht="45" customHeight="1">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="139" t="s">
         <v>323</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
-    </row>
-    <row r="7" spans="2:8" ht="190.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="140"/>
+    </row>
+    <row r="7" spans="2:8" ht="190.5" customHeight="1">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="120" t="s">
-        <v>345</v>
-      </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="126"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="139" t="s">
+        <v>344</v>
+      </c>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="39" t="s">
         <v>160</v>
       </c>
@@ -4255,7 +4265,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="40"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8">
       <c r="B9" s="80"/>
       <c r="C9" s="26" t="s">
         <v>325</v>
@@ -4266,7 +4276,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="51"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8">
       <c r="B10" s="41"/>
       <c r="C10" s="30" t="s">
         <v>326</v>
@@ -4277,7 +4287,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="42"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8">
       <c r="B11" s="39" t="s">
         <v>199</v>
       </c>
@@ -4292,7 +4302,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8">
       <c r="B12" s="41"/>
       <c r="C12" s="30" t="s">
         <v>251</v>
@@ -4303,7 +4313,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8">
       <c r="B13" s="39" t="s">
         <v>254</v>
       </c>
@@ -4318,7 +4328,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="14.25" thickBot="1">
       <c r="B14" s="45"/>
       <c r="C14" s="46" t="s">
         <v>253</v>
@@ -4329,7 +4339,7 @@
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8">
       <c r="B15" t="s">
         <v>273</v>
       </c>
@@ -4358,13 +4368,14 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -4377,25 +4388,25 @@
     <col min="9" max="9" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="118" t="s">
-        <v>443</v>
-      </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
+      <c r="B1" s="135" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="123"/>
+      <c r="D2" s="142"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4409,14 +4420,14 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8">
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="143" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="116"/>
+      <c r="D3" s="133"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>278</v>
@@ -4426,59 +4437,59 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
-    </row>
-    <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="134"/>
+    </row>
+    <row r="5" spans="2:8" ht="69" customHeight="1">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="120" t="s">
-        <v>435</v>
-      </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="121"/>
-    </row>
-    <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="139" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
+    </row>
+    <row r="6" spans="2:8" ht="45" customHeight="1">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="120" t="s">
-        <v>436</v>
-      </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
-    </row>
-    <row r="7" spans="2:8" ht="180.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="139" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="140"/>
+    </row>
+    <row r="7" spans="2:8" ht="180.4" customHeight="1">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="120" t="s">
-        <v>442</v>
-      </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="126"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="139" t="s">
+        <v>441</v>
+      </c>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="39" t="s">
         <v>160</v>
       </c>
@@ -4491,7 +4502,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="40"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8">
       <c r="B9" s="80"/>
       <c r="C9" s="26" t="s">
         <v>272</v>
@@ -4502,7 +4513,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="51"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8">
       <c r="B10" s="41"/>
       <c r="C10" s="30" t="s">
         <v>248</v>
@@ -4513,7 +4524,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="42"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8">
       <c r="B11" s="39" t="s">
         <v>199</v>
       </c>
@@ -4528,7 +4539,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8">
       <c r="B12" s="41"/>
       <c r="C12" s="30" t="s">
         <v>251</v>
@@ -4539,7 +4550,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8">
       <c r="B13" s="39" t="s">
         <v>254</v>
       </c>
@@ -4554,7 +4565,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="14.25" thickBot="1">
       <c r="B14" s="45"/>
       <c r="C14" s="46" t="s">
         <v>253</v>
@@ -4565,7 +4576,7 @@
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8">
       <c r="B15" t="s">
         <v>273</v>
       </c>
@@ -4594,13 +4605,14 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -4613,25 +4625,25 @@
     <col min="9" max="9" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="118" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
+      <c r="B1" s="135" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="123"/>
+      <c r="D2" s="142"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4645,14 +4657,14 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8">
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="143" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="116"/>
+      <c r="D3" s="133"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>278</v>
@@ -4662,59 +4674,59 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
-    </row>
-    <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="134"/>
+    </row>
+    <row r="5" spans="2:8" ht="69" customHeight="1">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="139" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="121"/>
-    </row>
-    <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
+    </row>
+    <row r="6" spans="2:8" ht="45" customHeight="1">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="139" t="s">
         <v>338</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
-    </row>
-    <row r="7" spans="2:8" ht="180.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="140"/>
+    </row>
+    <row r="7" spans="2:8" ht="180.4" customHeight="1">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="120" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="126"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="139" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="39" t="s">
         <v>160</v>
       </c>
@@ -4727,7 +4739,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="40"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8">
       <c r="B9" s="80"/>
       <c r="C9" s="89" t="s">
         <v>339</v>
@@ -4738,7 +4750,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="51"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8">
       <c r="B10" s="41"/>
       <c r="C10" s="90"/>
       <c r="D10" s="31"/>
@@ -4747,7 +4759,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="42"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8">
       <c r="B11" s="39" t="s">
         <v>199</v>
       </c>
@@ -4762,7 +4774,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8">
       <c r="B12" s="41"/>
       <c r="C12" s="30" t="s">
         <v>251</v>
@@ -4773,7 +4785,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8">
       <c r="B13" s="39" t="s">
         <v>254</v>
       </c>
@@ -4788,7 +4800,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="14.25" thickBot="1">
       <c r="B14" s="45"/>
       <c r="C14" s="46" t="s">
         <v>253</v>
@@ -4799,7 +4811,7 @@
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8">
       <c r="B15" t="s">
         <v>273</v>
       </c>
@@ -4828,13 +4840,14 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -4847,25 +4860,25 @@
     <col min="9" max="9" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="118" t="s">
-        <v>424</v>
-      </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
+      <c r="B1" s="135" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="141" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="123"/>
+      <c r="D2" s="142"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4879,14 +4892,14 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8">
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="143" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="116"/>
+      <c r="D3" s="133"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>278</v>
@@ -4896,78 +4909,78 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="133" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
-    </row>
-    <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="134"/>
+    </row>
+    <row r="5" spans="2:8" ht="69" customHeight="1">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="139" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="121"/>
-    </row>
-    <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="140"/>
+    </row>
+    <row r="6" spans="2:8" ht="45" customHeight="1">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="139" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="121"/>
-    </row>
-    <row r="7" spans="2:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="113"/>
-      <c r="C7" s="127" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="129"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="114"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="140"/>
+    </row>
+    <row r="7" spans="2:8" ht="102.75" customHeight="1">
+      <c r="B7" s="146"/>
+      <c r="C7" s="149" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="151"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="147"/>
       <c r="C8" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" t="s">
         <v>372</v>
-      </c>
-      <c r="D8" t="s">
-        <v>373</v>
       </c>
       <c r="E8" s="99"/>
       <c r="F8" s="99" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G8" s="99"/>
       <c r="H8" s="100"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="114"/>
+    <row r="9" spans="2:8">
+      <c r="B9" s="147"/>
       <c r="C9" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E9" s="99"/>
       <c r="F9" s="99">
@@ -4976,13 +4989,13 @@
       <c r="G9" s="99"/>
       <c r="H9" s="100"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="114"/>
+    <row r="10" spans="2:8">
+      <c r="B10" s="147"/>
       <c r="C10" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E10" s="99"/>
       <c r="F10" s="99">
@@ -4991,13 +5004,13 @@
       <c r="G10" s="99"/>
       <c r="H10" s="100"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="114"/>
+    <row r="11" spans="2:8">
+      <c r="B11" s="147"/>
       <c r="C11" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E11" s="99"/>
       <c r="F11" s="99">
@@ -5006,13 +5019,13 @@
       <c r="G11" s="99"/>
       <c r="H11" s="100"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="114"/>
+    <row r="12" spans="2:8">
+      <c r="B12" s="147"/>
       <c r="C12" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="99">
@@ -5021,13 +5034,13 @@
       <c r="G12" s="99"/>
       <c r="H12" s="100"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="114"/>
+    <row r="13" spans="2:8">
+      <c r="B13" s="147"/>
       <c r="C13" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="99">
@@ -5036,13 +5049,13 @@
       <c r="G13" s="99"/>
       <c r="H13" s="100"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="114"/>
+    <row r="14" spans="2:8">
+      <c r="B14" s="147"/>
       <c r="C14" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E14" s="99"/>
       <c r="F14" s="99">
@@ -5051,13 +5064,13 @@
       <c r="G14" s="99"/>
       <c r="H14" s="100"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="114"/>
+    <row r="15" spans="2:8">
+      <c r="B15" s="147"/>
       <c r="C15" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E15" s="99"/>
       <c r="F15" s="99">
@@ -5066,13 +5079,13 @@
       <c r="G15" s="99"/>
       <c r="H15" s="100"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="114"/>
+    <row r="16" spans="2:8">
+      <c r="B16" s="147"/>
       <c r="C16" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E16" s="99"/>
       <c r="F16" s="99">
@@ -5081,13 +5094,13 @@
       <c r="G16" s="99"/>
       <c r="H16" s="100"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="114"/>
+    <row r="17" spans="2:8">
+      <c r="B17" s="147"/>
       <c r="C17" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E17" s="99"/>
       <c r="F17" s="99">
@@ -5096,13 +5109,13 @@
       <c r="G17" s="99"/>
       <c r="H17" s="100"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="114"/>
+    <row r="18" spans="2:8">
+      <c r="B18" s="147"/>
       <c r="C18" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E18" s="99"/>
       <c r="F18" s="99">
@@ -5111,13 +5124,13 @@
       <c r="G18" s="99"/>
       <c r="H18" s="100"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="114"/>
+    <row r="19" spans="2:8">
+      <c r="B19" s="147"/>
       <c r="C19" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E19" s="99"/>
       <c r="F19" s="99">
@@ -5126,13 +5139,13 @@
       <c r="G19" s="99"/>
       <c r="H19" s="100"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="114"/>
+    <row r="20" spans="2:8">
+      <c r="B20" s="147"/>
       <c r="C20" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E20" s="99"/>
       <c r="F20" s="99">
@@ -5141,13 +5154,13 @@
       <c r="G20" s="99"/>
       <c r="H20" s="100"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="114"/>
+    <row r="21" spans="2:8">
+      <c r="B21" s="147"/>
       <c r="C21" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E21" s="99"/>
       <c r="F21" s="99">
@@ -5156,13 +5169,13 @@
       <c r="G21" s="99"/>
       <c r="H21" s="100"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="114"/>
+    <row r="22" spans="2:8">
+      <c r="B22" s="147"/>
       <c r="C22" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E22" s="99"/>
       <c r="F22" s="99">
@@ -5171,8 +5184,8 @@
       <c r="G22" s="99"/>
       <c r="H22" s="100"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="115"/>
+    <row r="23" spans="2:8">
+      <c r="B23" s="148"/>
       <c r="C23" s="87"/>
       <c r="D23" s="101"/>
       <c r="E23" s="101"/>
@@ -5183,12 +5196,12 @@
       <c r="G23" s="101"/>
       <c r="H23" s="102"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24" s="39" t="s">
         <v>160</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -5196,10 +5209,10 @@
       <c r="G24" s="28"/>
       <c r="H24" s="40"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25" s="80"/>
       <c r="C25" s="89" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -5207,10 +5220,10 @@
       <c r="G25" s="22"/>
       <c r="H25" s="51"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26" s="41"/>
       <c r="C26" s="90" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -5218,7 +5231,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27" s="39" t="s">
         <v>199</v>
       </c>
@@ -5233,7 +5246,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="41"/>
       <c r="C28" s="30" t="s">
         <v>251</v>
@@ -5244,7 +5257,7 @@
       <c r="G28" s="32"/>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="39" t="s">
         <v>254</v>
       </c>
@@ -5259,7 +5272,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="14.25" thickBot="1">
       <c r="B30" s="45"/>
       <c r="C30" s="46" t="s">
         <v>253</v>
@@ -5270,7 +5283,7 @@
       <c r="G30" s="48"/>
       <c r="H30" s="49"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31" t="s">
         <v>273</v>
       </c>
@@ -5283,14 +5296,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B7:B23"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="B7:B23"/>
-    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5300,13 +5313,14 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="0.75" customWidth="1"/>
     <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
@@ -5315,8 +5329,8 @@
     <col min="5" max="5" width="28.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="2.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="2.65" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:5" ht="14.25" thickBot="1">
       <c r="B2" s="8" t="s">
         <v>121</v>
       </c>
@@ -5330,8 +5344,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="132" t="s">
+    <row r="3" spans="2:5" ht="27.75" customHeight="1">
+      <c r="B3" s="154" t="s">
         <v>179</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -5344,8 +5358,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="133"/>
+    <row r="4" spans="2:5" ht="40.5">
+      <c r="B4" s="155"/>
       <c r="C4" s="5" t="s">
         <v>279</v>
       </c>
@@ -5356,8 +5370,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="133"/>
+    <row r="5" spans="2:5" ht="40.5">
+      <c r="B5" s="155"/>
       <c r="C5" s="5" t="s">
         <v>126</v>
       </c>
@@ -5368,24 +5382,24 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="133"/>
+    <row r="6" spans="2:5">
+      <c r="B6" s="155"/>
       <c r="C6" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="131"/>
+    <row r="7" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B7" s="153"/>
       <c r="C7" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="130" t="s">
+    <row r="8" spans="2:5">
+      <c r="B8" s="152" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -5398,8 +5412,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="133"/>
+    <row r="9" spans="2:5" ht="27">
+      <c r="B9" s="155"/>
       <c r="C9" s="5" t="s">
         <v>129</v>
       </c>
@@ -5410,8 +5424,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="133"/>
+    <row r="10" spans="2:5" ht="27">
+      <c r="B10" s="155"/>
       <c r="C10" s="5" t="s">
         <v>132</v>
       </c>
@@ -5422,8 +5436,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="133"/>
+    <row r="11" spans="2:5" ht="27">
+      <c r="B11" s="155"/>
       <c r="C11" s="5" t="s">
         <v>131</v>
       </c>
@@ -5434,8 +5448,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="131"/>
+    <row r="12" spans="2:5" ht="41.25" thickBot="1">
+      <c r="B12" s="153"/>
       <c r="C12" s="13" t="s">
         <v>144</v>
       </c>
@@ -5446,8 +5460,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="130" t="s">
+    <row r="13" spans="2:5" ht="40.5">
+      <c r="B13" s="152" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -5460,8 +5474,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="131"/>
+    <row r="14" spans="2:5" ht="27.75" thickBot="1">
+      <c r="B14" s="153"/>
       <c r="C14" s="13" t="s">
         <v>153</v>
       </c>
@@ -5472,31 +5486,31 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" ht="27.95" customHeight="1">
       <c r="B15" s="52"/>
       <c r="C15" s="16"/>
       <c r="D15" s="53"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="27.95" customHeight="1">
       <c r="B16" s="55"/>
       <c r="C16" s="5"/>
       <c r="D16" s="19"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="27.95" customHeight="1">
       <c r="B17" s="55"/>
       <c r="C17" s="5"/>
       <c r="D17" s="19"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="27.95" customHeight="1">
       <c r="B18" s="55"/>
       <c r="C18" s="5"/>
       <c r="D18" s="19"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="2:5" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="27.95" customHeight="1" thickBot="1">
       <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="58"/>
@@ -5516,29 +5530,30 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K50"/>
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="5" width="8.875" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="143" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="156" t="s">
+    <row r="1" spans="2:11" ht="54" customHeight="1" thickBot="1">
+      <c r="D1" s="105" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="15" thickTop="1" thickBot="1">
+      <c r="B2" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="157"/>
+      <c r="C2" s="119"/>
       <c r="D2" s="160" t="s">
         <v>284</v>
       </c>
@@ -5547,14 +5562,14 @@
       <c r="G2" s="161"/>
       <c r="H2" s="161"/>
       <c r="I2" s="162"/>
-      <c r="J2" s="158" t="s">
+      <c r="J2" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="K2" s="159" t="s">
+      <c r="K2" s="121" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="14.25" thickTop="1">
       <c r="B3" s="87" t="s">
         <v>289</v>
       </c>
@@ -5567,17 +5582,17 @@
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="154">
+      <c r="J3" s="116">
         <v>43338</v>
       </c>
-      <c r="K3" s="155"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="144" t="s">
+      <c r="K3" s="117"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="106" t="s">
         <v>290</v>
       </c>
       <c r="C4" s="25"/>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="106" t="s">
         <v>336</v>
       </c>
       <c r="E4" s="25"/>
@@ -5585,17 +5600,17 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
-      <c r="J4" s="145">
+      <c r="J4" s="107">
         <v>43338</v>
       </c>
-      <c r="K4" s="146"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="144" t="s">
+      <c r="K4" s="108"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="106" t="s">
         <v>291</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="106" t="s">
         <v>296</v>
       </c>
       <c r="E5" s="25"/>
@@ -5603,17 +5618,17 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="145">
+      <c r="J5" s="107">
         <v>43338</v>
       </c>
-      <c r="K5" s="146"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="144" t="s">
+      <c r="K5" s="108"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="106" t="s">
         <v>292</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="106" t="s">
         <v>297</v>
       </c>
       <c r="E6" s="25"/>
@@ -5621,17 +5636,17 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="145">
+      <c r="J6" s="107">
         <v>43338</v>
       </c>
-      <c r="K6" s="146"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="144" t="s">
+      <c r="K6" s="108"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="106" t="s">
         <v>293</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="144" t="s">
+      <c r="D7" s="106" t="s">
         <v>335</v>
       </c>
       <c r="E7" s="25"/>
@@ -5639,17 +5654,17 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="145">
+      <c r="J7" s="107">
         <v>43338</v>
       </c>
-      <c r="K7" s="146"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="144" t="s">
+      <c r="K7" s="108"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="106" t="s">
         <v>294</v>
       </c>
       <c r="C8" s="25"/>
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="106" t="s">
         <v>298</v>
       </c>
       <c r="E8" s="25"/>
@@ -5657,17 +5672,17 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="145">
+      <c r="J8" s="107">
         <v>43338</v>
       </c>
-      <c r="K8" s="146"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="144" t="s">
+      <c r="K8" s="108"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="106" t="s">
         <v>295</v>
       </c>
       <c r="C9" s="25"/>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="106" t="s">
         <v>299</v>
       </c>
       <c r="E9" s="25"/>
@@ -5675,674 +5690,692 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="145">
+      <c r="J9" s="107">
         <v>43303</v>
       </c>
-      <c r="K9" s="146"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="144" t="s">
-        <v>309</v>
+      <c r="K9" s="108"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="106" t="s">
+        <v>448</v>
       </c>
       <c r="C10" s="25"/>
-      <c r="D10" s="144" t="s">
-        <v>310</v>
+      <c r="D10" s="106" t="s">
+        <v>449</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="147">
-        <v>43294</v>
-      </c>
-      <c r="K10" s="146"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="144" t="s">
-        <v>311</v>
+      <c r="J10" s="107">
+        <v>43338</v>
+      </c>
+      <c r="K10" s="108"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="106" t="s">
+        <v>309</v>
       </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="144" t="s">
-        <v>376</v>
+      <c r="D11" s="106" t="s">
+        <v>310</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="147">
-        <v>43295</v>
-      </c>
-      <c r="K11" s="146"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="144" t="s">
-        <v>312</v>
+      <c r="J11" s="109">
+        <v>43294</v>
+      </c>
+      <c r="K11" s="108"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="106" t="s">
+        <v>311</v>
       </c>
       <c r="C12" s="25"/>
-      <c r="D12" s="144" t="s">
-        <v>393</v>
+      <c r="D12" s="106" t="s">
+        <v>375</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="145">
-        <v>43338</v>
-      </c>
-      <c r="K12" s="146"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="144" t="s">
-        <v>394</v>
+      <c r="J12" s="109">
+        <v>43295</v>
+      </c>
+      <c r="K12" s="108"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="106" t="s">
+        <v>312</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="144" t="s">
-        <v>396</v>
+      <c r="D13" s="106" t="s">
+        <v>392</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="145">
+      <c r="J13" s="107">
         <v>43338</v>
       </c>
-      <c r="K13" s="146"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="144" t="s">
+      <c r="K13" s="108"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="106" t="s">
         <v>395</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="144" t="s">
-        <v>397</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="145">
+      <c r="J14" s="107">
         <v>43338</v>
       </c>
-      <c r="K14" s="146"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="144" t="s">
-        <v>398</v>
+      <c r="K14" s="108"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="106" t="s">
+        <v>394</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="144" t="s">
-        <v>411</v>
+      <c r="D15" s="106" t="s">
+        <v>396</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="145">
+      <c r="J15" s="107">
         <v>43338</v>
       </c>
-      <c r="K15" s="146"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="144" t="s">
-        <v>399</v>
+      <c r="K15" s="108"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="106" t="s">
+        <v>397</v>
       </c>
       <c r="C16" s="25"/>
-      <c r="D16" s="144" t="s">
-        <v>425</v>
+      <c r="D16" s="106" t="s">
+        <v>410</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="145">
+      <c r="J16" s="107">
         <v>43338</v>
       </c>
-      <c r="K16" s="146"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="144" t="s">
-        <v>400</v>
+      <c r="K16" s="108"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="106" t="s">
+        <v>398</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="144" t="s">
-        <v>426</v>
+      <c r="D17" s="106" t="s">
+        <v>424</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="145">
+      <c r="J17" s="107">
         <v>43338</v>
       </c>
-      <c r="K17" s="146"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="144" t="s">
-        <v>327</v>
+      <c r="K17" s="108"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="106" t="s">
+        <v>399</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="144" t="s">
-        <v>328</v>
+      <c r="D18" s="106" t="s">
+        <v>425</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="148"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="145">
+      <c r="J18" s="107">
         <v>43338</v>
       </c>
-      <c r="K18" s="146"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="144" t="s">
-        <v>391</v>
+      <c r="K18" s="108"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="106" t="s">
+        <v>327</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="144" t="s">
-        <v>392</v>
+      <c r="D19" s="106" t="s">
+        <v>328</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="148"/>
+      <c r="H19" s="110"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="145">
+      <c r="J19" s="107">
         <v>43338</v>
       </c>
-      <c r="K19" s="146"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="144" t="s">
-        <v>329</v>
+      <c r="K19" s="108"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="106" t="s">
+        <v>390</v>
       </c>
       <c r="C20" s="25"/>
-      <c r="D20" s="144" t="s">
-        <v>353</v>
+      <c r="D20" s="106" t="s">
+        <v>391</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="148"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="145">
+      <c r="J20" s="107">
         <v>43338</v>
       </c>
-      <c r="K20" s="146"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="144" t="s">
-        <v>350</v>
+      <c r="K20" s="108"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="106" t="s">
+        <v>329</v>
       </c>
       <c r="C21" s="25"/>
-      <c r="D21" s="144" t="s">
+      <c r="D21" s="106" t="s">
         <v>352</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="148"/>
+      <c r="H21" s="110"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="145">
+      <c r="J21" s="107">
         <v>43338</v>
       </c>
-      <c r="K21" s="146"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="144" t="s">
+      <c r="K21" s="108"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="106" t="s">
         <v>351</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="144" t="s">
-        <v>354</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="148"/>
+      <c r="H22" s="110"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="145">
+      <c r="J22" s="107">
         <v>43338</v>
       </c>
-      <c r="K22" s="146"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="144" t="s">
-        <v>331</v>
+      <c r="K22" s="108"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="106" t="s">
+        <v>350</v>
       </c>
       <c r="C23" s="25"/>
-      <c r="D23" s="144" t="s">
-        <v>332</v>
+      <c r="D23" s="106" t="s">
+        <v>353</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="H23" s="110"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="145">
+      <c r="J23" s="107">
         <v>43338</v>
       </c>
-      <c r="K23" s="146"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="144" t="s">
-        <v>322</v>
+      <c r="K23" s="108"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="106" t="s">
+        <v>331</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="144" t="s">
-        <v>437</v>
+      <c r="D24" s="106" t="s">
+        <v>332</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="145">
+      <c r="J24" s="107">
         <v>43338</v>
       </c>
-      <c r="K24" s="146"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="144" t="s">
-        <v>402</v>
+      <c r="K24" s="108"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="106" t="s">
+        <v>322</v>
       </c>
       <c r="C25" s="25"/>
-      <c r="D25" s="144" t="s">
-        <v>438</v>
+      <c r="D25" s="106" t="s">
+        <v>436</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="145">
+      <c r="J25" s="107">
         <v>43338</v>
       </c>
-      <c r="K25" s="146"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="144" t="s">
-        <v>403</v>
+      <c r="K25" s="108"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="106" t="s">
+        <v>401</v>
       </c>
       <c r="C26" s="25"/>
-      <c r="D26" s="144" t="s">
-        <v>439</v>
+      <c r="D26" s="106" t="s">
+        <v>437</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="145">
+      <c r="J26" s="107">
         <v>43338</v>
       </c>
-      <c r="K26" s="146"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="144" t="s">
-        <v>404</v>
+      <c r="K26" s="108"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="106" t="s">
+        <v>402</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="144" t="s">
-        <v>440</v>
+      <c r="D27" s="106" t="s">
+        <v>438</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
-      <c r="J27" s="145">
+      <c r="J27" s="107">
         <v>43338</v>
       </c>
-      <c r="K27" s="146"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="144" t="s">
-        <v>405</v>
+      <c r="K27" s="108"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="106" t="s">
+        <v>403</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="144" t="s">
-        <v>441</v>
+      <c r="D28" s="106" t="s">
+        <v>439</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="145">
+      <c r="J28" s="107">
         <v>43338</v>
       </c>
-      <c r="K28" s="146"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="144" t="s">
-        <v>406</v>
+      <c r="K28" s="108"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="106" t="s">
+        <v>404</v>
       </c>
       <c r="C29" s="25"/>
-      <c r="D29" s="144"/>
+      <c r="D29" s="106" t="s">
+        <v>440</v>
+      </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="146"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="144" t="s">
-        <v>407</v>
+      <c r="J29" s="107">
+        <v>43338</v>
+      </c>
+      <c r="K29" s="108"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="106" t="s">
+        <v>405</v>
       </c>
       <c r="C30" s="25"/>
-      <c r="D30" s="144"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="146"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="144" t="s">
-        <v>408</v>
+      <c r="J30" s="111"/>
+      <c r="K30" s="108"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="106" t="s">
+        <v>406</v>
       </c>
       <c r="C31" s="25"/>
-      <c r="D31" s="144"/>
+      <c r="D31" s="106"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="146"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="144" t="s">
-        <v>409</v>
+      <c r="J31" s="111"/>
+      <c r="K31" s="108"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="106" t="s">
+        <v>407</v>
       </c>
       <c r="C32" s="25"/>
-      <c r="D32" s="144"/>
+      <c r="D32" s="106"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="146"/>
-    </row>
-    <row r="33" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="150" t="s">
-        <v>410</v>
-      </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="153"/>
-    </row>
-    <row r="34" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="J32" s="111"/>
+      <c r="K32" s="108"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="106" t="s">
+        <v>408</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="108"/>
+    </row>
+    <row r="34" spans="2:11" ht="14.25" thickBot="1">
+      <c r="B34" s="112" t="s">
+        <v>409</v>
+      </c>
+      <c r="C34" s="113"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="115"/>
+    </row>
+    <row r="35" spans="2:11" ht="14.25" thickTop="1"/>
+    <row r="37" spans="2:11" ht="14.25" thickBot="1">
+      <c r="B37" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C37" s="134" t="s">
+    <row r="38" spans="2:11">
+      <c r="C38" s="156" t="s">
         <v>306</v>
       </c>
-      <c r="D37" s="135"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="84">
+      <c r="D38" s="157"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="84">
         <v>43295</v>
       </c>
-      <c r="I37" s="84">
+      <c r="I38" s="84">
         <v>43296</v>
       </c>
-      <c r="J37" s="54"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C38" s="136"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="56"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C39" s="85">
+      <c r="J38" s="54"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="C39" s="158"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="56"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="C40" s="85">
         <v>43297</v>
       </c>
-      <c r="D39" s="83">
+      <c r="D40" s="83">
         <v>43298</v>
       </c>
-      <c r="E39" s="83">
+      <c r="E40" s="83">
         <v>43299</v>
       </c>
-      <c r="F39" s="83">
+      <c r="F40" s="83">
         <v>43300</v>
       </c>
-      <c r="G39" s="83">
+      <c r="G40" s="83">
         <v>43301</v>
       </c>
-      <c r="H39" s="83">
+      <c r="H40" s="83">
         <v>43302</v>
       </c>
-      <c r="I39" s="83">
+      <c r="I40" s="83">
         <v>43303</v>
       </c>
-      <c r="J39" s="56" t="s">
+      <c r="J40" s="56" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C40" s="55"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="56"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C41" s="85">
+    <row r="41" spans="2:11">
+      <c r="C41" s="55"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="56"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="C42" s="85">
         <v>43304</v>
       </c>
-      <c r="D41" s="83">
+      <c r="D42" s="83">
         <v>43305</v>
       </c>
-      <c r="E41" s="83">
+      <c r="E42" s="83">
         <v>43306</v>
       </c>
-      <c r="F41" s="83">
+      <c r="F42" s="83">
         <v>43307</v>
       </c>
-      <c r="G41" s="83">
+      <c r="G42" s="83">
         <v>43308</v>
       </c>
-      <c r="H41" s="83">
+      <c r="H42" s="83">
         <v>43309</v>
       </c>
-      <c r="I41" s="83">
+      <c r="I42" s="83">
         <v>43310</v>
       </c>
-      <c r="J41" s="56" t="s">
+      <c r="J42" s="56" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C42" s="55"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="56"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C43" s="85">
+    <row r="43" spans="2:11">
+      <c r="C43" s="55"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="56"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="C44" s="85">
         <v>43311</v>
       </c>
-      <c r="D43" s="83">
+      <c r="D44" s="83">
         <v>43312</v>
       </c>
-      <c r="E43" s="83">
+      <c r="E44" s="83">
         <v>43313</v>
       </c>
-      <c r="F43" s="83">
+      <c r="F44" s="83">
         <v>43314</v>
       </c>
-      <c r="G43" s="83">
+      <c r="G44" s="83">
         <v>43315</v>
       </c>
-      <c r="H43" s="83">
+      <c r="H44" s="83">
         <v>43316</v>
       </c>
-      <c r="I43" s="83">
+      <c r="I44" s="83">
         <v>43317</v>
       </c>
-      <c r="J43" s="56" t="s">
+      <c r="J44" s="56" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C44" s="55"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="56"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C45" s="85">
+    <row r="45" spans="2:11">
+      <c r="C45" s="55"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="56"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="C46" s="85">
         <v>43318</v>
       </c>
-      <c r="D45" s="83">
+      <c r="D46" s="83">
         <v>43319</v>
       </c>
-      <c r="E45" s="83">
+      <c r="E46" s="83">
         <v>43320</v>
       </c>
-      <c r="F45" s="83">
+      <c r="F46" s="83">
         <v>43321</v>
       </c>
-      <c r="G45" s="83">
+      <c r="G46" s="83">
         <v>43322</v>
       </c>
-      <c r="H45" s="83">
+      <c r="H46" s="83">
         <v>43323</v>
       </c>
-      <c r="I45" s="83">
+      <c r="I46" s="83">
         <v>43324</v>
       </c>
-      <c r="J45" s="56" t="s">
+      <c r="J46" s="56" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C46" s="55"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="56"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C47" s="85">
+    <row r="47" spans="2:11">
+      <c r="C47" s="55"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="56"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="C48" s="85">
         <v>43325</v>
       </c>
-      <c r="D47" s="83">
+      <c r="D48" s="83">
         <v>43326</v>
       </c>
-      <c r="E47" s="83">
+      <c r="E48" s="83">
         <v>43327</v>
       </c>
-      <c r="F47" s="83">
+      <c r="F48" s="83">
         <v>43328</v>
       </c>
-      <c r="G47" s="83">
+      <c r="G48" s="83">
         <v>43329</v>
       </c>
-      <c r="H47" s="83">
+      <c r="H48" s="83">
         <v>43330</v>
       </c>
-      <c r="I47" s="83">
+      <c r="I48" s="83">
         <v>43331</v>
       </c>
-      <c r="J47" s="56" t="s">
+      <c r="J48" s="56" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C48" s="55"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="56"/>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C49" s="85">
+    <row r="49" spans="3:10">
+      <c r="C49" s="55"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="56"/>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" s="85">
         <v>43332</v>
       </c>
-      <c r="D49" s="83">
+      <c r="D50" s="83">
         <v>43333</v>
       </c>
-      <c r="E49" s="83">
+      <c r="E50" s="83">
         <v>43334</v>
       </c>
-      <c r="F49" s="83">
+      <c r="F50" s="83">
         <v>43335</v>
       </c>
-      <c r="G49" s="83">
+      <c r="G50" s="83">
         <v>43336</v>
       </c>
-      <c r="H49" s="83">
+      <c r="H50" s="83">
         <v>43337</v>
       </c>
-      <c r="I49" s="83">
+      <c r="I50" s="83">
         <v>43338</v>
       </c>
-      <c r="J49" s="56" t="s">
+      <c r="J50" s="56" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="57"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="59"/>
+    <row r="51" spans="3:10" ht="14.25" thickBot="1">
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="C38:D39"/>
     <mergeCell ref="D2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6353,13 +6386,14 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5" style="3" customWidth="1"/>
@@ -6367,295 +6401,295 @@
     <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="19"/>
       <c r="B3" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>382</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="19"/>
       <c r="B4" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="19"/>
       <c r="B5" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="19"/>
       <c r="B6" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="27">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="19"/>
       <c r="B8" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="D8" s="19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="19"/>
       <c r="B11" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="19"/>
       <c r="B12" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="19"/>
       <c r="B13" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="19"/>
       <c r="B14" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>447</v>
-      </c>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="5"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="5"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="5"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="5"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="5"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="5"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="5"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="5"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="5"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="5"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="5"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="5"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="5"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="5"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="5"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="5"/>
@@ -6665,6 +6699,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6677,13 +6712,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -6694,7 +6729,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6705,62 +6740,62 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -6771,7 +6806,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -6794,27 +6829,27 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -6822,32 +6857,32 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="B14" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="B15" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="B16" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" s="4" t="s">
         <v>81</v>
       </c>
@@ -6875,13 +6910,13 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -6901,7 +6936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -6918,7 +6953,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6935,7 +6970,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -6952,7 +6987,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -6969,7 +7004,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -6986,12 +7021,12 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="C7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -7021,13 +7056,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -7035,7 +7070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -7043,47 +7078,47 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -7091,7 +7126,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>20</v>
       </c>
@@ -7099,7 +7134,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7107,7 +7142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>20</v>
       </c>
@@ -7115,7 +7150,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>50</v>
       </c>
@@ -7123,17 +7158,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="B21" t="s">
         <v>105</v>
       </c>
@@ -7153,127 +7188,127 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="125.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" ht="27">
       <c r="B5" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>117</v>
       </c>
@@ -7286,19 +7321,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>244</v>
       </c>
@@ -7309,7 +7345,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
         <v>223</v>
       </c>
@@ -7320,7 +7356,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
         <v>224</v>
       </c>
@@ -7331,7 +7367,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="19" t="s">
         <v>225</v>
       </c>
@@ -7342,7 +7378,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
         <v>226</v>
       </c>
@@ -7353,7 +7389,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
         <v>227</v>
       </c>
@@ -7364,7 +7400,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
         <v>228</v>
       </c>
@@ -7375,7 +7411,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="27">
       <c r="A8" s="19" t="s">
         <v>229</v>
       </c>
@@ -7386,7 +7422,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="27">
       <c r="A9" s="19" t="s">
         <v>230</v>
       </c>
@@ -7397,7 +7433,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="27">
       <c r="A10" s="19" t="s">
         <v>231</v>
       </c>
@@ -7408,7 +7444,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="19" t="s">
         <v>233</v>
       </c>
@@ -7419,7 +7455,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="27">
       <c r="A12" s="19" t="s">
         <v>234</v>
       </c>
@@ -7430,7 +7466,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
         <v>235</v>
       </c>
@@ -7441,7 +7477,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="19" t="s">
         <v>237</v>
       </c>
@@ -7452,7 +7488,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="19" t="s">
         <v>238</v>
       </c>
@@ -7463,7 +7499,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="19" t="s">
         <v>239</v>
       </c>
@@ -7474,7 +7510,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="19" t="s">
         <v>240</v>
       </c>
@@ -7496,61 +7532,61 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="141" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="142">
+      <c r="B1" s="104">
         <f>COUNTIF(时间表,A1)</f>
         <v>35</v>
       </c>
-      <c r="C1" s="142" t="s">
+      <c r="C1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="142">
+      <c r="D1" s="104">
         <f>COUNTIF(时间表,C1)</f>
         <v>27</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="142">
+      <c r="F1" s="104">
         <f>COUNTIF(时间表,E1)</f>
         <v>27</v>
       </c>
-      <c r="G1" s="142" t="s">
+      <c r="G1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="104">
         <f>COUNTIF(时间表,G1)</f>
         <v>21</v>
       </c>
-      <c r="I1" s="142" t="s">
+      <c r="I1" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="142">
+      <c r="J1" s="104">
         <f>COUNTIF(时间表,I1)</f>
         <v>37</v>
       </c>
-      <c r="K1" s="142" t="s">
+      <c r="K1" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="142">
+      <c r="L1" s="104">
         <f>COUNTIF(时间表,K1)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="19" t="s">
         <v>21</v>
       </c>
@@ -7600,7 +7636,7 @@
         <v>43303</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="19" t="s">
         <v>20</v>
       </c>
@@ -7664,7 +7700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="30" customHeight="1">
       <c r="A4" s="97">
         <v>0.25</v>
       </c>
@@ -7700,7 +7736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="30" customHeight="1">
       <c r="A5" s="97">
         <v>0.375</v>
       </c>
@@ -7709,8 +7745,8 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="138" t="s">
-        <v>375</v>
+      <c r="G5" s="123" t="s">
+        <v>374</v>
       </c>
       <c r="H5" s="98"/>
       <c r="I5" s="97">
@@ -7734,7 +7770,7 @@
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="30" customHeight="1">
       <c r="A6" s="97">
         <v>0.41666666666666669</v>
       </c>
@@ -7743,7 +7779,7 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="139"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="98"/>
       <c r="I6" s="97">
         <v>0.41666666666666669</v>
@@ -7766,7 +7802,7 @@
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
     </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="30" customHeight="1">
       <c r="A7" s="97">
         <v>0.45833333333333331</v>
       </c>
@@ -7775,7 +7811,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="140"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="19"/>
       <c r="I7" s="97">
         <v>0.45833333333333331</v>
@@ -7798,7 +7834,7 @@
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
     </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="30" customHeight="1">
       <c r="A8" s="97">
         <v>0.5</v>
       </c>
@@ -7820,7 +7856,7 @@
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
     </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="30" customHeight="1">
       <c r="A9" s="97">
         <v>0.54166666666666663</v>
       </c>
@@ -7842,7 +7878,7 @@
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
     </row>
-    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="30" customHeight="1">
       <c r="A10" s="97">
         <v>0.58333333333333337</v>
       </c>
@@ -7851,7 +7887,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="122" t="s">
         <v>308</v>
       </c>
       <c r="H10" s="19"/>
@@ -7876,7 +7912,7 @@
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
     </row>
-    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="30" customHeight="1">
       <c r="A11" s="97">
         <v>0.625</v>
       </c>
@@ -7885,7 +7921,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="103"/>
+      <c r="G11" s="122"/>
       <c r="H11" s="19"/>
       <c r="I11" s="97">
         <v>0.625</v>
@@ -7908,7 +7944,7 @@
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
     </row>
-    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="30" customHeight="1">
       <c r="A12" s="97">
         <v>0.66666666666666663</v>
       </c>
@@ -7942,7 +7978,7 @@
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
     </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="30" customHeight="1">
       <c r="A13" s="97">
         <v>0.70833333333333337</v>
       </c>
@@ -7964,7 +8000,7 @@
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
     </row>
-    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="30" customHeight="1">
       <c r="A14" s="97">
         <v>0.75</v>
       </c>
@@ -7998,7 +8034,7 @@
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
     </row>
-    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="30" customHeight="1">
       <c r="A15" s="97">
         <v>0.91666666666666663</v>
       </c>
@@ -8020,7 +8056,7 @@
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="19" t="s">
         <v>21</v>
       </c>
@@ -8070,7 +8106,7 @@
         <v>43317</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="19" t="s">
         <v>20</v>
       </c>
@@ -8134,7 +8170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="30" customHeight="1">
       <c r="A18" s="97">
         <v>0.25</v>
       </c>
@@ -8184,7 +8220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="30" customHeight="1">
       <c r="A19" s="97">
         <v>0.375</v>
       </c>
@@ -8230,7 +8266,7 @@
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
     </row>
-    <row r="20" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="30" customHeight="1">
       <c r="A20" s="97">
         <v>0.41666666666666669</v>
       </c>
@@ -8256,7 +8292,7 @@
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
     </row>
-    <row r="21" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="30" customHeight="1">
       <c r="A21" s="97">
         <v>0.45833333333333331</v>
       </c>
@@ -8282,7 +8318,7 @@
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
     </row>
-    <row r="22" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="30" customHeight="1">
       <c r="A22" s="97">
         <v>0.5</v>
       </c>
@@ -8304,7 +8340,7 @@
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
     </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="30" customHeight="1">
       <c r="A23" s="97">
         <v>0.54166666666666663</v>
       </c>
@@ -8326,7 +8362,7 @@
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="30" customHeight="1">
       <c r="A24" s="97">
         <v>0.58333333333333337</v>
       </c>
@@ -8352,7 +8388,7 @@
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
     </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="30" customHeight="1">
       <c r="A25" s="97">
         <v>0.625</v>
       </c>
@@ -8378,7 +8414,7 @@
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
     </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="30" customHeight="1">
       <c r="A26" s="97">
         <v>0.66666666666666663</v>
       </c>
@@ -8404,7 +8440,7 @@
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
     </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="30" customHeight="1">
       <c r="A27" s="97">
         <v>0.70833333333333337</v>
       </c>
@@ -8426,7 +8462,7 @@
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
     </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="30" customHeight="1">
       <c r="A28" s="97">
         <v>0.75</v>
       </c>
@@ -8472,7 +8508,7 @@
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
     </row>
-    <row r="29" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="30" customHeight="1">
       <c r="A29" s="97">
         <v>0.91666666666666663</v>
       </c>
@@ -8494,7 +8530,7 @@
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="19" t="s">
         <v>21</v>
       </c>
@@ -8544,7 +8580,7 @@
         <v>43331</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="19" t="s">
         <v>20</v>
       </c>
@@ -8608,7 +8644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="30" customHeight="1">
       <c r="A32" s="97">
         <v>0.25</v>
       </c>
@@ -8658,7 +8694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="30" customHeight="1">
       <c r="A33" s="97">
         <v>0.375</v>
       </c>
@@ -8700,7 +8736,7 @@
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
     </row>
-    <row r="34" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="30" customHeight="1">
       <c r="A34" s="97">
         <v>0.41666666666666669</v>
       </c>
@@ -8742,7 +8778,7 @@
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
     </row>
-    <row r="35" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="30" customHeight="1">
       <c r="A35" s="97">
         <v>0.45833333333333331</v>
       </c>
@@ -8784,7 +8820,7 @@
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
     </row>
-    <row r="36" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="30" customHeight="1">
       <c r="A36" s="97">
         <v>0.5</v>
       </c>
@@ -8806,7 +8842,7 @@
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
     </row>
-    <row r="37" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="30" customHeight="1">
       <c r="A37" s="97">
         <v>0.54166666666666663</v>
       </c>
@@ -8828,7 +8864,7 @@
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
     </row>
-    <row r="38" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="30" customHeight="1">
       <c r="A38" s="97">
         <v>0.58333333333333337</v>
       </c>
@@ -8870,7 +8906,7 @@
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
     </row>
-    <row r="39" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="30" customHeight="1">
       <c r="A39" s="97">
         <v>0.625</v>
       </c>
@@ -8912,7 +8948,7 @@
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
     </row>
-    <row r="40" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="30" customHeight="1">
       <c r="A40" s="97">
         <v>0.66666666666666663</v>
       </c>
@@ -8954,7 +8990,7 @@
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
     </row>
-    <row r="41" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="30" customHeight="1">
       <c r="A41" s="97">
         <v>0.70833333333333337</v>
       </c>
@@ -8976,7 +9012,7 @@
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
     </row>
-    <row r="42" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="30" customHeight="1">
       <c r="A42" s="97">
         <v>0.75</v>
       </c>
@@ -9018,7 +9054,7 @@
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
     </row>
-    <row r="43" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="30" customHeight="1">
       <c r="A43" s="97">
         <v>0.91666666666666663</v>
       </c>
@@ -9040,7 +9076,7 @@
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" s="19"/>
       <c r="B44" s="96">
         <v>43332</v>
@@ -9086,7 +9122,7 @@
         <v>43345</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" s="19"/>
       <c r="B45" s="19">
         <f>WEEKDAY(B44,2)</f>
@@ -9146,7 +9182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="30" customHeight="1">
       <c r="A46" s="97">
         <v>0.25</v>
       </c>
@@ -9196,7 +9232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="30" customHeight="1">
       <c r="A47" s="97">
         <v>0.375</v>
       </c>
@@ -9238,7 +9274,7 @@
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
     </row>
-    <row r="48" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="30" customHeight="1">
       <c r="A48" s="97">
         <v>0.41666666666666669</v>
       </c>
@@ -9280,7 +9316,7 @@
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
     </row>
-    <row r="49" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="30" customHeight="1">
       <c r="A49" s="97">
         <v>0.45833333333333331</v>
       </c>
@@ -9322,7 +9358,7 @@
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
     </row>
-    <row r="50" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="30" customHeight="1">
       <c r="A50" s="97">
         <v>0.5</v>
       </c>
@@ -9344,7 +9380,7 @@
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
     </row>
-    <row r="51" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="30" customHeight="1">
       <c r="A51" s="97">
         <v>0.54166666666666663</v>
       </c>
@@ -9366,7 +9402,7 @@
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
     </row>
-    <row r="52" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="30" customHeight="1">
       <c r="A52" s="97">
         <v>0.58333333333333337</v>
       </c>
@@ -9408,7 +9444,7 @@
       <c r="O52" s="19"/>
       <c r="P52" s="19"/>
     </row>
-    <row r="53" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="30" customHeight="1">
       <c r="A53" s="97">
         <v>0.625</v>
       </c>
@@ -9450,7 +9486,7 @@
       <c r="O53" s="19"/>
       <c r="P53" s="19"/>
     </row>
-    <row r="54" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="30" customHeight="1">
       <c r="A54" s="97">
         <v>0.66666666666666663</v>
       </c>
@@ -9492,7 +9528,7 @@
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
     </row>
-    <row r="55" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="30" customHeight="1">
       <c r="A55" s="97">
         <v>0.70833333333333337</v>
       </c>
@@ -9514,7 +9550,7 @@
       <c r="O55" s="19"/>
       <c r="P55" s="19"/>
     </row>
-    <row r="56" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="30" customHeight="1">
       <c r="A56" s="97">
         <v>0.75</v>
       </c>
@@ -9556,7 +9592,7 @@
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
     </row>
-    <row r="57" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="30" customHeight="1">
       <c r="A57" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -9583,13 +9619,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:H45"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="3" width="10.5" customWidth="1"/>
@@ -9597,9 +9634,9 @@
     <col min="5" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="56.25" customHeight="1" thickBot="1">
       <c r="B1" s="71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D1" s="66" t="s">
         <v>261</v>
@@ -9610,17 +9647,17 @@
       <c r="F1" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="131" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="109"/>
-    </row>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="H1" s="131"/>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" thickBot="1">
+      <c r="B2" s="126" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="106"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="64" t="s">
         <v>172</v>
       </c>
@@ -9634,12 +9671,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="23.85" customHeight="1">
       <c r="B3" s="91">
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="33"/>
@@ -9647,12 +9684,12 @@
       <c r="G3" s="73"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="23.85" customHeight="1">
       <c r="B4" s="92">
         <v>2</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="33"/>
@@ -9660,7 +9697,7 @@
       <c r="G4" s="73"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="23.85" customHeight="1">
       <c r="B5" s="92">
         <v>3</v>
       </c>
@@ -9671,7 +9708,7 @@
       <c r="G5" s="73"/>
       <c r="H5" s="44"/>
     </row>
-    <row r="6" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="23.85" customHeight="1">
       <c r="B6" s="92">
         <v>4</v>
       </c>
@@ -9682,7 +9719,7 @@
       <c r="G6" s="73"/>
       <c r="H6" s="44"/>
     </row>
-    <row r="7" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="23.85" customHeight="1">
       <c r="B7" s="93">
         <v>5</v>
       </c>
@@ -9693,7 +9730,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" ht="23.85" customHeight="1">
       <c r="B8" s="93">
         <v>6</v>
       </c>
@@ -9704,7 +9741,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="23.85" customHeight="1">
       <c r="B9" s="93">
         <v>7</v>
       </c>
@@ -9715,7 +9752,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="23.85" customHeight="1">
       <c r="B10" s="93">
         <v>8</v>
       </c>
@@ -9726,7 +9763,7 @@
       <c r="G10" s="23"/>
       <c r="H10" s="56"/>
     </row>
-    <row r="11" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="23.85" customHeight="1">
       <c r="B11" s="93">
         <v>9</v>
       </c>
@@ -9737,7 +9774,7 @@
       <c r="G11" s="23"/>
       <c r="H11" s="56"/>
     </row>
-    <row r="12" spans="2:8" ht="23.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="23.85" customHeight="1" thickBot="1">
       <c r="B12" s="94">
         <v>10</v>
       </c>
@@ -9748,7 +9785,7 @@
       <c r="G12" s="69"/>
       <c r="H12" s="59"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="7"/>
@@ -9757,12 +9794,12 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="14.25" thickBot="1">
       <c r="B14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8">
       <c r="B15" s="67" t="s">
         <v>175</v>
       </c>
@@ -9772,16 +9809,16 @@
       <c r="D15" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="129" t="s">
         <v>259</v>
       </c>
-      <c r="F15" s="108"/>
-      <c r="G15" s="107" t="s">
+      <c r="F15" s="130"/>
+      <c r="G15" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="H15" s="110"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="132"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="55" t="s">
         <v>222</v>
       </c>
@@ -9796,7 +9833,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="74"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="B17" s="55" t="s">
         <v>224</v>
       </c>
@@ -9811,7 +9848,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="74"/>
     </row>
-    <row r="18" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="27">
       <c r="B18" s="55" t="s">
         <v>225</v>
       </c>
@@ -9826,7 +9863,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="74"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19" s="55" t="s">
         <v>226</v>
       </c>
@@ -9841,7 +9878,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="74"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="B20" s="55" t="s">
         <v>227</v>
       </c>
@@ -9856,7 +9893,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="74"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21" s="55" t="s">
         <v>228</v>
       </c>
@@ -9871,7 +9908,7 @@
       <c r="G21" s="23"/>
       <c r="H21" s="74"/>
     </row>
-    <row r="22" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="27">
       <c r="B22" s="55" t="s">
         <v>229</v>
       </c>
@@ -9886,7 +9923,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="74"/>
     </row>
-    <row r="23" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="27">
       <c r="B23" s="55" t="s">
         <v>230</v>
       </c>
@@ -9901,7 +9938,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="74"/>
     </row>
-    <row r="24" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="40.5">
       <c r="B24" s="55" t="s">
         <v>231</v>
       </c>
@@ -9916,7 +9953,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="74"/>
     </row>
-    <row r="25" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="27">
       <c r="B25" s="55" t="s">
         <v>232</v>
       </c>
@@ -9931,7 +9968,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="74"/>
     </row>
-    <row r="26" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="27">
       <c r="B26" s="55" t="s">
         <v>234</v>
       </c>
@@ -9946,7 +9983,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="74"/>
     </row>
-    <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" ht="27">
       <c r="B27" s="55" t="s">
         <v>235</v>
       </c>
@@ -9961,7 +9998,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="74"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28" s="55" t="s">
         <v>236</v>
       </c>
@@ -9976,7 +10013,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="74"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29" s="55" t="s">
         <v>238</v>
       </c>
@@ -9991,7 +10028,7 @@
       <c r="G29" s="23"/>
       <c r="H29" s="74"/>
     </row>
-    <row r="30" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="27">
       <c r="B30" s="55" t="s">
         <v>239</v>
       </c>
@@ -10006,7 +10043,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="74"/>
     </row>
-    <row r="31" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="14.25" thickBot="1">
       <c r="B31" s="57" t="s">
         <v>240</v>
       </c>
@@ -10021,12 +10058,12 @@
       <c r="G31" s="69"/>
       <c r="H31" s="75"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8">
       <c r="B34" s="19" t="s">
         <v>317</v>
       </c>
@@ -10047,7 +10084,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="76"/>
@@ -10056,7 +10093,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8">
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="76"/>
@@ -10065,7 +10102,7 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8">
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="76"/>
@@ -10074,7 +10111,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8">
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="76"/>
@@ -10083,7 +10120,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8">
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="76"/>
@@ -10092,7 +10129,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8">
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="76"/>
@@ -10101,7 +10138,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8">
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="76"/>
@@ -10110,7 +10147,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8">
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="76"/>
@@ -10119,7 +10156,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8">
       <c r="B44" s="19" t="s">
         <v>265</v>
       </c>
@@ -10130,7 +10167,7 @@
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8">
       <c r="B45" s="19" t="s">
         <v>264</v>
       </c>

--- a/暑假计划.xlsx
+++ b/暑假计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" firstSheet="8" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="贝妞愿望" sheetId="5" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="贝妞问题诊断" sheetId="11" r:id="rId15"/>
     <sheet name="目标大表" sheetId="14" r:id="rId16"/>
     <sheet name="文件表" sheetId="19" r:id="rId17"/>
+    <sheet name="周计划" sheetId="20" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'项目-编程'!$A$1:$I$15</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="513">
   <si>
     <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1003,10 +1004,6 @@
   </si>
   <si>
     <t>学员签字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监管者签字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1572,22 +1569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数学错题本（放假前考试不及格，最后考试，加上暑期所有错题）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目-数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目-数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全优课堂对应练习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编程目标-2</t>
   </si>
   <si>
@@ -1662,22 +1643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>七年级数学上册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七年级数学下册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七年级英语上册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七年级英语下册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>草稿本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1731,10 +1696,6 @@
   </si>
   <si>
     <t>是。监督员阅读并签字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是。完成对应的章节学习和练习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1821,6 +1782,289 @@
   </si>
   <si>
     <t>观看《厉害了我的国》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16开，10张《长征》读后日记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理文集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是。不少于15篇的大作文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督员签字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读三本英文书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读报纸《Teens》5期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语2（2期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语2（3期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《盒子鱼》（手机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文2</t>
+  </si>
+  <si>
+    <t>语文3</t>
+  </si>
+  <si>
+    <t>语文1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用A4田格纸抄写并背诵语文古诗（共21首）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗读打卡（手机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄写M1-M5课文，及单词表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周打卡（83,85,87）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学2</t>
+  </si>
+  <si>
+    <t>第三周打卡（91,92,95,96,99）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学3</t>
+  </si>
+  <si>
+    <t>第四周打卡（100,102,108，111）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学4</t>
+  </si>
+  <si>
+    <t>历史1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游览名山大川，准备A4纸做一个手抄报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写个PPT，图加文，自然地理特色和地方文化特色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语口语1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一周打卡（39-45，51）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是。全优课堂对应练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技馆参观学习提纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假作业一张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道法1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天跑步至少1KM（五分钟以内），垫排球500次，仰卧起坐（Week29,30，每天50个；其他星期每天100个）；游泳1KM，30分钟以内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定-数学1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学错题本（放假前考试不及格，最后考试，共三份卷子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定-数学2</t>
+  </si>
+  <si>
+    <t>做7年级数学卷子，针对弱点加强学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定-数学3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做8年级上数学卷子，针对弱加强学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定-英语1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方单词速记大全每天5个单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定-英语1（从第30周起）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理2</t>
+  </si>
+  <si>
+    <t>物理3</t>
+  </si>
+  <si>
+    <t>道法2</t>
+  </si>
+  <si>
+    <t>看《厉害了我的国》，交A3手抄报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写时事PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载物理书并预习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个物理实践活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vacation Memory Book</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2822,7 +3066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3222,6 +3466,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3234,12 +3493,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3261,15 +3514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3311,6 +3555,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3658,7 +3905,7 @@
         <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3673,7 +3920,7 @@
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3690,24 +3937,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
-      <c r="B1" s="135" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="140" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="141" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="142"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -3725,285 +3972,285 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="146" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" s="77"/>
       <c r="H3" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="133" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="134"/>
+      <c r="C4" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="139" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
+      <c r="C5" s="142" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="143"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="142" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143"/>
+    </row>
+    <row r="7" spans="2:8" ht="220.5" customHeight="1">
+      <c r="B7" s="135" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="142" t="s">
         <v>341</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="140"/>
-    </row>
-    <row r="7" spans="2:8" ht="220.5" customHeight="1">
-      <c r="B7" s="146" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="139" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="145"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="148"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="147"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="138"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="134"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="147"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="133" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="138"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="134"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="147"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="133" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="138"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="134"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="147"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="137" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="138"/>
+      <c r="D11" s="133" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="134"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="147"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="137" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="138"/>
+      <c r="D12" s="133" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="134"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="147"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="138"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="134"/>
     </row>
     <row r="14" spans="2:8" ht="27.4" customHeight="1">
-      <c r="B14" s="147"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="138"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="134"/>
     </row>
     <row r="15" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B15" s="147"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="D15" s="133" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="138"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="134"/>
     </row>
     <row r="16" spans="2:8" ht="27.4" customHeight="1">
-      <c r="B16" s="147"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="137" t="s">
+      <c r="D16" s="133" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="138"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="134"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="147"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="D17" s="133" t="s">
         <v>218</v>
       </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="134"/>
     </row>
     <row r="18" spans="2:8" ht="27.4" customHeight="1">
-      <c r="B18" s="147"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="133" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="138"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="134"/>
     </row>
     <row r="19" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B19" s="147"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="133" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="138"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="134"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="147"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D20" s="137" t="s">
+      <c r="D20" s="133" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="138"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="134"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="147"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="133" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="138"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="134"/>
     </row>
     <row r="22" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B22" s="147"/>
+      <c r="B22" s="136"/>
       <c r="C22" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="133" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="138"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="134"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="148"/>
+      <c r="B23" s="137"/>
       <c r="C23" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="137" t="s">
-        <v>343</v>
-      </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="138"/>
+      <c r="D23" s="133" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="134"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="39" t="s">
         <v>160</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -4014,7 +4261,7 @@
     <row r="25" spans="2:8">
       <c r="B25" s="80"/>
       <c r="C25" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -4025,7 +4272,7 @@
     <row r="26" spans="2:8">
       <c r="B26" s="41"/>
       <c r="C26" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -4038,7 +4285,7 @@
         <v>199</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -4051,7 +4298,7 @@
     <row r="28" spans="2:8">
       <c r="B28" s="41"/>
       <c r="C28" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
@@ -4061,23 +4308,23 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="29"/>
       <c r="H29" s="43" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="14.25" thickBot="1">
       <c r="B30" s="45"/>
       <c r="C30" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D30" s="47"/>
       <c r="E30" s="47"/>
@@ -4087,17 +4334,27 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" t="s">
         <v>273</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>274</v>
-      </c>
-      <c r="D31" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D22:H22"/>
@@ -4112,16 +4369,6 @@
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D13:H13"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4134,8 +4381,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H6"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4152,24 +4399,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
-      <c r="B1" s="135" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="140" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="141" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" s="142"/>
+        <v>254</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="145"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4187,77 +4434,77 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="146" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" s="77"/>
       <c r="H3" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="133" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="134"/>
+      <c r="C4" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="139" t="s">
-        <v>321</v>
-      </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
+      <c r="C5" s="142" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="143"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="139" t="s">
-        <v>323</v>
-      </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="140"/>
+      <c r="C6" s="142" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143"/>
     </row>
     <row r="7" spans="2:8" ht="190.5" customHeight="1">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="139" t="s">
-        <v>344</v>
-      </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="145"/>
+      <c r="C7" s="142" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="148"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="39" t="s">
         <v>160</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -4268,7 +4515,7 @@
     <row r="9" spans="2:8">
       <c r="B9" s="80"/>
       <c r="C9" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -4279,7 +4526,7 @@
     <row r="10" spans="2:8">
       <c r="B10" s="41"/>
       <c r="C10" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
@@ -4292,7 +4539,7 @@
         <v>199</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -4305,7 +4552,7 @@
     <row r="12" spans="2:8">
       <c r="B12" s="41"/>
       <c r="C12" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -4315,23 +4562,23 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
       <c r="H13" s="43" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25" thickBot="1">
       <c r="B14" s="45"/>
       <c r="C14" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -4341,13 +4588,13 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" t="s">
         <v>273</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>274</v>
-      </c>
-      <c r="D15" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4371,8 +4618,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4389,24 +4636,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
-      <c r="B1" s="135" t="s">
-        <v>442</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="140" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="141" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="142"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4424,77 +4671,77 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="146" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" s="77"/>
       <c r="H3" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="133" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="134"/>
+      <c r="C4" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="139" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
+      <c r="C5" s="142" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="143"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="139" t="s">
-        <v>435</v>
-      </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="140"/>
+      <c r="C6" s="142" t="s">
+        <v>425</v>
+      </c>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143"/>
     </row>
     <row r="7" spans="2:8" ht="180.4" customHeight="1">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="139" t="s">
-        <v>441</v>
-      </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="145"/>
+      <c r="C7" s="142" t="s">
+        <v>431</v>
+      </c>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="148"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="39" t="s">
         <v>160</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -4505,7 +4752,7 @@
     <row r="9" spans="2:8">
       <c r="B9" s="80"/>
       <c r="C9" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -4516,7 +4763,7 @@
     <row r="10" spans="2:8">
       <c r="B10" s="41"/>
       <c r="C10" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
@@ -4529,7 +4776,7 @@
         <v>199</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -4542,7 +4789,7 @@
     <row r="12" spans="2:8">
       <c r="B12" s="41"/>
       <c r="C12" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -4552,23 +4799,23 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
       <c r="H13" s="43" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25" thickBot="1">
       <c r="B14" s="45"/>
       <c r="C14" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -4578,13 +4825,13 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" t="s">
         <v>273</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>274</v>
-      </c>
-      <c r="D15" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4608,8 +4855,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4626,24 +4873,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
-      <c r="B1" s="135" t="s">
-        <v>348</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="140" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="141" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="142"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4661,77 +4908,77 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="146" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" s="77"/>
       <c r="H3" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="133" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="134"/>
+      <c r="C4" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="139" t="s">
-        <v>337</v>
-      </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
+      <c r="C5" s="142" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="143"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="139" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="140"/>
+      <c r="C6" s="142" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143"/>
     </row>
     <row r="7" spans="2:8" ht="180.4" customHeight="1">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="139" t="s">
-        <v>447</v>
-      </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="145"/>
+      <c r="C7" s="142" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="148"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="39" t="s">
         <v>160</v>
       </c>
       <c r="C8" s="88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -4742,7 +4989,7 @@
     <row r="9" spans="2:8">
       <c r="B9" s="80"/>
       <c r="C9" s="89" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -4764,7 +5011,7 @@
         <v>199</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -4777,7 +5024,7 @@
     <row r="12" spans="2:8">
       <c r="B12" s="41"/>
       <c r="C12" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -4787,23 +5034,23 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
       <c r="H13" s="43" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25" thickBot="1">
       <c r="B14" s="45"/>
       <c r="C14" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="47"/>
@@ -4813,13 +5060,13 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" t="s">
         <v>273</v>
       </c>
-      <c r="C15" t="s">
-        <v>274</v>
-      </c>
       <c r="D15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -4843,8 +5090,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:H7"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4861,24 +5108,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
-      <c r="B1" s="135" t="s">
-        <v>423</v>
-      </c>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="140" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="141" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" s="142"/>
+        <v>254</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="145"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4896,62 +5143,62 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="146" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3" s="77"/>
       <c r="H3" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="133" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="134"/>
+      <c r="C4" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="139"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="139" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="140"/>
+      <c r="C5" s="142" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="143"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="139" t="s">
-        <v>334</v>
-      </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="140"/>
+      <c r="C6" s="142" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="143"/>
     </row>
     <row r="7" spans="2:8" ht="102.75" customHeight="1">
-      <c r="B7" s="146"/>
+      <c r="B7" s="135"/>
       <c r="C7" s="149" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D7" s="150"/>
       <c r="E7" s="150"/>
@@ -4960,27 +5207,27 @@
       <c r="H7" s="151"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="147"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" t="s">
         <v>371</v>
-      </c>
-      <c r="D8" t="s">
-        <v>372</v>
       </c>
       <c r="E8" s="99"/>
       <c r="F8" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G8" s="99"/>
       <c r="H8" s="100"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="147"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="99"/>
       <c r="F9" s="99">
@@ -4990,12 +5237,12 @@
       <c r="H9" s="100"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="147"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E10" s="99"/>
       <c r="F10" s="99">
@@ -5005,12 +5252,12 @@
       <c r="H10" s="100"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="147"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E11" s="99"/>
       <c r="F11" s="99">
@@ -5020,12 +5267,12 @@
       <c r="H11" s="100"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="147"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="99">
@@ -5035,12 +5282,12 @@
       <c r="H12" s="100"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="147"/>
+      <c r="B13" s="136"/>
       <c r="C13" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E13" s="99"/>
       <c r="F13" s="99">
@@ -5050,12 +5297,12 @@
       <c r="H13" s="100"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="147"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E14" s="99"/>
       <c r="F14" s="99">
@@ -5065,12 +5312,12 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="147"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E15" s="99"/>
       <c r="F15" s="99">
@@ -5080,12 +5327,12 @@
       <c r="H15" s="100"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="147"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E16" s="99"/>
       <c r="F16" s="99">
@@ -5095,12 +5342,12 @@
       <c r="H16" s="100"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="147"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E17" s="99"/>
       <c r="F17" s="99">
@@ -5110,12 +5357,12 @@
       <c r="H17" s="100"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="147"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E18" s="99"/>
       <c r="F18" s="99">
@@ -5125,12 +5372,12 @@
       <c r="H18" s="100"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="147"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E19" s="99"/>
       <c r="F19" s="99">
@@ -5140,12 +5387,12 @@
       <c r="H19" s="100"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="147"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E20" s="99"/>
       <c r="F20" s="99">
@@ -5155,12 +5402,12 @@
       <c r="H20" s="100"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="147"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E21" s="99"/>
       <c r="F21" s="99">
@@ -5170,12 +5417,12 @@
       <c r="H21" s="100"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="147"/>
+      <c r="B22" s="136"/>
       <c r="C22" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E22" s="99"/>
       <c r="F22" s="99">
@@ -5185,7 +5432,7 @@
       <c r="H22" s="100"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="148"/>
+      <c r="B23" s="137"/>
       <c r="C23" s="87"/>
       <c r="D23" s="101"/>
       <c r="E23" s="101"/>
@@ -5201,7 +5448,7 @@
         <v>160</v>
       </c>
       <c r="C24" s="88" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -5212,7 +5459,7 @@
     <row r="25" spans="2:8">
       <c r="B25" s="80"/>
       <c r="C25" s="89" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -5223,7 +5470,7 @@
     <row r="26" spans="2:8">
       <c r="B26" s="41"/>
       <c r="C26" s="90" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -5236,7 +5483,7 @@
         <v>199</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
@@ -5249,7 +5496,7 @@
     <row r="28" spans="2:8">
       <c r="B28" s="41"/>
       <c r="C28" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
@@ -5259,23 +5506,23 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="29"/>
       <c r="H29" s="43" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="14.25" thickBot="1">
       <c r="B30" s="45"/>
       <c r="C30" s="46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D30" s="47"/>
       <c r="E30" s="47"/>
@@ -5285,13 +5532,13 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" t="s">
         <v>273</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>274</v>
-      </c>
-      <c r="D31" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5317,7 +5564,7 @@
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5361,7 +5608,7 @@
     <row r="4" spans="2:5" ht="40.5">
       <c r="B4" s="155"/>
       <c r="C4" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>135</v>
@@ -5533,8 +5780,8 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5546,16 +5793,16 @@
   <sheetData>
     <row r="1" spans="2:11" ht="54" customHeight="1" thickBot="1">
       <c r="D1" s="105" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="15" thickTop="1" thickBot="1">
       <c r="B2" s="118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="119"/>
       <c r="D2" s="160" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E2" s="161"/>
       <c r="F2" s="161"/>
@@ -5563,19 +5810,19 @@
       <c r="H2" s="161"/>
       <c r="I2" s="162"/>
       <c r="J2" s="120" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="121" t="s">
         <v>285</v>
-      </c>
-      <c r="K2" s="121" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="14.25" thickTop="1">
       <c r="B3" s="87" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="87" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
@@ -5589,11 +5836,11 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="106" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="106" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -5607,11 +5854,11 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="106" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -5625,11 +5872,11 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="106" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="106" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -5643,11 +5890,11 @@
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -5661,11 +5908,11 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="106" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -5679,11 +5926,11 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="106" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
@@ -5697,11 +5944,11 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="106" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="106" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -5715,11 +5962,11 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="106" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="106" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -5733,11 +5980,11 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="106" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="106" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -5751,11 +5998,11 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="106" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="106" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -5769,11 +6016,11 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="106" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="106" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
@@ -5787,11 +6034,11 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="106" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="106" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
@@ -5805,11 +6052,11 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="106" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="106" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
@@ -5823,11 +6070,11 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="106" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="106" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
@@ -5841,11 +6088,11 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="106" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="106" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
@@ -5859,11 +6106,11 @@
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="106" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="106" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
@@ -5877,11 +6124,11 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="106" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="106" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
@@ -5895,11 +6142,11 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="106" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="106" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
@@ -5913,11 +6160,11 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="106" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
@@ -5931,11 +6178,11 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="106" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="106" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
@@ -5949,11 +6196,11 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="106" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="106" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -5967,11 +6214,11 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="106" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="106" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
@@ -5985,11 +6232,11 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="106" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="106" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
@@ -6003,11 +6250,11 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="106" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="106" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
@@ -6021,11 +6268,11 @@
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="106" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="106" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
@@ -6039,11 +6286,11 @@
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="106" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="106" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
@@ -6057,7 +6304,7 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="106" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="106"/>
@@ -6071,7 +6318,7 @@
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="106" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="106"/>
@@ -6085,7 +6332,7 @@
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="106" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="106"/>
@@ -6099,7 +6346,7 @@
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="106" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="106"/>
@@ -6113,7 +6360,7 @@
     </row>
     <row r="34" spans="2:11" ht="14.25" thickBot="1">
       <c r="B34" s="112" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C34" s="113"/>
       <c r="D34" s="112"/>
@@ -6128,12 +6375,12 @@
     <row r="35" spans="2:11" ht="14.25" thickTop="1"/>
     <row r="37" spans="2:11" ht="14.25" thickBot="1">
       <c r="B37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="C38" s="156" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D38" s="157"/>
       <c r="E38" s="50"/>
@@ -6180,7 +6427,7 @@
         <v>43303</v>
       </c>
       <c r="J40" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="2:11">
@@ -6216,7 +6463,7 @@
         <v>43310</v>
       </c>
       <c r="J42" s="56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="2:11">
@@ -6252,7 +6499,7 @@
         <v>43317</v>
       </c>
       <c r="J44" s="56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="2:11">
@@ -6288,7 +6535,7 @@
         <v>43324</v>
       </c>
       <c r="J46" s="56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="2:11">
@@ -6324,7 +6571,7 @@
         <v>43331</v>
       </c>
       <c r="J48" s="56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="3:10">
@@ -6360,7 +6607,7 @@
         <v>43338</v>
       </c>
       <c r="J50" s="56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="3:10" ht="14.25" thickBot="1">
@@ -6387,319 +6634,628 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A2:E32"/>
+  <dimension ref="A2:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="B2" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="E2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="19" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>384</v>
-      </c>
+      <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>427</v>
-      </c>
+      <c r="A6" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5" ht="27">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="19" t="s">
+        <v>410</v>
+      </c>
       <c r="B7" s="19" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>429</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="19"/>
+      <c r="A8" s="19" t="s">
+        <v>410</v>
+      </c>
       <c r="B8" s="19" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>430</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="19"/>
+      <c r="A9" s="19" t="s">
+        <v>410</v>
+      </c>
       <c r="B9" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>409</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>423</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="A10" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>436</v>
+      </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="C11" s="5"/>
+      <c r="A11" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>442</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="C12" s="5"/>
+      <c r="A12" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>444</v>
+      </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19" t="s">
-        <v>419</v>
+      <c r="A13" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>469</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>431</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>432</v>
-      </c>
+      <c r="A14" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>433</v>
-      </c>
+      <c r="A15" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>446</v>
-      </c>
+      <c r="A16" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>486</v>
+      </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>486</v>
+      </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>486</v>
+      </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>486</v>
+      </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>442</v>
+      </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="5"/>
+      <c r="A24" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>442</v>
+      </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="163" t="s">
+        <v>489</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="163" t="s">
+        <v>491</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="163" t="s">
+        <v>506</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="5"/>
+    <row r="32" spans="1:5" ht="40.5">
+      <c r="A32" s="163" t="s">
+        <v>492</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>494</v>
+      </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" ht="27">
+      <c r="A33" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="163" t="s">
+        <v>501</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="163" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="163" t="s">
+        <v>506</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="163" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="163" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="163" t="s">
+        <v>489</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7746,7 +8302,7 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="123" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H5" s="98"/>
       <c r="I5" s="97">
@@ -7888,7 +8444,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="122" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="97">
@@ -7907,7 +8463,7 @@
         <v>27</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -7939,7 +8495,7 @@
         <v>28</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
@@ -7955,7 +8511,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="98"/>
       <c r="H12" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I12" s="97">
         <v>0.66666666666666663</v>
@@ -7973,7 +8529,7 @@
         <v>28</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
@@ -8383,7 +8939,7 @@
         <v>27</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
@@ -8409,7 +8965,7 @@
         <v>28</v>
       </c>
       <c r="N25" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
@@ -8435,7 +8991,7 @@
         <v>28</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
@@ -8881,7 +9437,7 @@
         <v>27</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
@@ -8901,7 +9457,7 @@
         <v>27</v>
       </c>
       <c r="N38" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
@@ -8923,7 +9479,7 @@
         <v>28</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
@@ -8943,7 +9499,7 @@
         <v>28</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
@@ -8965,7 +9521,7 @@
         <v>28</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
@@ -8985,7 +9541,7 @@
         <v>28</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
@@ -9419,7 +9975,7 @@
         <v>27</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
@@ -9439,7 +9995,7 @@
         <v>27</v>
       </c>
       <c r="N52" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O52" s="19"/>
       <c r="P52" s="19"/>
@@ -9461,7 +10017,7 @@
         <v>28</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
@@ -9481,7 +10037,7 @@
         <v>28</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O53" s="19"/>
       <c r="P53" s="19"/>
@@ -9503,7 +10059,7 @@
         <v>28</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
@@ -9523,7 +10079,7 @@
         <v>28</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
@@ -9636,25 +10192,25 @@
   <sheetData>
     <row r="1" spans="2:8" ht="56.25" customHeight="1" thickBot="1">
       <c r="B1" s="71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D1" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="71" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>262</v>
-      </c>
       <c r="G1" s="131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H1" s="131"/>
     </row>
     <row r="2" spans="2:8" ht="14.25" thickBot="1">
       <c r="B2" s="126" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" s="127"/>
       <c r="D2" s="128"/>
@@ -9665,10 +10221,10 @@
         <v>173</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="23.85" customHeight="1">
@@ -9676,7 +10232,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="33"/>
@@ -9689,7 +10245,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="33"/>
@@ -9804,17 +10360,17 @@
         <v>175</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D15" s="79" t="s">
         <v>176</v>
       </c>
       <c r="E15" s="129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F15" s="130"/>
       <c r="G15" s="129" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H15" s="132"/>
     </row>
@@ -9826,7 +10382,7 @@
         <v>119</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
@@ -9871,7 +10427,7 @@
         <v>119</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
@@ -10060,28 +10616,28 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="76" t="s">
         <v>317</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="D34" s="76" t="s">
-        <v>318</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="19" t="s">
         <v>178</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -10158,18 +10714,18 @@
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C44" s="19"/>
       <c r="F44" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C45" s="19"/>
       <c r="F45" s="19" t="s">

--- a/暑假计划.xlsx
+++ b/暑假计划.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-Sync\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#WORKSHOP\gitSync\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" firstSheet="8" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="贝妞愿望" sheetId="5" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="12">'项目-锻炼'!$A$1:$I$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'项目-数学'!$A$1:$I$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'项目-英语'!$A$1:$I$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'项目-自我管理'!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'项目-自我管理'!$A$1:$I$34</definedName>
     <definedName name="时间表">假期大时间表!$A$2:$P$57</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="519">
   <si>
     <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1741,341 +1741,379 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 每日新背诵20个托福单词，并熟记之前的单词；
-2. 每周进行小型考试，确保当周的100个单词熟记；
-3. 每三周进行中型考试，抽取50个单词考试，需要95%通过率；
+    <t>2018年暑期项目书-英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练字10个汉字，20遍数字，26 X 2个英文字母，反应游戏X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练字本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是。书写规范清晰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝妞WishList-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看《厉害了我的国》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16开，10张《长征》读后日记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理文集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是。不少于15篇的大作文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督员签字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读三本英文书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读报纸《Teens》5期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语2（2期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语2（3期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《盒子鱼》（手机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文2</t>
+  </si>
+  <si>
+    <t>语文3</t>
+  </si>
+  <si>
+    <t>语文1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用A4田格纸抄写并背诵语文古诗（共21首）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朗读打卡（手机）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄写M1-M5课文，及单词表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二周打卡（83,85,87）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学2</t>
+  </si>
+  <si>
+    <t>第三周打卡（91,92,95,96,99）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学3</t>
+  </si>
+  <si>
+    <t>第四周打卡（100,102,108，111）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学4</t>
+  </si>
+  <si>
+    <t>历史1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游览名山大川，准备A4纸做一个手抄报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写个PPT，图加文，自然地理特色和地方文化特色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语口语1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一周打卡（39-45，51）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是。全优课堂对应练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技馆参观学习提纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假作业一张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道法1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天跑步至少1KM（五分钟以内），垫排球500次，仰卧起坐（Week29,30，每天50个；其他星期每天100个）；游泳1KM，30分钟以内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定-数学1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学错题本（放假前考试不及格，最后考试，共三份卷子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定-数学2</t>
+  </si>
+  <si>
+    <t>做7年级数学卷子，针对弱点加强学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定-数学3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做8年级上数学卷子，针对弱加强学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定-英语1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新东方单词速记大全每天5个单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定-英语1（从第30周起）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理2</t>
+  </si>
+  <si>
+    <t>物理3</t>
+  </si>
+  <si>
+    <t>道法2</t>
+  </si>
+  <si>
+    <t>看《厉害了我的国》，交A3手抄报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写时事PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载物理书并预习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个物理实践活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vacation Memory Book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做题应该尽量按顺序做，不会做的题不要轻易跳过，可以问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天早上及其他任何场合，自觉按时起床，自己定闹钟。不得因为自己赖床耽误大家时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 每天上午六点按时起床；
+2. 如果天气好，在小区附近活动，晨跑或者骑行；如果天气不佳改为当日游泳（可能需要占用下午时间）
+3. 早上运动以后出汗，回来洗澡，限定10分种以内，同时自己清洗运动衣裤，并晾好；
+4. 每天运动，可以得到额外2分。计划好运动，因为没有起床或者偷懒，不能得到此2分加分，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>并且在每日的自我管理分数中扣除1至5分（视情节而定）。
+5. 每天晚上须在十点准备上床睡觉，十点半以后关灯，不可再有任何其他活动。如此条无法实现，需要提前报备监督员并得到许可。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 每日新背诵《托福词根+词缀》5课托福单词，并熟记之前的单词；
+2. 每周进行小型考试，确保当周的单词熟记；
+3. 每三周进行中型考试，抽取100个单词考试，需要95%通过率；
 4. 假期结束进行大考，抽取100个单词考试，需要95%通过率；
 5. 设定阅读书目；
 6. 安排时间复习语法，并找到相关练习。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018年暑期项目书-英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>练字10个汉字，20遍数字，26 X 2个英文字母，反应游戏X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>练字本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是。书写规范清晰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 每天上午六点按时起床；
-2. 如果天气好，在小区附近活动，晨跑或者骑行；如果天气不佳改为当日游泳（可能需要占用下午时间）
-3. 早上运动以后出汗，回来洗澡，限定10分种以内，同时自己清洗运动衣裤；
-4. 每天运动，可以得到额外2分。计划好运动，因为没有起床或者偷懒，不能得到此2分加分，并且在每日的自我管理分数中扣除1分。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝妞WishList-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观看《厉害了我的国》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16开，10张《长征》读后日记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理文集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是。不少于15篇的大作文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Week29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Week30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Week31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Week32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Week33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Week34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监督员签字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读三本英文书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读报纸《Teens》5期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语2（2期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语2（3期）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《盒子鱼》（手机）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语文1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语文2</t>
-  </si>
-  <si>
-    <t>语文3</t>
-  </si>
-  <si>
-    <t>语文1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用A4田格纸抄写并背诵语文古诗（共21首）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朗读打卡（手机）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄写M1-M5课文，及单词表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二周打卡（83,85,87）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学2</t>
-  </si>
-  <si>
-    <t>第三周打卡（91,92,95,96,99）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学3</t>
-  </si>
-  <si>
-    <t>第四周打卡（100,102,108，111）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学4</t>
-  </si>
-  <si>
-    <t>历史1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游览名山大川，准备A4纸做一个手抄报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地理1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写个PPT，图加文，自然地理特色和地方文化特色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语口语1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一周打卡（39-45，51）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是。全优课堂对应练习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技馆参观学习提纲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生物1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暑假作业一张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道法1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体育1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天跑步至少1KM（五分钟以内），垫排球500次，仰卧起坐（Week29,30，每天50个；其他星期每天100个）；游泳1KM，30分钟以内。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定-数学1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学错题本（放假前考试不及格，最后考试，共三份卷子）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定-数学2</t>
-  </si>
-  <si>
-    <t>做7年级数学卷子，针对弱点加强学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定-数学3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做8年级上数学卷子，针对弱加强学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定-英语1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新东方单词速记大全每天5个单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定-英语1（从第30周起）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理2</t>
-  </si>
-  <si>
-    <t>物理3</t>
-  </si>
-  <si>
-    <t>道法2</t>
-  </si>
-  <si>
-    <t>看《厉害了我的国》，交A3手抄报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>写时事PPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载物理书并预习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个物理实践活动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vacation Memory Book</t>
+    <t>ZW_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动承担家务，可以酌情加分。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2137,6 +2175,22 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3066,7 +3120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3433,6 +3487,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3466,21 +3529,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3555,9 +3627,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3847,12 +3916,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3860,7 +3929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3868,7 +3937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3876,7 +3945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3884,7 +3953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>202</v>
       </c>
@@ -3892,7 +3961,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -3900,7 +3969,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -3917,44 +3986,44 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="B1:H31"/>
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.375" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="1.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="13.46484375" customWidth="1"/>
+    <col min="6" max="6" width="15.265625" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" customWidth="1"/>
-    <col min="9" max="9" width="1.875" customWidth="1"/>
+    <col min="8" max="8" width="26.265625" customWidth="1"/>
+    <col min="9" max="9" width="1.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
-      <c r="B1" s="140" t="s">
+    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="146" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="145"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -3968,14 +4037,14 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -3985,366 +4054,406 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-    </row>
-    <row r="5" spans="2:8" ht="69" customHeight="1">
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
+    </row>
+    <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="148" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-    </row>
-    <row r="6" spans="2:8" ht="45" customHeight="1">
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
+    </row>
+    <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="148" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="143"/>
-    </row>
-    <row r="7" spans="2:8" ht="220.5" customHeight="1">
-      <c r="B7" s="135" t="s">
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="149"/>
+    </row>
+    <row r="7" spans="2:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="148" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="148"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="136"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="140"/>
       <c r="C8" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="133" t="s">
+      <c r="D8" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="134"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="136"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="143"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="140"/>
       <c r="C9" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="133" t="s">
+      <c r="D9" s="142" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="134"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="136"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="140"/>
       <c r="C10" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="142" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="134"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="136"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="143"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="140"/>
       <c r="C11" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="142" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="134"/>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="136"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="143"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="140"/>
       <c r="C12" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="D12" s="142" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="134"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="136"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="143"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="140"/>
       <c r="C13" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="133" t="s">
+      <c r="D13" s="142" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="134"/>
-    </row>
-    <row r="14" spans="2:8" ht="27.4" customHeight="1">
-      <c r="B14" s="136"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="143"/>
+    </row>
+    <row r="14" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="140"/>
       <c r="C14" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="133" t="s">
+      <c r="D14" s="142" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="134"/>
-    </row>
-    <row r="15" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B15" s="136"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="143"/>
+    </row>
+    <row r="15" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="140"/>
       <c r="C15" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="133" t="s">
+      <c r="D15" s="142" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="134"/>
-    </row>
-    <row r="16" spans="2:8" ht="27.4" customHeight="1">
-      <c r="B16" s="136"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
+    </row>
+    <row r="16" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="140"/>
       <c r="C16" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="133" t="s">
+      <c r="D16" s="142" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="134"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="136"/>
-      <c r="C17" s="24" t="s">
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="143"/>
+    </row>
+    <row r="17" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="140"/>
+      <c r="C17" s="124" t="s">
+        <v>513</v>
+      </c>
+      <c r="D17" s="136" t="s">
+        <v>514</v>
+      </c>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="140"/>
+      <c r="C18" s="124" t="s">
+        <v>517</v>
+      </c>
+      <c r="D18" s="136" t="s">
+        <v>518</v>
+      </c>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="138"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="140"/>
+      <c r="C19" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D17" s="133" t="s">
+      <c r="D19" s="142" t="s">
         <v>218</v>
       </c>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="134"/>
-    </row>
-    <row r="18" spans="2:8" ht="27.4" customHeight="1">
-      <c r="B18" s="136"/>
-      <c r="C18" s="24" t="s">
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="143"/>
+    </row>
+    <row r="20" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="140"/>
+      <c r="C20" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D18" s="133" t="s">
+      <c r="D20" s="142" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="134"/>
-    </row>
-    <row r="19" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B19" s="136"/>
-      <c r="C19" s="24" t="s">
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="143"/>
+    </row>
+    <row r="21" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="140"/>
+      <c r="C21" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="133" t="s">
+      <c r="D21" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="134"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="136"/>
-      <c r="C20" s="24" t="s">
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="143"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="140"/>
+      <c r="C22" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D20" s="133" t="s">
+      <c r="D22" s="142" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="134"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="136"/>
-      <c r="C21" s="24" t="s">
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="143"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="140"/>
+      <c r="C23" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="133" t="s">
+      <c r="D23" s="142" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="134"/>
-    </row>
-    <row r="22" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B22" s="136"/>
-      <c r="C22" s="24" t="s">
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="143"/>
+    </row>
+    <row r="24" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="140"/>
+      <c r="C24" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D22" s="133" t="s">
+      <c r="D24" s="142" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="134"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="137"/>
-      <c r="C23" s="24" t="s">
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="143"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="140"/>
+      <c r="C25" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="133" t="s">
+      <c r="D25" s="142" t="s">
         <v>342</v>
       </c>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="134"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="39" t="s">
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="143"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="141"/>
+      <c r="C26" s="123" t="s">
+        <v>511</v>
+      </c>
+      <c r="D26" s="136" t="s">
+        <v>512</v>
+      </c>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="138"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C27" s="27" t="s">
         <v>248</v>
-      </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="80"/>
-      <c r="C25" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="51"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="41"/>
-      <c r="C26" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="42"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>249</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="43" t="s">
+      <c r="G27" s="28"/>
+      <c r="H27" s="40"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="80"/>
+      <c r="C28" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="51"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="41"/>
+      <c r="C29" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="42"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="41"/>
-      <c r="C28" s="30" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="41"/>
+      <c r="C31" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="39" t="s">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="44"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C32" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="43" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="14.25" thickBot="1">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="43" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="45"/>
+      <c r="C33" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" t="s">
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
         <v>272</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>273</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D34" t="s">
         <v>274</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
+    <mergeCell ref="D18:H18"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="D14:H14"/>
@@ -4355,14 +4464,16 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C7:H7"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="B7:B26"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
     <mergeCell ref="D20:H20"/>
     <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="B7:B23"/>
-    <mergeCell ref="D18:H18"/>
     <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D17:H17"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D10:H10"/>
@@ -4385,38 +4496,38 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.375" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="1.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="13.46484375" customWidth="1"/>
+    <col min="6" max="6" width="15.265625" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" customWidth="1"/>
-    <col min="9" max="9" width="1.875" customWidth="1"/>
+    <col min="8" max="8" width="26.265625" customWidth="1"/>
+    <col min="9" max="9" width="1.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
-      <c r="B1" s="140" t="s">
+    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="146" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="150" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="145"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4430,14 +4541,14 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4447,59 +4558,59 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-    </row>
-    <row r="5" spans="2:8" ht="69" customHeight="1">
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
+    </row>
+    <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="148" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-    </row>
-    <row r="6" spans="2:8" ht="45" customHeight="1">
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
+    </row>
+    <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="148" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="143"/>
-    </row>
-    <row r="7" spans="2:8" ht="190.5" customHeight="1">
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="149"/>
+    </row>
+    <row r="7" spans="2:8" ht="190.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="148" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="148"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
         <v>160</v>
       </c>
@@ -4512,7 +4623,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="40"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="80"/>
       <c r="C9" s="26" t="s">
         <v>324</v>
@@ -4523,7 +4634,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="51"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="41"/>
       <c r="C10" s="30" t="s">
         <v>325</v>
@@ -4534,7 +4645,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="42"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="39" t="s">
         <v>199</v>
       </c>
@@ -4549,7 +4660,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="41"/>
       <c r="C12" s="30" t="s">
         <v>250</v>
@@ -4560,7 +4671,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="39" t="s">
         <v>253</v>
       </c>
@@ -4572,10 +4683,10 @@
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
       <c r="H13" s="43" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="14.25" thickBot="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="45"/>
       <c r="C14" s="46" t="s">
         <v>252</v>
@@ -4586,7 +4697,7 @@
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>272</v>
       </c>
@@ -4618,42 +4729,42 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.375" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="1.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="13.46484375" customWidth="1"/>
+    <col min="6" max="6" width="15.265625" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" customWidth="1"/>
-    <col min="9" max="9" width="1.875" customWidth="1"/>
+    <col min="8" max="8" width="26.265625" customWidth="1"/>
+    <col min="9" max="9" width="1.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
-      <c r="B1" s="140" t="s">
-        <v>432</v>
-      </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-    </row>
-    <row r="2" spans="2:8">
+    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="146" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="145"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4667,14 +4778,14 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4684,59 +4795,59 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-    </row>
-    <row r="5" spans="2:8" ht="69" customHeight="1">
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
+    </row>
+    <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="148" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-    </row>
-    <row r="6" spans="2:8" ht="45" customHeight="1">
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
+    </row>
+    <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="148" t="s">
         <v>425</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="143"/>
-    </row>
-    <row r="7" spans="2:8" ht="180.4" customHeight="1">
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="149"/>
+    </row>
+    <row r="7" spans="2:8" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="142" t="s">
-        <v>431</v>
-      </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="148"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="C7" s="148" t="s">
+        <v>516</v>
+      </c>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
         <v>160</v>
       </c>
@@ -4749,7 +4860,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="40"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="80"/>
       <c r="C9" s="26" t="s">
         <v>271</v>
@@ -4760,7 +4871,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="51"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="41"/>
       <c r="C10" s="30" t="s">
         <v>247</v>
@@ -4771,7 +4882,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="42"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="39" t="s">
         <v>199</v>
       </c>
@@ -4786,7 +4897,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="41"/>
       <c r="C12" s="30" t="s">
         <v>250</v>
@@ -4797,7 +4908,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="39" t="s">
         <v>253</v>
       </c>
@@ -4809,10 +4920,10 @@
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
       <c r="H13" s="43" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="14.25" thickBot="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="45"/>
       <c r="C14" s="46" t="s">
         <v>252</v>
@@ -4823,7 +4934,7 @@
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>272</v>
       </c>
@@ -4855,42 +4966,42 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.375" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="1.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="13.46484375" customWidth="1"/>
+    <col min="6" max="6" width="15.265625" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" customWidth="1"/>
-    <col min="9" max="9" width="1.875" customWidth="1"/>
+    <col min="8" max="8" width="26.265625" customWidth="1"/>
+    <col min="9" max="9" width="1.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
-      <c r="B1" s="140" t="s">
+    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="146" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="145"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4904,14 +5015,14 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4921,59 +5032,59 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-    </row>
-    <row r="5" spans="2:8" ht="69" customHeight="1">
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
+    </row>
+    <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="148" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-    </row>
-    <row r="6" spans="2:8" ht="45" customHeight="1">
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
+    </row>
+    <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="148" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="143"/>
-    </row>
-    <row r="7" spans="2:8" ht="180.4" customHeight="1">
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="149"/>
+    </row>
+    <row r="7" spans="2:8" ht="180.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="142" t="s">
-        <v>437</v>
-      </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="148"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="C7" s="148" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
         <v>160</v>
       </c>
@@ -4986,7 +5097,7 @@
       <c r="G8" s="28"/>
       <c r="H8" s="40"/>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="80"/>
       <c r="C9" s="89" t="s">
         <v>338</v>
@@ -4997,7 +5108,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="51"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="41"/>
       <c r="C10" s="90"/>
       <c r="D10" s="31"/>
@@ -5006,7 +5117,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="42"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="39" t="s">
         <v>199</v>
       </c>
@@ -5021,7 +5132,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="41"/>
       <c r="C12" s="30" t="s">
         <v>250</v>
@@ -5032,7 +5143,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="39" t="s">
         <v>253</v>
       </c>
@@ -5044,10 +5155,10 @@
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
       <c r="H13" s="43" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="14.25" thickBot="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="45"/>
       <c r="C14" s="46" t="s">
         <v>252</v>
@@ -5058,7 +5169,7 @@
       <c r="G14" s="48"/>
       <c r="H14" s="49"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>272</v>
       </c>
@@ -5094,38 +5205,38 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.375" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="1.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.46484375" customWidth="1"/>
+    <col min="3" max="3" width="7.265625" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="13.46484375" customWidth="1"/>
+    <col min="6" max="6" width="15.265625" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.25" customWidth="1"/>
-    <col min="9" max="9" width="1.875" customWidth="1"/>
+    <col min="8" max="8" width="26.265625" customWidth="1"/>
+    <col min="9" max="9" width="1.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1">
-      <c r="B1" s="140" t="s">
+    <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="146" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-    </row>
-    <row r="2" spans="2:8">
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="145"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5139,14 +5250,14 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5156,58 +5267,58 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="139"/>
-    </row>
-    <row r="5" spans="2:8" ht="69" customHeight="1">
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
+    </row>
+    <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="148" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="143"/>
-    </row>
-    <row r="6" spans="2:8" ht="45" customHeight="1">
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
+    </row>
+    <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="148" t="s">
         <v>333</v>
       </c>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="143"/>
-    </row>
-    <row r="7" spans="2:8" ht="102.75" customHeight="1">
-      <c r="B7" s="135"/>
-      <c r="C7" s="149" t="s">
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="149"/>
+    </row>
+    <row r="7" spans="2:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="139"/>
+      <c r="C7" s="155" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="151"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="136"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="157"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="140"/>
       <c r="C8" s="21" t="s">
         <v>370</v>
       </c>
@@ -5221,8 +5332,8 @@
       <c r="G8" s="99"/>
       <c r="H8" s="100"/>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="136"/>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="140"/>
       <c r="C9" s="21" t="s">
         <v>353</v>
       </c>
@@ -5236,8 +5347,8 @@
       <c r="G9" s="99"/>
       <c r="H9" s="100"/>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="136"/>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="140"/>
       <c r="C10" s="21" t="s">
         <v>353</v>
       </c>
@@ -5251,8 +5362,8 @@
       <c r="G10" s="99"/>
       <c r="H10" s="100"/>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="136"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="140"/>
       <c r="C11" s="21" t="s">
         <v>353</v>
       </c>
@@ -5266,8 +5377,8 @@
       <c r="G11" s="99"/>
       <c r="H11" s="100"/>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="136"/>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="140"/>
       <c r="C12" s="21" t="s">
         <v>353</v>
       </c>
@@ -5281,8 +5392,8 @@
       <c r="G12" s="99"/>
       <c r="H12" s="100"/>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="136"/>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="140"/>
       <c r="C13" s="21" t="s">
         <v>354</v>
       </c>
@@ -5296,8 +5407,8 @@
       <c r="G13" s="99"/>
       <c r="H13" s="100"/>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="136"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="140"/>
       <c r="C14" s="21" t="s">
         <v>354</v>
       </c>
@@ -5311,8 +5422,8 @@
       <c r="G14" s="99"/>
       <c r="H14" s="100"/>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="136"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="140"/>
       <c r="C15" s="21" t="s">
         <v>354</v>
       </c>
@@ -5326,8 +5437,8 @@
       <c r="G15" s="99"/>
       <c r="H15" s="100"/>
     </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="136"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="140"/>
       <c r="C16" s="21" t="s">
         <v>354</v>
       </c>
@@ -5341,8 +5452,8 @@
       <c r="G16" s="99"/>
       <c r="H16" s="100"/>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="136"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="140"/>
       <c r="C17" s="21" t="s">
         <v>354</v>
       </c>
@@ -5356,8 +5467,8 @@
       <c r="G17" s="99"/>
       <c r="H17" s="100"/>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="136"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="140"/>
       <c r="C18" s="21" t="s">
         <v>355</v>
       </c>
@@ -5371,8 +5482,8 @@
       <c r="G18" s="99"/>
       <c r="H18" s="100"/>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="136"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="140"/>
       <c r="C19" s="21" t="s">
         <v>355</v>
       </c>
@@ -5386,8 +5497,8 @@
       <c r="G19" s="99"/>
       <c r="H19" s="100"/>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="136"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="140"/>
       <c r="C20" s="21" t="s">
         <v>355</v>
       </c>
@@ -5401,8 +5512,8 @@
       <c r="G20" s="99"/>
       <c r="H20" s="100"/>
     </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="136"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="140"/>
       <c r="C21" s="21" t="s">
         <v>355</v>
       </c>
@@ -5416,8 +5527,8 @@
       <c r="G21" s="99"/>
       <c r="H21" s="100"/>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="136"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="140"/>
       <c r="C22" s="21" t="s">
         <v>355</v>
       </c>
@@ -5431,8 +5542,8 @@
       <c r="G22" s="99"/>
       <c r="H22" s="100"/>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="137"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="141"/>
       <c r="C23" s="87"/>
       <c r="D23" s="101"/>
       <c r="E23" s="101"/>
@@ -5443,7 +5554,7 @@
       <c r="G23" s="101"/>
       <c r="H23" s="102"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="39" t="s">
         <v>160</v>
       </c>
@@ -5456,7 +5567,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="40"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="80"/>
       <c r="C25" s="89" t="s">
         <v>413</v>
@@ -5467,7 +5578,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="51"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="41"/>
       <c r="C26" s="90" t="s">
         <v>412</v>
@@ -5478,7 +5589,7 @@
       <c r="G26" s="31"/>
       <c r="H26" s="42"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="39" t="s">
         <v>199</v>
       </c>
@@ -5493,7 +5604,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="41"/>
       <c r="C28" s="30" t="s">
         <v>250</v>
@@ -5504,7 +5615,7 @@
       <c r="G28" s="32"/>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="39" t="s">
         <v>253</v>
       </c>
@@ -5516,10 +5627,10 @@
       <c r="F29" s="28"/>
       <c r="G29" s="29"/>
       <c r="H29" s="43" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="14.25" thickBot="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="45"/>
       <c r="C30" s="46" t="s">
         <v>252</v>
@@ -5530,7 +5641,7 @@
       <c r="G30" s="48"/>
       <c r="H30" s="49"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>272</v>
       </c>
@@ -5567,17 +5678,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="0.75" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" customWidth="1"/>
-    <col min="5" max="5" width="28.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="0.73046875" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.3984375" customWidth="1"/>
+    <col min="5" max="5" width="28.1328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="2.65" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:5" ht="14.25" thickBot="1">
+    <row r="1" spans="2:5" ht="2.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="8" t="s">
         <v>121</v>
       </c>
@@ -5591,8 +5702,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="27.75" customHeight="1">
-      <c r="B3" s="154" t="s">
+    <row r="3" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="160" t="s">
         <v>179</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -5605,8 +5716,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="40.5">
-      <c r="B4" s="155"/>
+    <row r="4" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B4" s="161"/>
       <c r="C4" s="5" t="s">
         <v>278</v>
       </c>
@@ -5617,8 +5728,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="40.5">
-      <c r="B5" s="155"/>
+    <row r="5" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B5" s="161"/>
       <c r="C5" s="5" t="s">
         <v>126</v>
       </c>
@@ -5629,24 +5740,24 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="155"/>
+    <row r="6" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="161"/>
       <c r="C6" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B7" s="153"/>
+    <row r="7" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="159"/>
       <c r="C7" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="152" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="158" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -5659,8 +5770,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="27">
-      <c r="B9" s="155"/>
+    <row r="9" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B9" s="161"/>
       <c r="C9" s="5" t="s">
         <v>129</v>
       </c>
@@ -5671,8 +5782,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="27">
-      <c r="B10" s="155"/>
+    <row r="10" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="161"/>
       <c r="C10" s="5" t="s">
         <v>132</v>
       </c>
@@ -5683,8 +5794,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="27">
-      <c r="B11" s="155"/>
+    <row r="11" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="161"/>
       <c r="C11" s="5" t="s">
         <v>131</v>
       </c>
@@ -5695,8 +5806,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="41.25" thickBot="1">
-      <c r="B12" s="153"/>
+    <row r="12" spans="2:5" ht="42" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="159"/>
       <c r="C12" s="13" t="s">
         <v>144</v>
       </c>
@@ -5707,8 +5818,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="40.5">
-      <c r="B13" s="152" t="s">
+    <row r="13" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="B13" s="158" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -5721,8 +5832,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="27.75" thickBot="1">
-      <c r="B14" s="153"/>
+    <row r="14" spans="2:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="159"/>
       <c r="C14" s="13" t="s">
         <v>153</v>
       </c>
@@ -5733,31 +5844,31 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="27.95" customHeight="1">
+    <row r="15" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="52"/>
       <c r="C15" s="16"/>
       <c r="D15" s="53"/>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="2:5" ht="27.95" customHeight="1">
+    <row r="16" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="55"/>
       <c r="C16" s="5"/>
       <c r="D16" s="19"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="2:5" ht="27.95" customHeight="1">
+    <row r="17" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="55"/>
       <c r="C17" s="5"/>
       <c r="D17" s="19"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="2:5" ht="27.95" customHeight="1">
+    <row r="18" spans="2:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="55"/>
       <c r="C18" s="5"/>
       <c r="D18" s="19"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="2:5" ht="27.95" customHeight="1" thickBot="1">
+    <row r="19" spans="2:5" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="57"/>
       <c r="C19" s="13"/>
       <c r="D19" s="58"/>
@@ -5784,31 +5895,31 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="5" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" customWidth="1"/>
+    <col min="2" max="5" width="8.86328125" customWidth="1"/>
+    <col min="8" max="8" width="9.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="54" customHeight="1" thickBot="1">
+    <row r="1" spans="2:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D1" s="105" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="15" thickTop="1" thickBot="1">
+    <row r="2" spans="2:11" ht="14.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="118" t="s">
         <v>282</v>
       </c>
       <c r="C2" s="119"/>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="166" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="162"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="168"/>
       <c r="J2" s="120" t="s">
         <v>284</v>
       </c>
@@ -5816,7 +5927,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.25" thickTop="1">
+    <row r="3" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B3" s="87" t="s">
         <v>288</v>
       </c>
@@ -5834,7 +5945,7 @@
       </c>
       <c r="K3" s="117"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="106" t="s">
         <v>289</v>
       </c>
@@ -5852,7 +5963,7 @@
       </c>
       <c r="K4" s="108"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="106" t="s">
         <v>290</v>
       </c>
@@ -5870,7 +5981,7 @@
       </c>
       <c r="K5" s="108"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="106" t="s">
         <v>291</v>
       </c>
@@ -5888,7 +5999,7 @@
       </c>
       <c r="K6" s="108"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="106" t="s">
         <v>292</v>
       </c>
@@ -5906,7 +6017,7 @@
       </c>
       <c r="K7" s="108"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="106" t="s">
         <v>293</v>
       </c>
@@ -5924,7 +6035,7 @@
       </c>
       <c r="K8" s="108"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="106" t="s">
         <v>294</v>
       </c>
@@ -5942,13 +6053,13 @@
       </c>
       <c r="K9" s="108"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="106" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="106" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -5960,7 +6071,7 @@
       </c>
       <c r="K10" s="108"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="106" t="s">
         <v>308</v>
       </c>
@@ -5978,7 +6089,7 @@
       </c>
       <c r="K11" s="108"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="106" t="s">
         <v>310</v>
       </c>
@@ -5996,7 +6107,7 @@
       </c>
       <c r="K12" s="108"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="106" t="s">
         <v>311</v>
       </c>
@@ -6014,7 +6125,7 @@
       </c>
       <c r="K13" s="108"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="106" t="s">
         <v>388</v>
       </c>
@@ -6032,7 +6143,7 @@
       </c>
       <c r="K14" s="108"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="106" t="s">
         <v>389</v>
       </c>
@@ -6050,7 +6161,7 @@
       </c>
       <c r="K15" s="108"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="106" t="s">
         <v>392</v>
       </c>
@@ -6068,7 +6179,7 @@
       </c>
       <c r="K16" s="108"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="106" t="s">
         <v>393</v>
       </c>
@@ -6086,7 +6197,7 @@
       </c>
       <c r="K17" s="108"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="106" t="s">
         <v>394</v>
       </c>
@@ -6104,7 +6215,7 @@
       </c>
       <c r="K18" s="108"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" s="106" t="s">
         <v>326</v>
       </c>
@@ -6122,7 +6233,7 @@
       </c>
       <c r="K19" s="108"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="106" t="s">
         <v>385</v>
       </c>
@@ -6140,7 +6251,7 @@
       </c>
       <c r="K20" s="108"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="106" t="s">
         <v>328</v>
       </c>
@@ -6158,7 +6269,7 @@
       </c>
       <c r="K21" s="108"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B22" s="106" t="s">
         <v>348</v>
       </c>
@@ -6176,7 +6287,7 @@
       </c>
       <c r="K22" s="108"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B23" s="106" t="s">
         <v>349</v>
       </c>
@@ -6194,7 +6305,7 @@
       </c>
       <c r="K23" s="108"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="106" t="s">
         <v>330</v>
       </c>
@@ -6212,7 +6323,7 @@
       </c>
       <c r="K24" s="108"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="106" t="s">
         <v>321</v>
       </c>
@@ -6230,7 +6341,7 @@
       </c>
       <c r="K25" s="108"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" s="106" t="s">
         <v>396</v>
       </c>
@@ -6248,7 +6359,7 @@
       </c>
       <c r="K26" s="108"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" s="106" t="s">
         <v>397</v>
       </c>
@@ -6266,7 +6377,7 @@
       </c>
       <c r="K27" s="108"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28" s="106" t="s">
         <v>398</v>
       </c>
@@ -6284,7 +6395,7 @@
       </c>
       <c r="K28" s="108"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" s="106" t="s">
         <v>399</v>
       </c>
@@ -6302,7 +6413,7 @@
       </c>
       <c r="K29" s="108"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" s="106" t="s">
         <v>400</v>
       </c>
@@ -6316,7 +6427,7 @@
       <c r="J30" s="111"/>
       <c r="K30" s="108"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B31" s="106" t="s">
         <v>401</v>
       </c>
@@ -6330,7 +6441,7 @@
       <c r="J31" s="111"/>
       <c r="K31" s="108"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32" s="106" t="s">
         <v>402</v>
       </c>
@@ -6344,7 +6455,7 @@
       <c r="J32" s="111"/>
       <c r="K32" s="108"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B33" s="106" t="s">
         <v>403</v>
       </c>
@@ -6358,7 +6469,7 @@
       <c r="J33" s="111"/>
       <c r="K33" s="108"/>
     </row>
-    <row r="34" spans="2:11" ht="14.25" thickBot="1">
+    <row r="34" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="112" t="s">
         <v>404</v>
       </c>
@@ -6372,17 +6483,17 @@
       <c r="J34" s="114"/>
       <c r="K34" s="115"/>
     </row>
-    <row r="35" spans="2:11" ht="14.25" thickTop="1"/>
-    <row r="37" spans="2:11" ht="14.25" thickBot="1">
+    <row r="35" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
-      <c r="C38" s="156" t="s">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C38" s="162" t="s">
         <v>305</v>
       </c>
-      <c r="D38" s="157"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="86"/>
@@ -6394,9 +6505,9 @@
       </c>
       <c r="J38" s="54"/>
     </row>
-    <row r="39" spans="2:11">
-      <c r="C39" s="158"/>
-      <c r="D39" s="159"/>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C39" s="164"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="32"/>
@@ -6404,7 +6515,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="56"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C40" s="85">
         <v>43297</v>
       </c>
@@ -6430,7 +6541,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C41" s="55"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -6440,7 +6551,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="56"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C42" s="85">
         <v>43304</v>
       </c>
@@ -6466,7 +6577,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C43" s="55"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -6476,7 +6587,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="56"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C44" s="85">
         <v>43311</v>
       </c>
@@ -6502,7 +6613,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C45" s="55"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
@@ -6512,7 +6623,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="56"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C46" s="85">
         <v>43318</v>
       </c>
@@ -6538,7 +6649,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C47" s="55"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -6548,7 +6659,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="56"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
       <c r="C48" s="85">
         <v>43325</v>
       </c>
@@ -6574,7 +6685,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="3:10">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C49" s="55"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -6584,7 +6695,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="56"/>
     </row>
-    <row r="50" spans="3:10">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C50" s="85">
         <v>43332</v>
       </c>
@@ -6610,7 +6721,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="51" spans="3:10" ht="14.25" thickBot="1">
+    <row r="51" spans="3:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C51" s="57"/>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
@@ -6640,15 +6751,15 @@
       <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.46484375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>376</v>
       </c>
@@ -6665,7 +6776,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>379</v>
       </c>
@@ -6678,7 +6789,7 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>379</v>
       </c>
@@ -6693,7 +6804,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
         <v>379</v>
       </c>
@@ -6704,7 +6815,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
         <v>379</v>
       </c>
@@ -6717,7 +6828,7 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>410</v>
       </c>
@@ -6730,7 +6841,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>410</v>
       </c>
@@ -6743,7 +6854,7 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>410</v>
       </c>
@@ -6756,287 +6867,287 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
         <v>410</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>435</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>436</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>440</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>442</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>469</v>
-      </c>
       <c r="C13" s="19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="19" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="19" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="19" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="163" t="s">
-        <v>489</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="122" t="s">
+        <v>487</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="163" t="s">
-        <v>491</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="122" t="s">
+        <v>489</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="163" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="122" t="s">
+        <v>504</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:5" ht="40.5">
-      <c r="A32" s="163" t="s">
+    <row r="32" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A32" s="122" t="s">
+        <v>490</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>492</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>494</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
     </row>
-    <row r="33" spans="1:5" ht="27">
+    <row r="33" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A33" s="19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>420</v>
@@ -7044,34 +7155,34 @@
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="163" t="s">
-        <v>501</v>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="122" t="s">
+        <v>499</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -7088,153 +7199,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="23.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>449</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>453</v>
-      </c>
       <c r="C2" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>482</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="B4" s="122" t="s">
         <v>462</v>
-      </c>
-      <c r="B4" s="163" t="s">
-        <v>464</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="F4" s="163" t="s">
-        <v>506</v>
+      <c r="F4" s="122" t="s">
+        <v>504</v>
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="163" t="s">
-        <v>503</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="122" t="s">
+        <v>501</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>495</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>497</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="163" t="s">
-        <v>491</v>
+      <c r="D7" s="122" t="s">
+        <v>489</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
-      <c r="B8" s="163" t="s">
-        <v>489</v>
+      <c r="B8" s="122" t="s">
+        <v>487</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -7242,10 +7353,10 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -7268,13 +7379,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -7285,7 +7396,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7296,62 +7407,62 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -7362,7 +7473,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -7385,27 +7496,27 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -7413,32 +7524,32 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>81</v>
       </c>
@@ -7466,13 +7577,13 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -7492,7 +7603,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -7509,7 +7620,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7526,7 +7637,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -7543,7 +7654,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -7560,7 +7671,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -7577,12 +7688,12 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -7612,13 +7723,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -7626,7 +7737,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -7634,47 +7745,47 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>5</v>
       </c>
@@ -7682,7 +7793,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>20</v>
       </c>
@@ -7690,7 +7801,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7698,7 +7809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>20</v>
       </c>
@@ -7706,7 +7817,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>50</v>
       </c>
@@ -7714,17 +7825,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>105</v>
       </c>
@@ -7744,127 +7855,127 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="125.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="27">
+    <row r="5" spans="2:2" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>117</v>
       </c>
@@ -7884,13 +7995,13 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.3984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>244</v>
       </c>
@@ -7901,7 +8012,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>223</v>
       </c>
@@ -7912,7 +8023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>224</v>
       </c>
@@ -7923,7 +8034,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>225</v>
       </c>
@@ -7934,7 +8045,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
         <v>226</v>
       </c>
@@ -7945,7 +8056,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
         <v>227</v>
       </c>
@@ -7956,7 +8067,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>228</v>
       </c>
@@ -7967,7 +8078,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27">
+    <row r="8" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>229</v>
       </c>
@@ -7978,7 +8089,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27">
+    <row r="9" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>230</v>
       </c>
@@ -7989,7 +8100,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27">
+    <row r="10" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
         <v>231</v>
       </c>
@@ -8000,7 +8111,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
         <v>233</v>
       </c>
@@ -8011,7 +8122,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27">
+    <row r="12" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
         <v>234</v>
       </c>
@@ -8022,7 +8133,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
         <v>235</v>
       </c>
@@ -8033,7 +8144,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
         <v>237</v>
       </c>
@@ -8044,7 +8155,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
         <v>238</v>
       </c>
@@ -8055,7 +8166,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>239</v>
       </c>
@@ -8066,7 +8177,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
         <v>240</v>
       </c>
@@ -8092,13 +8203,13 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="103" t="s">
         <v>22</v>
       </c>
@@ -8142,7 +8253,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>21</v>
       </c>
@@ -8192,7 +8303,7 @@
         <v>43303</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>20</v>
       </c>
@@ -8256,7 +8367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" customHeight="1">
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="97">
         <v>0.25</v>
       </c>
@@ -8292,7 +8403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1">
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="97">
         <v>0.375</v>
       </c>
@@ -8301,7 +8412,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="123" t="s">
+      <c r="G5" s="126" t="s">
         <v>373</v>
       </c>
       <c r="H5" s="98"/>
@@ -8326,7 +8437,7 @@
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
     </row>
-    <row r="6" spans="1:16" ht="30" customHeight="1">
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="97">
         <v>0.41666666666666669</v>
       </c>
@@ -8335,7 +8446,7 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="124"/>
+      <c r="G6" s="127"/>
       <c r="H6" s="98"/>
       <c r="I6" s="97">
         <v>0.41666666666666669</v>
@@ -8358,7 +8469,7 @@
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
     </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1">
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="97">
         <v>0.45833333333333331</v>
       </c>
@@ -8367,7 +8478,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="125"/>
+      <c r="G7" s="128"/>
       <c r="H7" s="19"/>
       <c r="I7" s="97">
         <v>0.45833333333333331</v>
@@ -8390,7 +8501,7 @@
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
     </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1">
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="97">
         <v>0.5</v>
       </c>
@@ -8412,7 +8523,7 @@
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
     </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1">
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="97">
         <v>0.54166666666666663</v>
       </c>
@@ -8434,7 +8545,7 @@
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
     </row>
-    <row r="10" spans="1:16" ht="30" customHeight="1">
+    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="97">
         <v>0.58333333333333337</v>
       </c>
@@ -8443,7 +8554,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="122" t="s">
+      <c r="G10" s="125" t="s">
         <v>307</v>
       </c>
       <c r="H10" s="19"/>
@@ -8468,7 +8579,7 @@
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
     </row>
-    <row r="11" spans="1:16" ht="30" customHeight="1">
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="97">
         <v>0.625</v>
       </c>
@@ -8477,7 +8588,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="122"/>
+      <c r="G11" s="125"/>
       <c r="H11" s="19"/>
       <c r="I11" s="97">
         <v>0.625</v>
@@ -8500,7 +8611,7 @@
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
     </row>
-    <row r="12" spans="1:16" ht="30" customHeight="1">
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="97">
         <v>0.66666666666666663</v>
       </c>
@@ -8534,7 +8645,7 @@
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
     </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1">
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="97">
         <v>0.70833333333333337</v>
       </c>
@@ -8556,7 +8667,7 @@
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
     </row>
-    <row r="14" spans="1:16" ht="30" customHeight="1">
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="97">
         <v>0.75</v>
       </c>
@@ -8590,7 +8701,7 @@
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
     </row>
-    <row r="15" spans="1:16" ht="30" customHeight="1">
+    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="97">
         <v>0.91666666666666663</v>
       </c>
@@ -8612,7 +8723,7 @@
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>21</v>
       </c>
@@ -8662,7 +8773,7 @@
         <v>43317</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
         <v>20</v>
       </c>
@@ -8726,7 +8837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="30" customHeight="1">
+    <row r="18" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="97">
         <v>0.25</v>
       </c>
@@ -8776,7 +8887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="30" customHeight="1">
+    <row r="19" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="97">
         <v>0.375</v>
       </c>
@@ -8822,7 +8933,7 @@
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
     </row>
-    <row r="20" spans="1:16" ht="30" customHeight="1">
+    <row r="20" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="97">
         <v>0.41666666666666669</v>
       </c>
@@ -8848,7 +8959,7 @@
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
     </row>
-    <row r="21" spans="1:16" ht="30" customHeight="1">
+    <row r="21" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="97">
         <v>0.45833333333333331</v>
       </c>
@@ -8874,7 +8985,7 @@
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
     </row>
-    <row r="22" spans="1:16" ht="30" customHeight="1">
+    <row r="22" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="97">
         <v>0.5</v>
       </c>
@@ -8896,7 +9007,7 @@
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
     </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1">
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="97">
         <v>0.54166666666666663</v>
       </c>
@@ -8918,7 +9029,7 @@
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1">
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="97">
         <v>0.58333333333333337</v>
       </c>
@@ -8944,7 +9055,7 @@
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
     </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1">
+    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="97">
         <v>0.625</v>
       </c>
@@ -8970,7 +9081,7 @@
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
     </row>
-    <row r="26" spans="1:16" ht="30" customHeight="1">
+    <row r="26" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="97">
         <v>0.66666666666666663</v>
       </c>
@@ -8996,7 +9107,7 @@
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
     </row>
-    <row r="27" spans="1:16" ht="30" customHeight="1">
+    <row r="27" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="97">
         <v>0.70833333333333337</v>
       </c>
@@ -9018,7 +9129,7 @@
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
     </row>
-    <row r="28" spans="1:16" ht="30" customHeight="1">
+    <row r="28" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="97">
         <v>0.75</v>
       </c>
@@ -9064,7 +9175,7 @@
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
     </row>
-    <row r="29" spans="1:16" ht="30" customHeight="1">
+    <row r="29" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="97">
         <v>0.91666666666666663</v>
       </c>
@@ -9086,7 +9197,7 @@
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="19" t="s">
         <v>21</v>
       </c>
@@ -9136,7 +9247,7 @@
         <v>43331</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" s="19" t="s">
         <v>20</v>
       </c>
@@ -9200,7 +9311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="30" customHeight="1">
+    <row r="32" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="97">
         <v>0.25</v>
       </c>
@@ -9250,7 +9361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="30" customHeight="1">
+    <row r="33" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="97">
         <v>0.375</v>
       </c>
@@ -9292,7 +9403,7 @@
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
     </row>
-    <row r="34" spans="1:16" ht="30" customHeight="1">
+    <row r="34" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="97">
         <v>0.41666666666666669</v>
       </c>
@@ -9334,7 +9445,7 @@
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
     </row>
-    <row r="35" spans="1:16" ht="30" customHeight="1">
+    <row r="35" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="97">
         <v>0.45833333333333331</v>
       </c>
@@ -9376,7 +9487,7 @@
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
     </row>
-    <row r="36" spans="1:16" ht="30" customHeight="1">
+    <row r="36" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="97">
         <v>0.5</v>
       </c>
@@ -9398,7 +9509,7 @@
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
     </row>
-    <row r="37" spans="1:16" ht="30" customHeight="1">
+    <row r="37" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="97">
         <v>0.54166666666666663</v>
       </c>
@@ -9420,7 +9531,7 @@
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
     </row>
-    <row r="38" spans="1:16" ht="30" customHeight="1">
+    <row r="38" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="97">
         <v>0.58333333333333337</v>
       </c>
@@ -9462,7 +9573,7 @@
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
     </row>
-    <row r="39" spans="1:16" ht="30" customHeight="1">
+    <row r="39" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="97">
         <v>0.625</v>
       </c>
@@ -9504,7 +9615,7 @@
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
     </row>
-    <row r="40" spans="1:16" ht="30" customHeight="1">
+    <row r="40" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="97">
         <v>0.66666666666666663</v>
       </c>
@@ -9546,7 +9657,7 @@
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
     </row>
-    <row r="41" spans="1:16" ht="30" customHeight="1">
+    <row r="41" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="97">
         <v>0.70833333333333337</v>
       </c>
@@ -9568,7 +9679,7 @@
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
     </row>
-    <row r="42" spans="1:16" ht="30" customHeight="1">
+    <row r="42" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="97">
         <v>0.75</v>
       </c>
@@ -9610,7 +9721,7 @@
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
     </row>
-    <row r="43" spans="1:16" ht="30" customHeight="1">
+    <row r="43" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="97">
         <v>0.91666666666666663</v>
       </c>
@@ -9632,7 +9743,7 @@
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" s="19"/>
       <c r="B44" s="96">
         <v>43332</v>
@@ -9678,7 +9789,7 @@
         <v>43345</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" s="19"/>
       <c r="B45" s="19">
         <f>WEEKDAY(B44,2)</f>
@@ -9738,7 +9849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="30" customHeight="1">
+    <row r="46" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="97">
         <v>0.25</v>
       </c>
@@ -9788,7 +9899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="30" customHeight="1">
+    <row r="47" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="97">
         <v>0.375</v>
       </c>
@@ -9830,7 +9941,7 @@
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
     </row>
-    <row r="48" spans="1:16" ht="30" customHeight="1">
+    <row r="48" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="97">
         <v>0.41666666666666669</v>
       </c>
@@ -9872,7 +9983,7 @@
       <c r="O48" s="19"/>
       <c r="P48" s="19"/>
     </row>
-    <row r="49" spans="1:16" ht="30" customHeight="1">
+    <row r="49" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="97">
         <v>0.45833333333333331</v>
       </c>
@@ -9914,7 +10025,7 @@
       <c r="O49" s="19"/>
       <c r="P49" s="19"/>
     </row>
-    <row r="50" spans="1:16" ht="30" customHeight="1">
+    <row r="50" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="97">
         <v>0.5</v>
       </c>
@@ -9936,7 +10047,7 @@
       <c r="O50" s="19"/>
       <c r="P50" s="19"/>
     </row>
-    <row r="51" spans="1:16" ht="30" customHeight="1">
+    <row r="51" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="97">
         <v>0.54166666666666663</v>
       </c>
@@ -9958,7 +10069,7 @@
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
     </row>
-    <row r="52" spans="1:16" ht="30" customHeight="1">
+    <row r="52" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="97">
         <v>0.58333333333333337</v>
       </c>
@@ -10000,7 +10111,7 @@
       <c r="O52" s="19"/>
       <c r="P52" s="19"/>
     </row>
-    <row r="53" spans="1:16" ht="30" customHeight="1">
+    <row r="53" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="97">
         <v>0.625</v>
       </c>
@@ -10042,7 +10153,7 @@
       <c r="O53" s="19"/>
       <c r="P53" s="19"/>
     </row>
-    <row r="54" spans="1:16" ht="30" customHeight="1">
+    <row r="54" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="97">
         <v>0.66666666666666663</v>
       </c>
@@ -10084,7 +10195,7 @@
       <c r="O54" s="19"/>
       <c r="P54" s="19"/>
     </row>
-    <row r="55" spans="1:16" ht="30" customHeight="1">
+    <row r="55" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="97">
         <v>0.70833333333333337</v>
       </c>
@@ -10106,7 +10217,7 @@
       <c r="O55" s="19"/>
       <c r="P55" s="19"/>
     </row>
-    <row r="56" spans="1:16" ht="30" customHeight="1">
+    <row r="56" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="97">
         <v>0.75</v>
       </c>
@@ -10148,7 +10259,7 @@
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
     </row>
-    <row r="57" spans="1:16" ht="30" customHeight="1">
+    <row r="57" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -10182,15 +10293,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="47.5" style="3" customWidth="1"/>
-    <col min="5" max="8" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="1.59765625" customWidth="1"/>
+    <col min="2" max="3" width="10.46484375" customWidth="1"/>
+    <col min="4" max="4" width="47.46484375" style="3" customWidth="1"/>
+    <col min="5" max="8" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="56.25" customHeight="1" thickBot="1">
+    <row r="1" spans="2:8" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="71" t="s">
         <v>346</v>
       </c>
@@ -10203,17 +10314,17 @@
       <c r="F1" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="134" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="131"/>
-    </row>
-    <row r="2" spans="2:8" ht="14.25" thickBot="1">
-      <c r="B2" s="126" t="s">
+      <c r="H1" s="134"/>
+    </row>
+    <row r="2" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="129" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="64" t="s">
         <v>172</v>
       </c>
@@ -10227,12 +10338,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="23.85" customHeight="1">
+    <row r="3" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="91">
         <v>1</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="33"/>
@@ -10240,12 +10351,12 @@
       <c r="G3" s="73"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="2:8" ht="23.85" customHeight="1">
+    <row r="4" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="92">
         <v>2</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="33"/>
@@ -10253,7 +10364,7 @@
       <c r="G4" s="73"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="2:8" ht="23.85" customHeight="1">
+    <row r="5" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="92">
         <v>3</v>
       </c>
@@ -10264,7 +10375,7 @@
       <c r="G5" s="73"/>
       <c r="H5" s="44"/>
     </row>
-    <row r="6" spans="2:8" ht="23.85" customHeight="1">
+    <row r="6" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="92">
         <v>4</v>
       </c>
@@ -10275,7 +10386,7 @@
       <c r="G6" s="73"/>
       <c r="H6" s="44"/>
     </row>
-    <row r="7" spans="2:8" ht="23.85" customHeight="1">
+    <row r="7" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93">
         <v>5</v>
       </c>
@@ -10286,7 +10397,7 @@
       <c r="G7" s="23"/>
       <c r="H7" s="56"/>
     </row>
-    <row r="8" spans="2:8" ht="23.85" customHeight="1">
+    <row r="8" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="93">
         <v>6</v>
       </c>
@@ -10297,7 +10408,7 @@
       <c r="G8" s="23"/>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="2:8" ht="23.85" customHeight="1">
+    <row r="9" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="93">
         <v>7</v>
       </c>
@@ -10308,7 +10419,7 @@
       <c r="G9" s="23"/>
       <c r="H9" s="56"/>
     </row>
-    <row r="10" spans="2:8" ht="23.85" customHeight="1">
+    <row r="10" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="93">
         <v>8</v>
       </c>
@@ -10319,7 +10430,7 @@
       <c r="G10" s="23"/>
       <c r="H10" s="56"/>
     </row>
-    <row r="11" spans="2:8" ht="23.85" customHeight="1">
+    <row r="11" spans="2:8" ht="23.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="93">
         <v>9</v>
       </c>
@@ -10330,7 +10441,7 @@
       <c r="G11" s="23"/>
       <c r="H11" s="56"/>
     </row>
-    <row r="12" spans="2:8" ht="23.85" customHeight="1" thickBot="1">
+    <row r="12" spans="2:8" ht="23.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="94">
         <v>10</v>
       </c>
@@ -10341,7 +10452,7 @@
       <c r="G12" s="69"/>
       <c r="H12" s="59"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="7"/>
@@ -10350,12 +10461,12 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="2:8" ht="14.25" thickBot="1">
+    <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="67" t="s">
         <v>175</v>
       </c>
@@ -10365,16 +10476,16 @@
       <c r="D15" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="129" t="s">
+      <c r="E15" s="132" t="s">
         <v>258</v>
       </c>
-      <c r="F15" s="130"/>
-      <c r="G15" s="129" t="s">
+      <c r="F15" s="133"/>
+      <c r="G15" s="132" t="s">
         <v>259</v>
       </c>
-      <c r="H15" s="132"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="H15" s="135"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="55" t="s">
         <v>222</v>
       </c>
@@ -10389,7 +10500,7 @@
       <c r="G16" s="23"/>
       <c r="H16" s="74"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B17" s="55" t="s">
         <v>224</v>
       </c>
@@ -10404,7 +10515,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="74"/>
     </row>
-    <row r="18" spans="2:8" ht="27">
+    <row r="18" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B18" s="55" t="s">
         <v>225</v>
       </c>
@@ -10419,7 +10530,7 @@
       <c r="G18" s="23"/>
       <c r="H18" s="74"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="55" t="s">
         <v>226</v>
       </c>
@@ -10434,7 +10545,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="74"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="55" t="s">
         <v>227</v>
       </c>
@@ -10449,7 +10560,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="74"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="55" t="s">
         <v>228</v>
       </c>
@@ -10464,7 +10575,7 @@
       <c r="G21" s="23"/>
       <c r="H21" s="74"/>
     </row>
-    <row r="22" spans="2:8" ht="27">
+    <row r="22" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B22" s="55" t="s">
         <v>229</v>
       </c>
@@ -10479,7 +10590,7 @@
       <c r="G22" s="23"/>
       <c r="H22" s="74"/>
     </row>
-    <row r="23" spans="2:8" ht="27">
+    <row r="23" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B23" s="55" t="s">
         <v>230</v>
       </c>
@@ -10494,7 +10605,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="74"/>
     </row>
-    <row r="24" spans="2:8" ht="40.5">
+    <row r="24" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
       <c r="B24" s="55" t="s">
         <v>231</v>
       </c>
@@ -10509,7 +10620,7 @@
       <c r="G24" s="23"/>
       <c r="H24" s="74"/>
     </row>
-    <row r="25" spans="2:8" ht="27">
+    <row r="25" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B25" s="55" t="s">
         <v>232</v>
       </c>
@@ -10524,7 +10635,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="74"/>
     </row>
-    <row r="26" spans="2:8" ht="27">
+    <row r="26" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B26" s="55" t="s">
         <v>234</v>
       </c>
@@ -10539,7 +10650,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="74"/>
     </row>
-    <row r="27" spans="2:8" ht="27">
+    <row r="27" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B27" s="55" t="s">
         <v>235</v>
       </c>
@@ -10554,7 +10665,7 @@
       <c r="G27" s="23"/>
       <c r="H27" s="74"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B28" s="55" t="s">
         <v>236</v>
       </c>
@@ -10569,7 +10680,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="74"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="55" t="s">
         <v>238</v>
       </c>
@@ -10584,7 +10695,7 @@
       <c r="G29" s="23"/>
       <c r="H29" s="74"/>
     </row>
-    <row r="30" spans="2:8" ht="27">
+    <row r="30" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B30" s="55" t="s">
         <v>239</v>
       </c>
@@ -10599,7 +10710,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="74"/>
     </row>
-    <row r="31" spans="2:8" ht="14.25" thickBot="1">
+    <row r="31" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="57" t="s">
         <v>240</v>
       </c>
@@ -10614,12 +10725,12 @@
       <c r="G31" s="69"/>
       <c r="H31" s="75"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="19" t="s">
         <v>316</v>
       </c>
@@ -10640,7 +10751,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="76"/>
@@ -10649,7 +10760,7 @@
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="76"/>
@@ -10658,7 +10769,7 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="76"/>
@@ -10667,7 +10778,7 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="76"/>
@@ -10676,7 +10787,7 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="76"/>
@@ -10685,7 +10796,7 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="76"/>
@@ -10694,7 +10805,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="76"/>
@@ -10703,7 +10814,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="76"/>
@@ -10712,7 +10823,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="19" t="s">
         <v>264</v>
       </c>
@@ -10723,7 +10834,7 @@
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="19" t="s">
         <v>263</v>
       </c>

--- a/暑假计划.xlsx
+++ b/暑假计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="贝妞愿望" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="12">'项目-锻炼'!$A$1:$I$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'项目-数学'!$A$1:$I$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'项目-英语'!$A$1:$I$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'项目-自我管理'!$A$1:$I$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'项目-自我管理'!$A$1:$I$35</definedName>
     <definedName name="时间表">假期大时间表!$A$2:$P$57</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="529">
   <si>
     <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2104,6 +2104,39 @@
   <si>
     <t>主动承担家务，可以酌情加分。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW_12</t>
+  </si>
+  <si>
+    <t>ZW_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养成严守时间的好习惯，不拖拉，不迟到；不浪费时间，做一件事情不开小差。</t>
+  </si>
+  <si>
+    <t>养成严守时间的好习惯，不拖拉，不迟到；不浪费时间，做一件事情不开小差。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW_10</t>
+  </si>
+  <si>
+    <t>每天早上及其他任何场合，自觉按时起床，自己定闹钟。不得因为自己赖床耽误大家时间。</t>
+  </si>
+  <si>
+    <t>ZW_11</t>
+  </si>
+  <si>
+    <t>主动承担家务，可以酌情加分。</t>
+  </si>
+  <si>
+    <t>SX_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做题应该尽量按顺序做，不会做的题不要轻易跳过，可以问。</t>
   </si>
 </sst>
 </file>
@@ -2205,7 +2238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -3111,6 +3144,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3120,7 +3164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3538,6 +3582,45 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3547,45 +3630,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3627,6 +3671,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3986,10 +4042,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="B1:H34"/>
+  <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4006,24 +4062,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="141" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="151"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4041,10 +4097,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="149" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="139"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4058,173 +4114,173 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="139" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="145" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="146"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="145" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="146"/>
     </row>
     <row r="7" spans="2:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="145" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="151"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="140"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="144"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="140"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="143" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="144"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="140"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="142" t="s">
+      <c r="D10" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="144"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="140"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="142" t="s">
+      <c r="D11" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="144"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="140"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="143" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="144"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="140"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="143" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="144"/>
     </row>
     <row r="14" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="140"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="142" t="s">
+      <c r="D14" s="143" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="144"/>
     </row>
     <row r="15" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="140"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="142" t="s">
+      <c r="D15" s="143" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="144"/>
     </row>
     <row r="16" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="140"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="142" t="s">
+      <c r="D16" s="143" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="144"/>
     </row>
     <row r="17" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="140"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="124" t="s">
         <v>513</v>
       </c>
@@ -4237,7 +4293,7 @@
       <c r="H17" s="138"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="140"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="124" t="s">
         <v>517</v>
       </c>
@@ -4250,209 +4306,239 @@
       <c r="H18" s="138"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="140"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="153"/>
+      <c r="C19" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="D19" s="169" t="s">
+        <v>522</v>
+      </c>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="171"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="153"/>
+      <c r="C20" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="142" t="s">
+      <c r="D20" s="143" t="s">
         <v>218</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="143"/>
-    </row>
-    <row r="20" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="140"/>
-      <c r="C20" s="24" t="s">
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="144"/>
+    </row>
+    <row r="21" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="153"/>
+      <c r="C21" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D20" s="142" t="s">
+      <c r="D21" s="143" t="s">
         <v>219</v>
       </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="143"/>
-    </row>
-    <row r="21" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="140"/>
-      <c r="C21" s="24" t="s">
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="144"/>
+    </row>
+    <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="153"/>
+      <c r="C22" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="142" t="s">
+      <c r="D22" s="143" t="s">
         <v>191</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="143"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="140"/>
-      <c r="C22" s="24" t="s">
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="144"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="153"/>
+      <c r="C23" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="142" t="s">
+      <c r="D23" s="143" t="s">
         <v>242</v>
       </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="143"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="140"/>
-      <c r="C23" s="24" t="s">
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="144"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="153"/>
+      <c r="C24" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D23" s="142" t="s">
+      <c r="D24" s="143" t="s">
         <v>220</v>
       </c>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="143"/>
-    </row>
-    <row r="24" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="140"/>
-      <c r="C24" s="24" t="s">
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="144"/>
+    </row>
+    <row r="25" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="153"/>
+      <c r="C25" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D24" s="142" t="s">
+      <c r="D25" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="143"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="140"/>
-      <c r="C25" s="24" t="s">
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="144"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="153"/>
+      <c r="C26" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D25" s="142" t="s">
+      <c r="D26" s="143" t="s">
         <v>342</v>
       </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="143"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="141"/>
-      <c r="C26" s="123" t="s">
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="144"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="154"/>
+      <c r="C27" s="123" t="s">
         <v>511</v>
       </c>
-      <c r="D26" s="136" t="s">
+      <c r="D27" s="136" t="s">
         <v>512</v>
       </c>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="138"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="39" t="s">
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="138"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C28" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="80"/>
-      <c r="C28" s="26" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="80"/>
+      <c r="C29" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="51"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="41"/>
-      <c r="C29" s="30" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="41"/>
+      <c r="C30" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="42"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="39" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="42"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C31" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="43" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="41"/>
-      <c r="C31" s="30" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="41"/>
+      <c r="C32" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="44"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="39" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="44"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B33" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C33" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="43" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="43" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="45"/>
-      <c r="C33" s="46" t="s">
+    <row r="34" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="45"/>
+      <c r="C34" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
         <v>272</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>273</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>274</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="B7:B27"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="B1:H1"/>
@@ -4464,22 +4550,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="B7:B26"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4510,24 +4580,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="141" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="147" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="151"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4545,10 +4615,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="149" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="139"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4562,53 +4632,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="139" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="145" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="146"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="146"/>
     </row>
     <row r="7" spans="2:8" ht="190.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="145" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="151"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -4747,24 +4817,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="141" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="151"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4782,10 +4852,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="149" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="139"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4799,53 +4869,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="139" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="145" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="146"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="145" t="s">
         <v>425</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="146"/>
     </row>
     <row r="7" spans="2:8" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="145" t="s">
         <v>516</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="151"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -4984,24 +5054,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="141" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="151"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5019,10 +5089,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="149" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="139"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5036,53 +5106,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="139" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="145" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="146"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="145" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="146"/>
     </row>
     <row r="7" spans="2:8" ht="180.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="145" t="s">
         <v>515</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="151"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -5219,24 +5289,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="141" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="147" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="151"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5254,10 +5324,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="149" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="139"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5271,43 +5341,43 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="139" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="140"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="145" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="146"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="145" t="s">
         <v>333</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="146"/>
     </row>
     <row r="7" spans="2:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="139"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="155" t="s">
         <v>375</v>
       </c>
@@ -5318,7 +5388,7 @@
       <c r="H7" s="157"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="140"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="21" t="s">
         <v>370</v>
       </c>
@@ -5333,7 +5403,7 @@
       <c r="H8" s="100"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="140"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="21" t="s">
         <v>353</v>
       </c>
@@ -5348,7 +5418,7 @@
       <c r="H9" s="100"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="140"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="21" t="s">
         <v>353</v>
       </c>
@@ -5363,7 +5433,7 @@
       <c r="H10" s="100"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="140"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="21" t="s">
         <v>353</v>
       </c>
@@ -5378,7 +5448,7 @@
       <c r="H11" s="100"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="140"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="21" t="s">
         <v>353</v>
       </c>
@@ -5393,7 +5463,7 @@
       <c r="H12" s="100"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="140"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="21" t="s">
         <v>354</v>
       </c>
@@ -5408,7 +5478,7 @@
       <c r="H13" s="100"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="140"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="21" t="s">
         <v>354</v>
       </c>
@@ -5423,7 +5493,7 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="140"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="21" t="s">
         <v>354</v>
       </c>
@@ -5438,7 +5508,7 @@
       <c r="H15" s="100"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="140"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="21" t="s">
         <v>354</v>
       </c>
@@ -5453,7 +5523,7 @@
       <c r="H16" s="100"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="140"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="21" t="s">
         <v>354</v>
       </c>
@@ -5468,7 +5538,7 @@
       <c r="H17" s="100"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="140"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="21" t="s">
         <v>355</v>
       </c>
@@ -5483,7 +5553,7 @@
       <c r="H18" s="100"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="140"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="21" t="s">
         <v>355</v>
       </c>
@@ -5498,7 +5568,7 @@
       <c r="H19" s="100"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="140"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="21" t="s">
         <v>355</v>
       </c>
@@ -5513,7 +5583,7 @@
       <c r="H20" s="100"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="140"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="21" t="s">
         <v>355</v>
       </c>
@@ -5528,7 +5598,7 @@
       <c r="H21" s="100"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="140"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="21" t="s">
         <v>355</v>
       </c>
@@ -5543,7 +5613,7 @@
       <c r="H22" s="100"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="141"/>
+      <c r="B23" s="154"/>
       <c r="C23" s="87"/>
       <c r="D23" s="101"/>
       <c r="E23" s="101"/>
@@ -10287,10 +10357,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="B1:H45"/>
+  <dimension ref="B1:H49"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10622,28 +10692,28 @@
     </row>
     <row r="25" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B25" s="55" t="s">
-        <v>232</v>
+        <v>523</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>184</v>
+        <v>524</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
       <c r="G25" s="23"/>
       <c r="H25" s="74"/>
     </row>
-    <row r="26" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="55" t="s">
-        <v>234</v>
+        <v>525</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>192</v>
+        <v>526</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24"/>
@@ -10652,13 +10722,13 @@
     </row>
     <row r="27" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B27" s="55" t="s">
-        <v>235</v>
+        <v>519</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>190</v>
+        <v>521</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="24"/>
@@ -10667,28 +10737,28 @@
     </row>
     <row r="28" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B28" s="55" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="24"/>
       <c r="G28" s="23"/>
       <c r="H28" s="74"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B29" s="55" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="24"/>
@@ -10697,95 +10767,119 @@
     </row>
     <row r="30" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B30" s="55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24"/>
       <c r="G30" s="23"/>
       <c r="H30" s="74"/>
     </row>
-    <row r="31" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="57" t="s">
+    <row r="31" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B31" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="74"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="74"/>
+    </row>
+    <row r="33" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B33" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="74"/>
+    </row>
+    <row r="34" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C34" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="75"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
+      <c r="E34" s="172"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="40"/>
+    </row>
+    <row r="35" spans="2:8" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="57" t="s">
+        <v>527</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="E35" s="69"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="75"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B34" s="19" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="76" t="s">
+      <c r="D38" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="19" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G38" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H38" s="19" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B39" s="19"/>
@@ -10823,27 +10917,63 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+    </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="19" t="s">
-        <v>264</v>
-      </c>
+      <c r="B44" s="19"/>
       <c r="C44" s="19"/>
-      <c r="F44" s="19" t="s">
-        <v>265</v>
-      </c>
+      <c r="D44" s="76"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B45" s="19" t="s">
-        <v>263</v>
-      </c>
+      <c r="B45" s="19"/>
       <c r="C45" s="19"/>
-      <c r="F45" s="19" t="s">
-        <v>177</v>
-      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B48" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="F48" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="F49" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/暑假计划.xlsx
+++ b/暑假计划.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="538">
   <si>
     <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1746,10 +1746,6 @@
   </si>
   <si>
     <t>运动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>练字10个汉字，20遍数字，26 X 2个英文字母，反应游戏X2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2137,6 +2133,42 @@
   </si>
   <si>
     <t>做题应该尽量按顺序做，不会做的题不要轻易跳过，可以问。</t>
+  </si>
+  <si>
+    <t>ZW_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自查表应记录完成，包括日期，姓名，自查，签名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日检查时，当日计划未完成扣分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日自查表应主导提交打分，当日未打分，次日补填需扣一分。次日以后不进行补分，按照不合格计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日自查表应妥善统一保存，不得遗漏，否则遗漏日按不合格计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW_14</t>
+  </si>
+  <si>
+    <t>ZW_15</t>
+  </si>
+  <si>
+    <t>ZW_16</t>
+  </si>
+  <si>
+    <t>ZW_17</t>
+  </si>
+  <si>
+    <t>每天晚上除非有特殊监督员认可的原因，必须在10点半以前上床睡觉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3540,6 +3572,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3574,6 +3609,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3582,6 +3626,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3594,12 +3653,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3621,15 +3674,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3671,18 +3715,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4062,24 +4094,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="150" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="148"/>
+      <c r="D2" s="155"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4097,10 +4129,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="156" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="139"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4114,313 +4146,313 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="140"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="149"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="152" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="146"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="153"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="152" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="146"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="153"/>
     </row>
     <row r="7" spans="2:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="143" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="152" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="151"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="158"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="153"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="144"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="147"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="153"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="146" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="144"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="153"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="143" t="s">
+      <c r="D10" s="146" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="144"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="147"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="153"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="146" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="144"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="153"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="146" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="144"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="147"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="153"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="143" t="s">
+      <c r="D13" s="146" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="144"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="147"/>
     </row>
     <row r="14" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="153"/>
+      <c r="B14" s="144"/>
       <c r="C14" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="143" t="s">
+      <c r="D14" s="146" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="144"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="147"/>
     </row>
     <row r="15" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="153"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="143" t="s">
+      <c r="D15" s="146" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="144"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
     </row>
     <row r="16" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="153"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="143" t="s">
+      <c r="D16" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="144"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
     </row>
     <row r="17" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="153"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="124" t="s">
+        <v>512</v>
+      </c>
+      <c r="D17" s="140" t="s">
         <v>513</v>
       </c>
-      <c r="D17" s="136" t="s">
-        <v>514</v>
-      </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="138"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="153"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="124" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18" s="140" t="s">
         <v>517</v>
       </c>
-      <c r="D18" s="136" t="s">
-        <v>518</v>
-      </c>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="138"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="142"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="153"/>
+      <c r="B19" s="144"/>
       <c r="C19" s="124" t="s">
-        <v>520</v>
-      </c>
-      <c r="D19" s="169" t="s">
-        <v>522</v>
-      </c>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171"/>
+        <v>519</v>
+      </c>
+      <c r="D19" s="137" t="s">
+        <v>521</v>
+      </c>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="139"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="153"/>
+      <c r="B20" s="144"/>
       <c r="C20" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="146" t="s">
         <v>218</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="144"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="147"/>
     </row>
     <row r="21" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="153"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="146" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="144"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="147"/>
     </row>
     <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="153"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="D22" s="143" t="s">
+      <c r="D22" s="146" t="s">
         <v>191</v>
       </c>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="144"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="147"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="153"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D23" s="143" t="s">
+      <c r="D23" s="146" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="144"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="147"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="153"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="143" t="s">
+      <c r="D24" s="146" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="144"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="147"/>
     </row>
     <row r="25" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="153"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="143" t="s">
+      <c r="D25" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="144"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="147"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="153"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="143" t="s">
+      <c r="D26" s="146" t="s">
         <v>342</v>
       </c>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="144"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="147"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="154"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="123" t="s">
+        <v>510</v>
+      </c>
+      <c r="D27" s="140" t="s">
         <v>511</v>
       </c>
-      <c r="D27" s="136" t="s">
-        <v>512</v>
-      </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="138"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="142"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="39" t="s">
@@ -4495,7 +4527,7 @@
       <c r="F33" s="28"/>
       <c r="G33" s="29"/>
       <c r="H33" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4522,6 +4554,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="B7:B27"/>
@@ -4538,18 +4582,6 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4580,24 +4612,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="150" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="154" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="148"/>
+      <c r="D2" s="155"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4615,10 +4647,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="156" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="139"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4632,53 +4664,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="140"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="149"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="152" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="146"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="153"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="152" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="146"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="153"/>
     </row>
     <row r="7" spans="2:8" ht="190.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="152" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="151"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="158"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -4753,7 +4785,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
       <c r="H13" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4817,24 +4849,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="150" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="148"/>
+      <c r="D2" s="155"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4852,10 +4884,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="156" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="139"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4869,53 +4901,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="140"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="149"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="152" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="146"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="153"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="152" t="s">
         <v>425</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="146"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="153"/>
     </row>
     <row r="7" spans="2:8" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="145" t="s">
-        <v>516</v>
-      </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="151"/>
+      <c r="C7" s="152" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="158"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -4990,7 +5022,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
       <c r="H13" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -5054,24 +5086,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="150" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="148"/>
+      <c r="D2" s="155"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5089,10 +5121,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="156" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="139"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5106,53 +5138,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="140"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="149"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="152" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="146"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="153"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="152" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="146"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="153"/>
     </row>
     <row r="7" spans="2:8" ht="180.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="145" t="s">
-        <v>515</v>
-      </c>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="151"/>
+      <c r="C7" s="152" t="s">
+        <v>514</v>
+      </c>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="158"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -5225,7 +5257,7 @@
       <c r="F13" s="28"/>
       <c r="G13" s="29"/>
       <c r="H13" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -5289,24 +5321,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="150" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="154" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="148"/>
+      <c r="D2" s="155"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5324,10 +5356,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="156" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="139"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5341,54 +5373,54 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="140"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="149"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="152" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="146"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="153"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="152" t="s">
         <v>333</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="146"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="153"/>
     </row>
     <row r="7" spans="2:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="152"/>
-      <c r="C7" s="155" t="s">
+      <c r="B7" s="143"/>
+      <c r="C7" s="159" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="157"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="161"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="153"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="21" t="s">
         <v>370</v>
       </c>
@@ -5403,7 +5435,7 @@
       <c r="H8" s="100"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="153"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="21" t="s">
         <v>353</v>
       </c>
@@ -5418,7 +5450,7 @@
       <c r="H9" s="100"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="153"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="21" t="s">
         <v>353</v>
       </c>
@@ -5433,7 +5465,7 @@
       <c r="H10" s="100"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="153"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="21" t="s">
         <v>353</v>
       </c>
@@ -5448,7 +5480,7 @@
       <c r="H11" s="100"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="153"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="21" t="s">
         <v>353</v>
       </c>
@@ -5463,7 +5495,7 @@
       <c r="H12" s="100"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="153"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="21" t="s">
         <v>354</v>
       </c>
@@ -5478,7 +5510,7 @@
       <c r="H13" s="100"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="153"/>
+      <c r="B14" s="144"/>
       <c r="C14" s="21" t="s">
         <v>354</v>
       </c>
@@ -5493,7 +5525,7 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="153"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="21" t="s">
         <v>354</v>
       </c>
@@ -5508,7 +5540,7 @@
       <c r="H15" s="100"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="153"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="21" t="s">
         <v>354</v>
       </c>
@@ -5523,7 +5555,7 @@
       <c r="H16" s="100"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="153"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="21" t="s">
         <v>354</v>
       </c>
@@ -5538,7 +5570,7 @@
       <c r="H17" s="100"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="153"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="21" t="s">
         <v>355</v>
       </c>
@@ -5553,7 +5585,7 @@
       <c r="H18" s="100"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="153"/>
+      <c r="B19" s="144"/>
       <c r="C19" s="21" t="s">
         <v>355</v>
       </c>
@@ -5568,7 +5600,7 @@
       <c r="H19" s="100"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="153"/>
+      <c r="B20" s="144"/>
       <c r="C20" s="21" t="s">
         <v>355</v>
       </c>
@@ -5583,7 +5615,7 @@
       <c r="H20" s="100"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="153"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="21" t="s">
         <v>355</v>
       </c>
@@ -5598,7 +5630,7 @@
       <c r="H21" s="100"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="153"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="21" t="s">
         <v>355</v>
       </c>
@@ -5613,7 +5645,7 @@
       <c r="H22" s="100"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="154"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="87"/>
       <c r="D23" s="101"/>
       <c r="E23" s="101"/>
@@ -5697,7 +5729,7 @@
       <c r="F29" s="28"/>
       <c r="G29" s="29"/>
       <c r="H29" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -5773,7 +5805,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="164" t="s">
         <v>179</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -5787,7 +5819,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B4" s="161"/>
+      <c r="B4" s="165"/>
       <c r="C4" s="5" t="s">
         <v>278</v>
       </c>
@@ -5799,7 +5831,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B5" s="161"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="5" t="s">
         <v>126</v>
       </c>
@@ -5811,7 +5843,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="161"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="5" t="s">
         <v>127</v>
       </c>
@@ -5819,7 +5851,7 @@
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="159"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="13" t="s">
         <v>133</v>
       </c>
@@ -5827,7 +5859,7 @@
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="162" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -5841,7 +5873,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B9" s="161"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="5" t="s">
         <v>129</v>
       </c>
@@ -5853,7 +5885,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="161"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="5" t="s">
         <v>132</v>
       </c>
@@ -5865,7 +5897,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="161"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="5" t="s">
         <v>131</v>
       </c>
@@ -5877,7 +5909,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="159"/>
+      <c r="B12" s="163"/>
       <c r="C12" s="13" t="s">
         <v>144</v>
       </c>
@@ -5889,7 +5921,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="162" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -5903,7 +5935,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="159"/>
+      <c r="B14" s="163"/>
       <c r="C14" s="13" t="s">
         <v>153</v>
       </c>
@@ -5982,14 +6014,14 @@
         <v>282</v>
       </c>
       <c r="C2" s="119"/>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="170" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="168"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
       <c r="J2" s="120" t="s">
         <v>284</v>
       </c>
@@ -6125,11 +6157,11 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="106" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="106" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -6560,10 +6592,10 @@
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C38" s="162" t="s">
+      <c r="C38" s="166" t="s">
         <v>305</v>
       </c>
-      <c r="D38" s="163"/>
+      <c r="D38" s="167"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="86"/>
@@ -6576,8 +6608,8 @@
       <c r="J38" s="54"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C39" s="164"/>
-      <c r="D39" s="165"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="32"/>
@@ -6942,59 +6974,59 @@
         <v>410</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>434</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>435</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>441</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>442</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -7002,10 +7034,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -7013,10 +7045,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -7024,10 +7056,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -7035,10 +7067,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
@@ -7046,88 +7078,88 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>483</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>484</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="C23" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="C24" s="19" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -7135,10 +7167,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -7146,10 +7178,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -7157,10 +7189,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -7168,10 +7200,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="122" t="s">
+        <v>486</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>487</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>488</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -7179,10 +7211,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="122" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -7190,10 +7222,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="122" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
@@ -7201,23 +7233,23 @@
     </row>
     <row r="32" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A32" s="122" t="s">
+        <v>489</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="19" t="s">
         <v>491</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>492</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A33" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>420</v>
@@ -7227,10 +7259,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
@@ -7238,10 +7270,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -7249,10 +7281,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="122" t="s">
+        <v>498</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -7281,118 +7313,118 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>447</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>456</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B4" s="122" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F4" s="122" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="122" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -7400,14 +7432,14 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="122" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -7415,7 +7447,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="B8" s="122" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -7426,7 +7458,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -8482,7 +8514,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="126" t="s">
+      <c r="G5" s="127" t="s">
         <v>373</v>
       </c>
       <c r="H5" s="98"/>
@@ -8516,7 +8548,7 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="127"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="98"/>
       <c r="I6" s="97">
         <v>0.41666666666666669</v>
@@ -8548,7 +8580,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="128"/>
+      <c r="G7" s="129"/>
       <c r="H7" s="19"/>
       <c r="I7" s="97">
         <v>0.45833333333333331</v>
@@ -8624,7 +8656,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="126" t="s">
         <v>307</v>
       </c>
       <c r="H10" s="19"/>
@@ -8658,7 +8690,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="125"/>
+      <c r="G11" s="126"/>
       <c r="H11" s="19"/>
       <c r="I11" s="97">
         <v>0.625</v>
@@ -10357,18 +10389,19 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="B1:H49"/>
+  <dimension ref="B1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="108" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.59765625" customWidth="1"/>
     <col min="2" max="3" width="10.46484375" customWidth="1"/>
-    <col min="4" max="4" width="47.46484375" style="3" customWidth="1"/>
-    <col min="5" max="8" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="7.59765625" customWidth="1"/>
+    <col min="7" max="8" width="8.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10384,17 +10417,17 @@
       <c r="F1" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="135" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="134"/>
+      <c r="H1" s="135"/>
     </row>
     <row r="2" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="130" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
       <c r="E2" s="64" t="s">
         <v>172</v>
       </c>
@@ -10425,9 +10458,7 @@
       <c r="B4" s="92">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>433</v>
-      </c>
+      <c r="C4" s="31"/>
       <c r="D4" s="63"/>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
@@ -10546,14 +10577,14 @@
       <c r="D15" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="132" t="s">
+      <c r="E15" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="F15" s="133"/>
-      <c r="G15" s="132" t="s">
+      <c r="F15" s="134"/>
+      <c r="G15" s="133" t="s">
         <v>259</v>
       </c>
-      <c r="H15" s="135"/>
+      <c r="H15" s="136"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="55" t="s">
@@ -10585,7 +10616,7 @@
       <c r="G17" s="23"/>
       <c r="H17" s="74"/>
     </row>
-    <row r="18" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="55" t="s">
         <v>225</v>
       </c>
@@ -10675,7 +10706,7 @@
       <c r="G23" s="23"/>
       <c r="H23" s="74"/>
     </row>
-    <row r="24" spans="2:8" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B24" s="55" t="s">
         <v>231</v>
       </c>
@@ -10692,13 +10723,13 @@
     </row>
     <row r="25" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B25" s="55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
@@ -10707,13 +10738,13 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24"/>
@@ -10722,43 +10753,43 @@
     </row>
     <row r="27" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B27" s="55" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="24"/>
       <c r="G27" s="23"/>
       <c r="H27" s="74"/>
     </row>
-    <row r="28" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="55" t="s">
-        <v>232</v>
+        <v>528</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>184</v>
+        <v>529</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="24"/>
       <c r="G28" s="23"/>
       <c r="H28" s="74"/>
     </row>
-    <row r="29" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="55" t="s">
-        <v>234</v>
+        <v>533</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>192</v>
+        <v>530</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="24"/>
@@ -10767,43 +10798,43 @@
     </row>
     <row r="30" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B30" s="55" t="s">
-        <v>235</v>
+        <v>534</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>190</v>
+        <v>531</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24"/>
       <c r="G30" s="23"/>
       <c r="H30" s="74"/>
     </row>
-    <row r="31" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="55" t="s">
-        <v>236</v>
+        <v>535</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>241</v>
+        <v>532</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
       <c r="G31" s="23"/>
       <c r="H31" s="74"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B32" s="55" t="s">
-        <v>238</v>
+        <v>536</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>194</v>
+        <v>537</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24"/>
@@ -10812,119 +10843,149 @@
     </row>
     <row r="33" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B33" s="55" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="24"/>
       <c r="G33" s="23"/>
       <c r="H33" s="74"/>
     </row>
-    <row r="34" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="57" t="s">
+    <row r="34" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B34" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="74"/>
+    </row>
+    <row r="35" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B35" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="74"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="74"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="74"/>
+    </row>
+    <row r="38" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B38" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="74"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C39" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D39" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E34" s="172"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="40"/>
-    </row>
-    <row r="35" spans="2:8" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="57" t="s">
+      <c r="E39" s="125"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="40"/>
+    </row>
+    <row r="40" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="57" t="s">
+        <v>526</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C35" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="E35" s="69"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="75"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
+      <c r="E40" s="69"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="75"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B38" s="19" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C43" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="D38" s="76" t="s">
+      <c r="D43" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="19" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G43" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H43" s="19" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B44" s="19"/>
@@ -10953,27 +11014,72 @@
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
     </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+    </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B48" s="19" t="s">
-        <v>264</v>
-      </c>
+      <c r="B48" s="19"/>
       <c r="C48" s="19"/>
-      <c r="F48" s="19" t="s">
-        <v>265</v>
-      </c>
+      <c r="D48" s="76"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="19" t="s">
-        <v>263</v>
-      </c>
+      <c r="B49" s="19"/>
       <c r="C49" s="19"/>
-      <c r="F49" s="19" t="s">
-        <v>177</v>
-      </c>
+      <c r="D49" s="76"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B53" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="F53" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B54" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="F54" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/暑假计划.xlsx
+++ b/暑假计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="贝妞愿望" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="550">
   <si>
     <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1911,10 +1911,6 @@
   </si>
   <si>
     <t>数学3</t>
-  </si>
-  <si>
-    <t>第四周打卡（100,102,108，111）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数学4</t>
@@ -2170,6 +2166,58 @@
     <t>每天晚上除非有特殊监督员认可的原因，必须在10点半以前上床睡觉。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>第四周打卡（100,102,108,111）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学3-OLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学4-OLD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四周打卡（111,115,117,119,121,123,124,130,132,134）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三周打卡（91,92,95,96,108+33,34,47,48）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZW_18</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我管理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有电子产品（手机，PAD，电脑）的使用必须提前通知监督员，使用完毕以后交还监督员。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史1(未完成)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理1(未完成)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2178,7 +2226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2261,13 +2309,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="74">
@@ -3188,15 +3257,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3575,6 +3647,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3608,6 +3686,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3617,15 +3743,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3635,45 +3752,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3716,9 +3794,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3732,6 +3832,131 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>68262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2519363</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>131514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="8458200"/>
+          <a:ext cx="9763126" cy="2158752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>138113</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>90488</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="图片 2"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$A$1:$G$9" spid="_x0000_s18439"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2076450" y="2376488"/>
+              <a:ext cx="7196138" cy="1590675"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4094,24 +4319,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="146" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="155"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4129,10 +4354,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="148"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4146,313 +4371,313 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="149"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="148" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="153"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="148" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="153"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="149"/>
     </row>
     <row r="7" spans="2:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="158" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="148" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="158"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="144"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="146" t="s">
+      <c r="D8" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="147"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="140"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="144"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="139" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="147"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="140"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="144"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="146" t="s">
+      <c r="D10" s="139" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="147"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="140"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="144"/>
+      <c r="B11" s="159"/>
       <c r="C11" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="139" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="147"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="140"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="144"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="139" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="147"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="144"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="146" t="s">
+      <c r="D13" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="140"/>
     </row>
     <row r="14" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="144"/>
+      <c r="B14" s="159"/>
       <c r="C14" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="139" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="147"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="140"/>
     </row>
     <row r="15" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="144"/>
+      <c r="B15" s="159"/>
       <c r="C15" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="146" t="s">
+      <c r="D15" s="139" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="147"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="140"/>
     </row>
     <row r="16" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="144"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="146" t="s">
+      <c r="D16" s="139" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="140"/>
     </row>
     <row r="17" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="144"/>
+      <c r="B17" s="159"/>
       <c r="C17" s="124" t="s">
+        <v>511</v>
+      </c>
+      <c r="D17" s="141" t="s">
         <v>512</v>
       </c>
-      <c r="D17" s="140" t="s">
-        <v>513</v>
-      </c>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="143"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="144"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="124" t="s">
+        <v>515</v>
+      </c>
+      <c r="D18" s="141" t="s">
         <v>516</v>
       </c>
-      <c r="D18" s="140" t="s">
-        <v>517</v>
-      </c>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="143"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="144"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="D19" s="137" t="s">
-        <v>521</v>
-      </c>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="139"/>
+        <v>518</v>
+      </c>
+      <c r="D19" s="155" t="s">
+        <v>520</v>
+      </c>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="157"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="144"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="146" t="s">
+      <c r="D20" s="139" t="s">
         <v>218</v>
       </c>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="147"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="140"/>
     </row>
     <row r="21" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="144"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="146" t="s">
+      <c r="D21" s="139" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="147"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
     </row>
     <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="144"/>
+      <c r="B22" s="159"/>
       <c r="C22" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="D22" s="146" t="s">
+      <c r="D22" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="147"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="140"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="144"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D23" s="146" t="s">
+      <c r="D23" s="139" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="147"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="144"/>
+      <c r="B24" s="159"/>
       <c r="C24" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="139" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="147"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="140"/>
     </row>
     <row r="25" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="144"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="146" t="s">
+      <c r="D25" s="139" t="s">
         <v>221</v>
       </c>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="140"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="144"/>
+      <c r="B26" s="159"/>
       <c r="C26" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="146" t="s">
+      <c r="D26" s="139" t="s">
         <v>342</v>
       </c>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="147"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="140"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="145"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="123" t="s">
+        <v>509</v>
+      </c>
+      <c r="D27" s="141" t="s">
         <v>510</v>
       </c>
-      <c r="D27" s="140" t="s">
-        <v>511</v>
-      </c>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="143"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="39" t="s">
@@ -4554,18 +4779,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C7:H7"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="B7:B27"/>
@@ -4582,6 +4795,18 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4612,24 +4837,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="146" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="150" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="155"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4647,10 +4872,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="148"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4664,53 +4889,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="149"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="148" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="153"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="148" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="153"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="149"/>
     </row>
     <row r="7" spans="2:8" ht="190.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="148" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="158"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -4849,24 +5074,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="155"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4884,10 +5109,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="148"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4901,53 +5126,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="149"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="148" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="153"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="148" t="s">
         <v>425</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="153"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="149"/>
     </row>
     <row r="7" spans="2:8" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="152" t="s">
-        <v>515</v>
-      </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="158"/>
+      <c r="C7" s="148" t="s">
+        <v>514</v>
+      </c>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -5086,24 +5311,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="146" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="155"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5121,10 +5346,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="148"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5138,53 +5363,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="149"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="148" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="153"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="148" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="153"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="149"/>
     </row>
     <row r="7" spans="2:8" ht="180.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="152" t="s">
-        <v>514</v>
-      </c>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="158"/>
+      <c r="C7" s="148" t="s">
+        <v>513</v>
+      </c>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="154"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -5321,24 +5546,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="146" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="155"/>
+      <c r="D2" s="151"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5356,10 +5581,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="148"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5373,54 +5598,54 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="149"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="145"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="148" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="153"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="149"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="148" t="s">
         <v>333</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="153"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="149"/>
     </row>
     <row r="7" spans="2:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="143"/>
-      <c r="C7" s="159" t="s">
+      <c r="B7" s="158"/>
+      <c r="C7" s="161" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="161"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="163"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="144"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="21" t="s">
         <v>370</v>
       </c>
@@ -5435,7 +5660,7 @@
       <c r="H8" s="100"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="144"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="21" t="s">
         <v>353</v>
       </c>
@@ -5450,7 +5675,7 @@
       <c r="H9" s="100"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="144"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="21" t="s">
         <v>353</v>
       </c>
@@ -5465,7 +5690,7 @@
       <c r="H10" s="100"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="144"/>
+      <c r="B11" s="159"/>
       <c r="C11" s="21" t="s">
         <v>353</v>
       </c>
@@ -5480,7 +5705,7 @@
       <c r="H11" s="100"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="144"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="21" t="s">
         <v>353</v>
       </c>
@@ -5495,7 +5720,7 @@
       <c r="H12" s="100"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="144"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="21" t="s">
         <v>354</v>
       </c>
@@ -5510,7 +5735,7 @@
       <c r="H13" s="100"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="144"/>
+      <c r="B14" s="159"/>
       <c r="C14" s="21" t="s">
         <v>354</v>
       </c>
@@ -5525,7 +5750,7 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="144"/>
+      <c r="B15" s="159"/>
       <c r="C15" s="21" t="s">
         <v>354</v>
       </c>
@@ -5540,7 +5765,7 @@
       <c r="H15" s="100"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="144"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="21" t="s">
         <v>354</v>
       </c>
@@ -5555,7 +5780,7 @@
       <c r="H16" s="100"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="144"/>
+      <c r="B17" s="159"/>
       <c r="C17" s="21" t="s">
         <v>354</v>
       </c>
@@ -5570,7 +5795,7 @@
       <c r="H17" s="100"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="144"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="21" t="s">
         <v>355</v>
       </c>
@@ -5585,7 +5810,7 @@
       <c r="H18" s="100"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="144"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="21" t="s">
         <v>355</v>
       </c>
@@ -5600,7 +5825,7 @@
       <c r="H19" s="100"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="144"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="21" t="s">
         <v>355</v>
       </c>
@@ -5615,7 +5840,7 @@
       <c r="H20" s="100"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="144"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="21" t="s">
         <v>355</v>
       </c>
@@ -5630,7 +5855,7 @@
       <c r="H21" s="100"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="144"/>
+      <c r="B22" s="159"/>
       <c r="C22" s="21" t="s">
         <v>355</v>
       </c>
@@ -5645,7 +5870,7 @@
       <c r="H22" s="100"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="145"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="87"/>
       <c r="D23" s="101"/>
       <c r="E23" s="101"/>
@@ -5805,7 +6030,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="166" t="s">
         <v>179</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -5819,7 +6044,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B4" s="165"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="5" t="s">
         <v>278</v>
       </c>
@@ -5831,7 +6056,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B5" s="165"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="5" t="s">
         <v>126</v>
       </c>
@@ -5843,7 +6068,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="165"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="5" t="s">
         <v>127</v>
       </c>
@@ -5851,7 +6076,7 @@
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="163"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="13" t="s">
         <v>133</v>
       </c>
@@ -5859,7 +6084,7 @@
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="164" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -5873,7 +6098,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B9" s="165"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="5" t="s">
         <v>129</v>
       </c>
@@ -5885,7 +6110,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="165"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="5" t="s">
         <v>132</v>
       </c>
@@ -5897,7 +6122,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="165"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="5" t="s">
         <v>131</v>
       </c>
@@ -5909,7 +6134,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="163"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="13" t="s">
         <v>144</v>
       </c>
@@ -5921,7 +6146,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B13" s="162" t="s">
+      <c r="B13" s="164" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -5935,7 +6160,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="163"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="13" t="s">
         <v>153</v>
       </c>
@@ -6014,14 +6239,14 @@
         <v>282</v>
       </c>
       <c r="C2" s="119"/>
-      <c r="D2" s="170" t="s">
+      <c r="D2" s="172" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="172"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="174"/>
       <c r="J2" s="120" t="s">
         <v>284</v>
       </c>
@@ -6592,10 +6817,10 @@
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C38" s="166" t="s">
+      <c r="C38" s="168" t="s">
         <v>305</v>
       </c>
-      <c r="D38" s="167"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="86"/>
@@ -6608,8 +6833,8 @@
       <c r="J38" s="54"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C39" s="168"/>
-      <c r="D39" s="169"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="171"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="32"/>
@@ -6845,18 +7070,18 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A2:E36"/>
+  <dimension ref="A2:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.46484375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.9296875" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.86328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7081,10 +7306,10 @@
         <v>470</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>482</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>483</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -7097,91 +7322,91 @@
         <v>471</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="126" t="s">
+        <v>539</v>
+      </c>
+      <c r="B21" s="127" t="s">
         <v>473</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>483</v>
+      <c r="C21" s="126" t="s">
+        <v>482</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>483</v>
+      <c r="A22" s="126" t="s">
+        <v>540</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>537</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>482</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>439</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="19" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>439</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="C25" s="19"/>
+        <v>477</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>439</v>
+      </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C26" s="19"/>
+        <v>478</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>439</v>
+      </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="19" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -7189,32 +7414,32 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>508</v>
+        <v>483</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>505</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="122" t="s">
-        <v>486</v>
+      <c r="A29" s="19" t="s">
+        <v>500</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="122" t="s">
-        <v>488</v>
+      <c r="A30" s="19" t="s">
+        <v>501</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
@@ -7222,87 +7447,111 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="122" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="122" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>491</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
     </row>
-    <row r="33" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A33" s="19" t="s">
-        <v>492</v>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="122" t="s">
+        <v>502</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>420</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="19" t="s">
-        <v>494</v>
+    <row r="34" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
+      <c r="A34" s="122" t="s">
+        <v>488</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="C34" s="19"/>
+        <v>489</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>490</v>
+      </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A35" s="19" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C35" s="19"/>
+        <v>492</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>420</v>
+      </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="122" t="s">
-        <v>498</v>
+      <c r="A36" s="19" t="s">
+        <v>493</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="122" t="s">
+        <v>497</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7342,7 +7591,7 @@
         <v>450</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>477</v>
+        <v>546</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>450</v>
@@ -7351,7 +7600,7 @@
         <v>450</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G2" s="19"/>
     </row>
@@ -7363,7 +7612,7 @@
         <v>454</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>465</v>
@@ -7372,7 +7621,7 @@
         <v>455</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G3" s="19"/>
     </row>
@@ -7391,7 +7640,7 @@
         <v>474</v>
       </c>
       <c r="F4" s="122" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G4" s="19"/>
     </row>
@@ -7404,27 +7653,27 @@
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="122" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>463</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -7436,10 +7685,10 @@
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="122" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -7447,10 +7696,12 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="B8" s="122" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>548</v>
+      </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -7458,10 +7709,12 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>549</v>
+      </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -7469,6 +7722,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8514,7 +8770,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="127" t="s">
+      <c r="G5" s="129" t="s">
         <v>373</v>
       </c>
       <c r="H5" s="98"/>
@@ -8548,7 +8804,7 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="128"/>
+      <c r="G6" s="130"/>
       <c r="H6" s="98"/>
       <c r="I6" s="97">
         <v>0.41666666666666669</v>
@@ -8580,7 +8836,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="129"/>
+      <c r="G7" s="131"/>
       <c r="H7" s="19"/>
       <c r="I7" s="97">
         <v>0.45833333333333331</v>
@@ -8656,7 +8912,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="128" t="s">
         <v>307</v>
       </c>
       <c r="H10" s="19"/>
@@ -8690,7 +8946,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="126"/>
+      <c r="G11" s="128"/>
       <c r="H11" s="19"/>
       <c r="I11" s="97">
         <v>0.625</v>
@@ -10389,10 +10645,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="B1:H54"/>
+  <dimension ref="B1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="108" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A32" zoomScale="108" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10417,17 +10673,17 @@
       <c r="F1" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="137" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="135"/>
+      <c r="H1" s="137"/>
     </row>
     <row r="2" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="132" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="134"/>
       <c r="E2" s="64" t="s">
         <v>172</v>
       </c>
@@ -10577,14 +10833,14 @@
       <c r="D15" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="133" t="s">
+      <c r="E15" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="F15" s="134"/>
-      <c r="G15" s="133" t="s">
+      <c r="F15" s="136"/>
+      <c r="G15" s="135" t="s">
         <v>259</v>
       </c>
-      <c r="H15" s="136"/>
+      <c r="H15" s="138"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="55" t="s">
@@ -10723,13 +10979,13 @@
     </row>
     <row r="25" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B25" s="55" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
@@ -10738,13 +10994,13 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="55" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24"/>
@@ -10753,13 +11009,13 @@
     </row>
     <row r="27" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B27" s="55" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="24"/>
@@ -10768,13 +11024,13 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="55" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="24"/>
@@ -10783,13 +11039,13 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="55" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="24"/>
@@ -10798,13 +11054,13 @@
     </row>
     <row r="30" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B30" s="55" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24"/>
@@ -10813,13 +11069,13 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="55" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
@@ -10828,43 +11084,43 @@
     </row>
     <row r="32" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B32" s="55" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24"/>
       <c r="G32" s="23"/>
       <c r="H32" s="74"/>
     </row>
-    <row r="33" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B33" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="74"/>
+    <row r="33" spans="2:8" s="175" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B33" s="176" t="s">
+        <v>543</v>
+      </c>
+      <c r="C33" s="177" t="s">
+        <v>544</v>
+      </c>
+      <c r="D33" s="178" t="s">
+        <v>545</v>
+      </c>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="181"/>
     </row>
     <row r="34" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B34" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>180</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="24"/>
@@ -10873,28 +11129,28 @@
     </row>
     <row r="35" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B35" s="55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>180</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="24"/>
       <c r="G35" s="23"/>
       <c r="H35" s="74"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B36" s="55" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="E36" s="23"/>
       <c r="F36" s="24"/>
@@ -10903,98 +11159,104 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B37" s="55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>186</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="24"/>
       <c r="G37" s="23"/>
       <c r="H37" s="74"/>
     </row>
-    <row r="38" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B38" s="55" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>186</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="24"/>
       <c r="G38" s="23"/>
       <c r="H38" s="74"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B39" s="55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>186</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="74"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E39" s="125"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="40"/>
-    </row>
-    <row r="40" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="57" t="s">
+      <c r="E40" s="125"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="40"/>
+    </row>
+    <row r="41" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="57" t="s">
+        <v>525</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="C40" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>527</v>
-      </c>
-      <c r="E40" s="69"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="75"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
+      <c r="E41" s="69"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="75"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B43" s="19" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B44" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C44" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="D43" s="76" t="s">
+      <c r="D44" s="76" t="s">
         <v>317</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="19" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G44" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="H43" s="19" t="s">
+      <c r="H44" s="19" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B45" s="19"/>
@@ -11059,27 +11321,36 @@
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B53" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="F53" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C54" s="19"/>
       <c r="F54" s="19" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B55" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="F55" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/暑假计划.xlsx
+++ b/暑假计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" firstSheet="6" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="贝妞愿望" sheetId="5" r:id="rId1"/>
@@ -3653,6 +3653,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3686,21 +3707,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3734,24 +3773,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3793,27 +3814,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3918,7 +3918,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$1:$G$9" spid="_x0000_s18439"/>
+                  <a14:cameraTool cellRange="$A$1:$G$9" spid="_x0000_s18441"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4319,24 +4319,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="159" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="151"/>
+      <c r="D2" s="164"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4354,10 +4354,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="165" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4371,313 +4371,313 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="158"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="161" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="162"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="161" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="162"/>
     </row>
     <row r="7" spans="2:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="161" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="167"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="159"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="155" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="140"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="156"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="159"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="D9" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="156"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="159"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="139" t="s">
+      <c r="D10" s="155" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="140"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="156"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="159"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="139" t="s">
+      <c r="D11" s="155" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="140"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="159"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="139" t="s">
+      <c r="D12" s="155" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="140"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="156"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="159"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="139" t="s">
+      <c r="D13" s="155" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="140"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="156"/>
     </row>
     <row r="14" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="159"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="140"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="156"/>
     </row>
     <row r="15" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="159"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="139" t="s">
+      <c r="D15" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="140"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="156"/>
     </row>
     <row r="16" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="159"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="140"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="156"/>
     </row>
     <row r="17" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="159"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="124" t="s">
         <v>511</v>
       </c>
-      <c r="D17" s="141" t="s">
+      <c r="D17" s="149" t="s">
         <v>512</v>
       </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="143"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="151"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="159"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="124" t="s">
         <v>515</v>
       </c>
-      <c r="D18" s="141" t="s">
+      <c r="D18" s="149" t="s">
         <v>516</v>
       </c>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="143"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="151"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="159"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="124" t="s">
         <v>518</v>
       </c>
-      <c r="D19" s="155" t="s">
+      <c r="D19" s="146" t="s">
         <v>520</v>
       </c>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="157"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="148"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="159"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="139" t="s">
+      <c r="D20" s="155" t="s">
         <v>218</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="140"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="156"/>
     </row>
     <row r="21" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="159"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="139" t="s">
+      <c r="D21" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="156"/>
     </row>
     <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="159"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="D22" s="139" t="s">
+      <c r="D22" s="155" t="s">
         <v>191</v>
       </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="140"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="156"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="159"/>
+      <c r="B23" s="153"/>
       <c r="C23" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D23" s="139" t="s">
+      <c r="D23" s="155" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="156"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="159"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="155" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="140"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="156"/>
     </row>
     <row r="25" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="159"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="139" t="s">
+      <c r="D25" s="155" t="s">
         <v>221</v>
       </c>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="140"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="156"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="159"/>
+      <c r="B26" s="153"/>
       <c r="C26" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="139" t="s">
+      <c r="D26" s="155" t="s">
         <v>342</v>
       </c>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="140"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="156"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="160"/>
+      <c r="B27" s="154"/>
       <c r="C27" s="123" t="s">
         <v>509</v>
       </c>
-      <c r="D27" s="141" t="s">
+      <c r="D27" s="149" t="s">
         <v>510</v>
       </c>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="143"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="151"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="39" t="s">
@@ -4779,6 +4779,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="B7:B27"/>
@@ -4795,18 +4807,6 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4837,24 +4837,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="163" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="151"/>
+      <c r="D2" s="164"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4872,10 +4872,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="165" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4889,53 +4889,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="158"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="161" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="162"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="161" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="162"/>
     </row>
     <row r="7" spans="2:8" ht="190.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="161" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="167"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -5074,24 +5074,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="159" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="151"/>
+      <c r="D2" s="164"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5109,10 +5109,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="165" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5126,53 +5126,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="158"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="161" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="162"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="161" t="s">
         <v>425</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="162"/>
     </row>
     <row r="7" spans="2:8" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="161" t="s">
         <v>514</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="167"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -5311,24 +5311,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="159" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="151"/>
+      <c r="D2" s="164"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5346,10 +5346,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="165" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5363,53 +5363,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="158"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="161" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="162"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="161" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="162"/>
     </row>
     <row r="7" spans="2:8" ht="180.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="161" t="s">
         <v>513</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="154"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="167"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -5546,24 +5546,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="159" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="163" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="151"/>
+      <c r="D2" s="164"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5581,10 +5581,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="165" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="144"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5598,54 +5598,54 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="157" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="145"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="158"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="161" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="149"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="162"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="161" t="s">
         <v>333</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="149"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="162"/>
     </row>
     <row r="7" spans="2:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="158"/>
-      <c r="C7" s="161" t="s">
+      <c r="B7" s="152"/>
+      <c r="C7" s="168" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="163"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="170"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="159"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="21" t="s">
         <v>370</v>
       </c>
@@ -5660,7 +5660,7 @@
       <c r="H8" s="100"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="159"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="21" t="s">
         <v>353</v>
       </c>
@@ -5675,7 +5675,7 @@
       <c r="H9" s="100"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="159"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="21" t="s">
         <v>353</v>
       </c>
@@ -5690,7 +5690,7 @@
       <c r="H10" s="100"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="159"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="21" t="s">
         <v>353</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="H11" s="100"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="159"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="21" t="s">
         <v>353</v>
       </c>
@@ -5720,7 +5720,7 @@
       <c r="H12" s="100"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="159"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="21" t="s">
         <v>354</v>
       </c>
@@ -5735,7 +5735,7 @@
       <c r="H13" s="100"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="159"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="21" t="s">
         <v>354</v>
       </c>
@@ -5750,7 +5750,7 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="159"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="21" t="s">
         <v>354</v>
       </c>
@@ -5765,7 +5765,7 @@
       <c r="H15" s="100"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="159"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="21" t="s">
         <v>354</v>
       </c>
@@ -5780,7 +5780,7 @@
       <c r="H16" s="100"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="159"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="21" t="s">
         <v>354</v>
       </c>
@@ -5795,7 +5795,7 @@
       <c r="H17" s="100"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="159"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="21" t="s">
         <v>355</v>
       </c>
@@ -5810,7 +5810,7 @@
       <c r="H18" s="100"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="159"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="21" t="s">
         <v>355</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="H19" s="100"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="159"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="21" t="s">
         <v>355</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="H20" s="100"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="159"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="21" t="s">
         <v>355</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="H21" s="100"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="159"/>
+      <c r="B22" s="153"/>
       <c r="C22" s="21" t="s">
         <v>355</v>
       </c>
@@ -5870,7 +5870,7 @@
       <c r="H22" s="100"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="160"/>
+      <c r="B23" s="154"/>
       <c r="C23" s="87"/>
       <c r="D23" s="101"/>
       <c r="E23" s="101"/>
@@ -6030,7 +6030,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="173" t="s">
         <v>179</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -6044,7 +6044,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B4" s="167"/>
+      <c r="B4" s="174"/>
       <c r="C4" s="5" t="s">
         <v>278</v>
       </c>
@@ -6056,7 +6056,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B5" s="167"/>
+      <c r="B5" s="174"/>
       <c r="C5" s="5" t="s">
         <v>126</v>
       </c>
@@ -6068,7 +6068,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="167"/>
+      <c r="B6" s="174"/>
       <c r="C6" s="5" t="s">
         <v>127</v>
       </c>
@@ -6076,7 +6076,7 @@
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="165"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="13" t="s">
         <v>133</v>
       </c>
@@ -6084,7 +6084,7 @@
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="171" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -6098,7 +6098,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B9" s="167"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="5" t="s">
         <v>129</v>
       </c>
@@ -6110,7 +6110,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="167"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="5" t="s">
         <v>132</v>
       </c>
@@ -6122,7 +6122,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="167"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="5" t="s">
         <v>131</v>
       </c>
@@ -6134,7 +6134,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="165"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="13" t="s">
         <v>144</v>
       </c>
@@ -6146,7 +6146,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="171" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -6160,7 +6160,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="165"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="13" t="s">
         <v>153</v>
       </c>
@@ -6239,14 +6239,14 @@
         <v>282</v>
       </c>
       <c r="C2" s="119"/>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="179" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="174"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="181"/>
       <c r="J2" s="120" t="s">
         <v>284</v>
       </c>
@@ -6817,10 +6817,10 @@
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C38" s="168" t="s">
+      <c r="C38" s="175" t="s">
         <v>305</v>
       </c>
-      <c r="D38" s="169"/>
+      <c r="D38" s="176"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="86"/>
@@ -6833,8 +6833,8 @@
       <c r="J38" s="54"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C39" s="170"/>
-      <c r="D39" s="171"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="178"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="32"/>
@@ -7070,12 +7070,12 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7542,7 +7542,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8770,7 +8769,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="136" t="s">
         <v>373</v>
       </c>
       <c r="H5" s="98"/>
@@ -8804,7 +8803,7 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="130"/>
+      <c r="G6" s="137"/>
       <c r="H6" s="98"/>
       <c r="I6" s="97">
         <v>0.41666666666666669</v>
@@ -8836,7 +8835,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="131"/>
+      <c r="G7" s="138"/>
       <c r="H7" s="19"/>
       <c r="I7" s="97">
         <v>0.45833333333333331</v>
@@ -8912,7 +8911,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="128" t="s">
+      <c r="G10" s="135" t="s">
         <v>307</v>
       </c>
       <c r="H10" s="19"/>
@@ -8946,7 +8945,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="128"/>
+      <c r="G11" s="135"/>
       <c r="H11" s="19"/>
       <c r="I11" s="97">
         <v>0.625</v>
@@ -10673,17 +10672,17 @@
       <c r="F1" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="137" t="s">
+      <c r="G1" s="144" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="137"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="139" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="141"/>
       <c r="E2" s="64" t="s">
         <v>172</v>
       </c>
@@ -10833,14 +10832,14 @@
       <c r="D15" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="135" t="s">
+      <c r="E15" s="142" t="s">
         <v>258</v>
       </c>
-      <c r="F15" s="136"/>
-      <c r="G15" s="135" t="s">
+      <c r="F15" s="143"/>
+      <c r="G15" s="142" t="s">
         <v>259</v>
       </c>
-      <c r="H15" s="138"/>
+      <c r="H15" s="145"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="55" t="s">
@@ -11097,20 +11096,20 @@
       <c r="G32" s="23"/>
       <c r="H32" s="74"/>
     </row>
-    <row r="33" spans="2:8" s="175" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B33" s="176" t="s">
+    <row r="33" spans="2:8" s="128" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B33" s="129" t="s">
         <v>543</v>
       </c>
-      <c r="C33" s="177" t="s">
+      <c r="C33" s="130" t="s">
         <v>544</v>
       </c>
-      <c r="D33" s="178" t="s">
+      <c r="D33" s="131" t="s">
         <v>545</v>
       </c>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="181"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="132"/>
+      <c r="H33" s="134"/>
     </row>
     <row r="34" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B34" s="55" t="s">

--- a/暑假计划.xlsx
+++ b/暑假计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9135" tabRatio="736" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="贝妞愿望" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="581">
   <si>
     <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1904,10 +1904,6 @@
   </si>
   <si>
     <t>数学2</t>
-  </si>
-  <si>
-    <t>第三周打卡（91,92,95,96,99）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数学3</t>
@@ -2167,19 +2163,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第四周打卡（100,102,108,111）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数学3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学3-OLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学4-OLD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2216,6 +2200,146 @@
   </si>
   <si>
     <t>地理1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30%-40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成2本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补个记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治时事PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学P72,73,79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一篇The Twins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学P47,48,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两篇The Twins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学P66,67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学错题本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预习物理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2325,7 +2449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2334,7 +2458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3268,7 +3404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3647,173 +3783,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3840,13 +3979,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>68262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2519363</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>131514</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3901,15 +4040,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>61913</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>138113</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>90488</xdr:rowOff>
+          <xdr:colOff>557213</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>66676</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -3918,7 +4057,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$1:$G$9" spid="_x0000_s18441"/>
+                  <a14:cameraTool cellRange="$A$1:$G$9" spid="_x0000_s18451"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3932,7 +4071,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="2076450" y="2376488"/>
+              <a:off x="2495550" y="3409951"/>
               <a:ext cx="7196138" cy="1590675"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4319,24 +4458,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="151" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="164"/>
+      <c r="D2" s="156"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4354,10 +4493,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="157"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4371,313 +4510,313 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="149" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="158"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="150"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="153" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="162"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="153" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="162"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="2:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="163" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="153" t="s">
         <v>341</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="167"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="159"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="153"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="155" t="s">
+      <c r="D8" s="144" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="156"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="145"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="153"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="155" t="s">
+      <c r="D9" s="144" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="156"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="153"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="144" t="s">
         <v>215</v>
       </c>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="156"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="145"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="153"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="155" t="s">
+      <c r="D11" s="144" t="s">
         <v>279</v>
       </c>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="156"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="145"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="153"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="D12" s="144" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="156"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="145"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="153"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="155" t="s">
+      <c r="D13" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
     </row>
     <row r="14" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="153"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="155" t="s">
+      <c r="D14" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="156"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="145"/>
     </row>
     <row r="15" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="153"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="155" t="s">
+      <c r="D15" s="144" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="156"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145"/>
     </row>
     <row r="16" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="153"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="155" t="s">
+      <c r="D16" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="156"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="145"/>
     </row>
     <row r="17" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="153"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="124" t="s">
+        <v>510</v>
+      </c>
+      <c r="D17" s="146" t="s">
         <v>511</v>
       </c>
-      <c r="D17" s="149" t="s">
-        <v>512</v>
-      </c>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="148"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="153"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="124" t="s">
+        <v>514</v>
+      </c>
+      <c r="D18" s="146" t="s">
         <v>515</v>
       </c>
-      <c r="D18" s="149" t="s">
-        <v>516</v>
-      </c>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="151"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="148"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="153"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="124" t="s">
-        <v>518</v>
-      </c>
-      <c r="D19" s="146" t="s">
-        <v>520</v>
-      </c>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="148"/>
+        <v>517</v>
+      </c>
+      <c r="D19" s="160" t="s">
+        <v>519</v>
+      </c>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="162"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="153"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="D20" s="155" t="s">
+      <c r="D20" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="156"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="145"/>
     </row>
     <row r="21" spans="2:8" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="153"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="155" t="s">
+      <c r="D21" s="144" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="156"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="145"/>
     </row>
     <row r="22" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="153"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="D22" s="155" t="s">
+      <c r="D22" s="144" t="s">
         <v>191</v>
       </c>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="156"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="145"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="153"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D23" s="155" t="s">
+      <c r="D23" s="144" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="156"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="145"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="153"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="155" t="s">
+      <c r="D24" s="144" t="s">
         <v>220</v>
       </c>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="156"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
     </row>
     <row r="25" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="153"/>
+      <c r="B25" s="164"/>
       <c r="C25" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="155" t="s">
+      <c r="D25" s="144" t="s">
         <v>221</v>
       </c>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="156"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="145"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="153"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="155" t="s">
+      <c r="D26" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="156"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="145"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="154"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="123" t="s">
+        <v>508</v>
+      </c>
+      <c r="D27" s="146" t="s">
         <v>509</v>
       </c>
-      <c r="D27" s="149" t="s">
-        <v>510</v>
-      </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="151"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="148"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="39" t="s">
@@ -4779,18 +4918,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C7:H7"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="B7:B27"/>
@@ -4807,6 +4934,18 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4837,24 +4976,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="151" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="155" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="164"/>
+      <c r="D2" s="156"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -4872,10 +5011,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="157"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -4889,53 +5028,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="149" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="158"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="150"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="153" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="162"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="153" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="162"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="2:8" ht="190.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="153" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="167"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="159"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -5074,24 +5213,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="151" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="164"/>
+      <c r="D2" s="156"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5109,10 +5248,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="157"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5126,53 +5265,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="149" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="158"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="150"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="153" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="162"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="153" t="s">
         <v>425</v>
       </c>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="162"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="2:8" ht="150" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="161" t="s">
-        <v>514</v>
-      </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="167"/>
+      <c r="C7" s="153" t="s">
+        <v>513</v>
+      </c>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="159"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -5311,24 +5450,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="151" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="164"/>
+      <c r="D2" s="156"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5346,10 +5485,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="157"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5363,53 +5502,53 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="149" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="158"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="150"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="153" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="162"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="153" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="162"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="2:8" ht="180.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="161" t="s">
-        <v>513</v>
-      </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="167"/>
+      <c r="C7" s="153" t="s">
+        <v>512</v>
+      </c>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="159"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="39" t="s">
@@ -5546,24 +5685,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="45.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="151" t="s">
         <v>414</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="155" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="164"/>
+      <c r="D2" s="156"/>
       <c r="E2" s="53" t="s">
         <v>204</v>
       </c>
@@ -5581,10 +5720,10 @@
       <c r="B3" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="157"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="82"/>
       <c r="F3" s="78" t="s">
         <v>277</v>
@@ -5598,54 +5737,54 @@
       <c r="B4" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="149" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="158"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="150"/>
     </row>
     <row r="5" spans="2:8" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="153" t="s">
         <v>332</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="162"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154"/>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="153" t="s">
         <v>333</v>
       </c>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="162"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="154"/>
     </row>
     <row r="7" spans="2:8" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="152"/>
-      <c r="C7" s="168" t="s">
+      <c r="B7" s="163"/>
+      <c r="C7" s="166" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="169"/>
-      <c r="H7" s="170"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="168"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="153"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="21" t="s">
         <v>370</v>
       </c>
@@ -5660,7 +5799,7 @@
       <c r="H8" s="100"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="153"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="21" t="s">
         <v>353</v>
       </c>
@@ -5675,7 +5814,7 @@
       <c r="H9" s="100"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="153"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="21" t="s">
         <v>353</v>
       </c>
@@ -5690,7 +5829,7 @@
       <c r="H10" s="100"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="153"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="21" t="s">
         <v>353</v>
       </c>
@@ -5705,7 +5844,7 @@
       <c r="H11" s="100"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="153"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="21" t="s">
         <v>353</v>
       </c>
@@ -5720,7 +5859,7 @@
       <c r="H12" s="100"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="153"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="21" t="s">
         <v>354</v>
       </c>
@@ -5735,7 +5874,7 @@
       <c r="H13" s="100"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="153"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="21" t="s">
         <v>354</v>
       </c>
@@ -5750,7 +5889,7 @@
       <c r="H14" s="100"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="153"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="21" t="s">
         <v>354</v>
       </c>
@@ -5765,7 +5904,7 @@
       <c r="H15" s="100"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="153"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="21" t="s">
         <v>354</v>
       </c>
@@ -5780,7 +5919,7 @@
       <c r="H16" s="100"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="153"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="21" t="s">
         <v>354</v>
       </c>
@@ -5795,7 +5934,7 @@
       <c r="H17" s="100"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="153"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="21" t="s">
         <v>355</v>
       </c>
@@ -5810,7 +5949,7 @@
       <c r="H18" s="100"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="153"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="21" t="s">
         <v>355</v>
       </c>
@@ -5825,7 +5964,7 @@
       <c r="H19" s="100"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="153"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="21" t="s">
         <v>355</v>
       </c>
@@ -5840,7 +5979,7 @@
       <c r="H20" s="100"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="153"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="21" t="s">
         <v>355</v>
       </c>
@@ -5855,7 +5994,7 @@
       <c r="H21" s="100"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="153"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="21" t="s">
         <v>355</v>
       </c>
@@ -5870,7 +6009,7 @@
       <c r="H22" s="100"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="154"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="87"/>
       <c r="D23" s="101"/>
       <c r="E23" s="101"/>
@@ -6030,7 +6169,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="171" t="s">
         <v>179</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -6044,7 +6183,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B4" s="174"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="5" t="s">
         <v>278</v>
       </c>
@@ -6056,7 +6195,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B5" s="174"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="5" t="s">
         <v>126</v>
       </c>
@@ -6068,7 +6207,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="174"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="5" t="s">
         <v>127</v>
       </c>
@@ -6076,7 +6215,7 @@
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="172"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="13" t="s">
         <v>133</v>
       </c>
@@ -6084,7 +6223,7 @@
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="169" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -6098,7 +6237,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B9" s="174"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="5" t="s">
         <v>129</v>
       </c>
@@ -6110,7 +6249,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="174"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="5" t="s">
         <v>132</v>
       </c>
@@ -6122,7 +6261,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="174"/>
+      <c r="B11" s="172"/>
       <c r="C11" s="5" t="s">
         <v>131</v>
       </c>
@@ -6134,7 +6273,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="42" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="172"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="13" t="s">
         <v>144</v>
       </c>
@@ -6146,7 +6285,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="169" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -6160,7 +6299,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="172"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="13" t="s">
         <v>153</v>
       </c>
@@ -6239,14 +6378,14 @@
         <v>282</v>
       </c>
       <c r="C2" s="119"/>
-      <c r="D2" s="179" t="s">
+      <c r="D2" s="177" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="181"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="179"/>
       <c r="J2" s="120" t="s">
         <v>284</v>
       </c>
@@ -6817,10 +6956,10 @@
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C38" s="175" t="s">
+      <c r="C38" s="173" t="s">
         <v>305</v>
       </c>
-      <c r="D38" s="176"/>
+      <c r="D38" s="174"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="86"/>
@@ -6833,8 +6972,8 @@
       <c r="J38" s="54"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C39" s="177"/>
-      <c r="D39" s="178"/>
+      <c r="C39" s="175"/>
+      <c r="D39" s="176"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
       <c r="G39" s="32"/>
@@ -7072,10 +7211,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
-  <dimension ref="A2:E38"/>
+  <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView view="pageBreakPreview" zoomScale="92" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7215,10 +7354,14 @@
         <v>437</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+        <v>568</v>
+      </c>
+      <c r="D11" s="182" t="s">
+        <v>552</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
@@ -7230,7 +7373,9 @@
       <c r="C12" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="180" t="s">
+        <v>554</v>
+      </c>
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -7243,7 +7388,9 @@
       <c r="C13" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="180" t="s">
+        <v>555</v>
+      </c>
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -7254,8 +7401,12 @@
         <v>451</v>
       </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="182" t="s">
+        <v>556</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
@@ -7265,7 +7416,9 @@
         <v>453</v>
       </c>
       <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="180" t="s">
+        <v>550</v>
+      </c>
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -7276,7 +7429,9 @@
         <v>460</v>
       </c>
       <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="D16" s="180" t="s">
+        <v>558</v>
+      </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -7287,7 +7442,9 @@
         <v>467</v>
       </c>
       <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="D17" s="180" t="s">
+        <v>549</v>
+      </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -7298,7 +7455,9 @@
         <v>468</v>
       </c>
       <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="D18" s="180" t="s">
+        <v>550</v>
+      </c>
       <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -7306,12 +7465,14 @@
         <v>470</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="180" t="s">
+        <v>546</v>
+      </c>
       <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -7322,220 +7483,234 @@
         <v>471</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>482</v>
-      </c>
-      <c r="D20" s="19"/>
+        <v>481</v>
+      </c>
+      <c r="D20" s="180" t="s">
+        <v>546</v>
+      </c>
       <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="126" t="s">
-        <v>539</v>
-      </c>
-      <c r="B21" s="127" t="s">
-        <v>473</v>
-      </c>
-      <c r="C21" s="126" t="s">
-        <v>482</v>
-      </c>
-      <c r="D21" s="19"/>
+      <c r="A21" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="180" t="s">
+        <v>546</v>
+      </c>
       <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="126" t="s">
-        <v>540</v>
-      </c>
-      <c r="B22" s="127" t="s">
+      <c r="A22" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C22" s="126" t="s">
-        <v>482</v>
-      </c>
-      <c r="D22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="180" t="s">
+        <v>546</v>
+      </c>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
-        <v>538</v>
+        <v>475</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+        <v>476</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="D23" s="180" t="s">
+        <v>546</v>
+      </c>
       <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="19" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+        <v>478</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="D24" s="180" t="s">
+        <v>546</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="D25" s="19"/>
+        <v>507</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="180" t="s">
+        <v>548</v>
+      </c>
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+        <v>482</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="182" t="s">
+        <v>551</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="19" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="D27" s="180" t="s">
+        <v>548</v>
+      </c>
       <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>506</v>
       </c>
       <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="181" t="s">
+        <v>561</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="19" t="s">
-        <v>500</v>
+      <c r="A29" s="122" t="s">
+        <v>484</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="D29" s="180" t="s">
+        <v>549</v>
+      </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="19" t="s">
-        <v>501</v>
+      <c r="A30" s="122" t="s">
+        <v>486</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="D30" s="180" t="s">
+        <v>547</v>
+      </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="122" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="D31" s="180" t="s">
+        <v>563</v>
+      </c>
       <c r="E31" s="19"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
       <c r="A32" s="122" t="s">
         <v>487</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+        <v>488</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="D32" s="181" t="s">
+        <v>567</v>
+      </c>
       <c r="E32" s="19"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="122" t="s">
-        <v>502</v>
+    <row r="33" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A33" s="19" t="s">
+        <v>490</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+        <v>491</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" s="182" t="s">
+        <v>564</v>
+      </c>
       <c r="E33" s="19"/>
     </row>
-    <row r="34" spans="1:5" ht="41.65" x14ac:dyDescent="0.4">
-      <c r="A34" s="122" t="s">
-        <v>488</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="19" t="s">
+        <v>492</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="D34" s="19"/>
+        <v>493</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="182" t="s">
+        <v>565</v>
+      </c>
       <c r="E34" s="19"/>
     </row>
-    <row r="35" spans="1:5" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="19" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="D35" s="19"/>
+        <v>495</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="180" t="s">
+        <v>565</v>
+      </c>
       <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="19" t="s">
-        <v>493</v>
+      <c r="A36" s="122" t="s">
+        <v>496</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="D36" s="181" t="s">
+        <v>566</v>
+      </c>
       <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="122" t="s">
-        <v>497</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7547,10 +7722,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7590,7 +7765,7 @@
         <v>450</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>450</v>
@@ -7599,7 +7774,7 @@
         <v>450</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G2" s="19"/>
     </row>
@@ -7611,7 +7786,7 @@
         <v>454</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>465</v>
@@ -7620,7 +7795,7 @@
         <v>455</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G3" s="19"/>
     </row>
@@ -7636,10 +7811,10 @@
         <v>472</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F4" s="122" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G4" s="19"/>
     </row>
@@ -7652,27 +7827,27 @@
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="122" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>463</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -7684,10 +7859,10 @@
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="122" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -7695,11 +7870,11 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="B8" s="122" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -7708,20 +7883,64 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>570</v>
+      </c>
+      <c r="B12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C12" t="s">
+        <v>572</v>
+      </c>
+      <c r="D12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>574</v>
+      </c>
+      <c r="B13" t="s">
+        <v>575</v>
+      </c>
+      <c r="C13" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>577</v>
+      </c>
+      <c r="B14" t="s">
+        <v>578</v>
+      </c>
+      <c r="C14" t="s">
+        <v>579</v>
+      </c>
+      <c r="D14" t="s">
+        <v>580</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -8769,7 +8988,7 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="136" t="s">
+      <c r="G5" s="134" t="s">
         <v>373</v>
       </c>
       <c r="H5" s="98"/>
@@ -8803,7 +9022,7 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="137"/>
+      <c r="G6" s="135"/>
       <c r="H6" s="98"/>
       <c r="I6" s="97">
         <v>0.41666666666666669</v>
@@ -8835,7 +9054,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="138"/>
+      <c r="G7" s="136"/>
       <c r="H7" s="19"/>
       <c r="I7" s="97">
         <v>0.45833333333333331</v>
@@ -8911,7 +9130,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="135" t="s">
+      <c r="G10" s="133" t="s">
         <v>307</v>
       </c>
       <c r="H10" s="19"/>
@@ -8945,7 +9164,7 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="135"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="19"/>
       <c r="I11" s="97">
         <v>0.625</v>
@@ -10672,17 +10891,17 @@
       <c r="F1" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="144" t="s">
+      <c r="G1" s="142" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="144"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="137" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="141"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="139"/>
       <c r="E2" s="64" t="s">
         <v>172</v>
       </c>
@@ -10832,14 +11051,14 @@
       <c r="D15" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="142" t="s">
+      <c r="E15" s="140" t="s">
         <v>258</v>
       </c>
-      <c r="F15" s="143"/>
-      <c r="G15" s="142" t="s">
+      <c r="F15" s="141"/>
+      <c r="G15" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="H15" s="145"/>
+      <c r="H15" s="143"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="55" t="s">
@@ -10978,13 +11197,13 @@
     </row>
     <row r="25" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B25" s="55" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
@@ -10993,13 +11212,13 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24"/>
@@ -11008,13 +11227,13 @@
     </row>
     <row r="27" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B27" s="55" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="24"/>
@@ -11023,13 +11242,13 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="55" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="24"/>
@@ -11038,13 +11257,13 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B29" s="55" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="24"/>
@@ -11053,13 +11272,13 @@
     </row>
     <row r="30" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B30" s="55" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24"/>
@@ -11068,13 +11287,13 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B31" s="55" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
@@ -11083,33 +11302,33 @@
     </row>
     <row r="32" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B32" s="55" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="24"/>
       <c r="G32" s="23"/>
       <c r="H32" s="74"/>
     </row>
-    <row r="33" spans="2:8" s="128" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B33" s="129" t="s">
-        <v>543</v>
-      </c>
-      <c r="C33" s="130" t="s">
-        <v>544</v>
-      </c>
-      <c r="D33" s="131" t="s">
-        <v>545</v>
-      </c>
-      <c r="E33" s="132"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="134"/>
+    <row r="33" spans="2:8" s="126" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B33" s="127" t="s">
+        <v>539</v>
+      </c>
+      <c r="C33" s="128" t="s">
+        <v>540</v>
+      </c>
+      <c r="D33" s="129" t="s">
+        <v>541</v>
+      </c>
+      <c r="E33" s="130"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="132"/>
     </row>
     <row r="34" spans="2:8" ht="27.75" x14ac:dyDescent="0.4">
       <c r="B34" s="55" t="s">
@@ -11218,13 +11437,13 @@
     </row>
     <row r="41" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="57" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C41" s="58" t="s">
         <v>186</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E41" s="69"/>
       <c r="F41" s="70"/>
